--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>trideni</t>
   </si>
@@ -86,6 +86,9 @@
     <t>5. 1. 2021</t>
   </si>
   <si>
+    <t>26. 1. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -176,10 +179,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,16 +635,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.06</v>
@@ -703,16 +709,19 @@
       <c r="W2" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -774,16 +783,19 @@
       <c r="W3" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>0.06</v>
@@ -845,16 +857,19 @@
       <c r="W4" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>0.06</v>
@@ -916,16 +931,19 @@
       <c r="W5" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
         <v>0.04</v>
@@ -987,16 +1005,19 @@
       <c r="W6" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.06</v>
@@ -1058,16 +1079,19 @@
       <c r="W7" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1129,16 +1153,19 @@
       <c r="W8" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
@@ -1200,16 +1227,19 @@
       <c r="W9" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>0.07000000000000001</v>
@@ -1271,16 +1301,19 @@
       <c r="W10" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
         <v>0.04</v>
@@ -1342,16 +1375,19 @@
       <c r="W11" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0.06</v>
@@ -1413,16 +1449,19 @@
       <c r="W12" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1484,16 +1523,19 @@
       <c r="W13" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.09</v>
@@ -1555,16 +1597,19 @@
       <c r="W14" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
         <v>0.06</v>
@@ -1626,16 +1671,19 @@
       <c r="W15" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -1697,16 +1745,19 @@
       <c r="W16" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.07000000000000001</v>
@@ -1768,16 +1819,19 @@
       <c r="W17" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -1839,16 +1893,19 @@
       <c r="W18" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>0.05</v>
@@ -1910,16 +1967,19 @@
       <c r="W19" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.06</v>
@@ -1981,16 +2041,19 @@
       <c r="W20" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0.04</v>
@@ -2052,16 +2115,19 @@
       <c r="W21" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>0.05</v>
@@ -2123,16 +2189,19 @@
       <c r="W22" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>0.1</v>
@@ -2194,10 +2263,13 @@
       <c r="W23" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2219,7 +2291,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2286,13 +2358,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>2439</v>
@@ -2354,13 +2429,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>1166</v>
@@ -2422,13 +2500,16 @@
       <c r="V3" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>1273</v>
@@ -2490,13 +2571,16 @@
       <c r="V4" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>321</v>
@@ -2558,13 +2642,16 @@
       <c r="V5" t="n">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>832</v>
@@ -2626,13 +2713,16 @@
       <c r="V6" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
         <v>381</v>
@@ -2694,13 +2784,16 @@
       <c r="V7" t="n">
         <v>324</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
         <v>882</v>
@@ -2762,13 +2855,16 @@
       <c r="V8" t="n">
         <v>793</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
         <v>194</v>
@@ -2830,13 +2926,16 @@
       <c r="V9" t="n">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>383</v>
@@ -2898,13 +2997,16 @@
       <c r="V10" t="n">
         <v>340</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>465</v>
@@ -2966,13 +3068,16 @@
       <c r="V11" t="n">
         <v>408</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>440</v>
@@ -3034,13 +3139,16 @@
       <c r="V12" t="n">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
         <v>957</v>
@@ -3102,13 +3210,16 @@
       <c r="V13" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
         <v>302</v>
@@ -3170,13 +3281,16 @@
       <c r="V14" t="n">
         <v>261</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
         <v>689</v>
@@ -3238,13 +3352,16 @@
       <c r="V15" t="n">
         <v>525</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
         <v>1448</v>
@@ -3306,13 +3423,16 @@
       <c r="V16" t="n">
         <v>1400</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
         <v>404</v>
@@ -3374,13 +3494,16 @@
       <c r="V17" t="n">
         <v>313</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>971</v>
@@ -3442,13 +3565,16 @@
       <c r="V18" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
         <v>666</v>
@@ -3510,13 +3636,16 @@
       <c r="V19" t="n">
         <v>685</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
         <v>200</v>
@@ -3578,13 +3707,16 @@
       <c r="V20" t="n">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>882</v>
@@ -3646,13 +3778,16 @@
       <c r="V21" t="n">
         <v>405</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
         <v>1058</v>
@@ -3714,13 +3849,16 @@
       <c r="V22" t="n">
         <v>797</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
         <v>498</v>
@@ -3782,10 +3920,13 @@
       <c r="V23" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -3808,6 +3949,7 @@
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>trideni</t>
   </si>
@@ -89,6 +89,9 @@
     <t>26. 1. 2021</t>
   </si>
   <si>
+    <t>16. 2. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -179,10 +182,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,16 +641,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.06</v>
@@ -712,16 +718,19 @@
       <c r="X2" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -786,16 +795,19 @@
       <c r="X3" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>0.06</v>
@@ -860,16 +872,19 @@
       <c r="X4" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>0.06</v>
@@ -896,7 +911,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M5" t="n">
         <v>0.05</v>
@@ -908,7 +923,7 @@
         <v>0.08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q5" t="n">
         <v>0.06</v>
@@ -920,13 +935,13 @@
         <v>0.09</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U5" t="n">
         <v>0.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W5" t="n">
         <v>0.05</v>
@@ -934,16 +949,19 @@
       <c r="X5" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>0.04</v>
@@ -1008,22 +1026,25 @@
       <c r="X6" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="F7" t="n">
         <v>0.25</v>
@@ -1032,7 +1053,7 @@
         <v>0.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
         <v>0.16</v>
@@ -1041,16 +1062,16 @@
         <v>0.13</v>
       </c>
       <c r="K7" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M7" t="n">
         <v>0.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="O7" t="n">
         <v>0.14</v>
@@ -1068,7 +1089,7 @@
         <v>0.17</v>
       </c>
       <c r="T7" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="U7" t="n">
         <v>0.14</v>
@@ -1077,21 +1098,24 @@
         <v>0.14</v>
       </c>
       <c r="W7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="X7" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1156,16 +1180,19 @@
       <c r="X8" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
@@ -1230,16 +1257,19 @@
       <c r="X9" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
         <v>0.07000000000000001</v>
@@ -1304,16 +1334,19 @@
       <c r="X10" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
         <v>0.04</v>
@@ -1378,16 +1411,19 @@
       <c r="X11" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>0.06</v>
@@ -1452,16 +1488,19 @@
       <c r="X12" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1526,16 +1565,19 @@
       <c r="X13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>0.09</v>
@@ -1600,16 +1642,19 @@
       <c r="X14" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.06</v>
@@ -1674,16 +1719,19 @@
       <c r="X15" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -1748,16 +1796,19 @@
       <c r="X16" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.07000000000000001</v>
@@ -1817,21 +1868,24 @@
         <v>0.16</v>
       </c>
       <c r="W17" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="X17" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -1843,7 +1897,7 @@
         <v>0.13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
@@ -1855,7 +1909,7 @@
         <v>0.1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L18" t="n">
         <v>0.08</v>
@@ -1873,7 +1927,7 @@
         <v>0.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R18" t="n">
         <v>0.1</v>
@@ -1885,7 +1939,7 @@
         <v>0.12</v>
       </c>
       <c r="U18" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="V18" t="n">
         <v>0.1</v>
@@ -1894,18 +1948,21 @@
         <v>0.09</v>
       </c>
       <c r="X18" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>0.12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.05</v>
@@ -1917,19 +1974,19 @@
         <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H19" t="n">
         <v>0.08</v>
       </c>
       <c r="I19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.06</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="K19" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="L19" t="n">
         <v>0.06</v>
@@ -1947,13 +2004,13 @@
         <v>0.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T19" t="n">
         <v>0.08</v>
@@ -1962,7 +2019,7 @@
         <v>0.09</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="W19" t="n">
         <v>0.09</v>
@@ -1970,40 +2027,43 @@
       <c r="X19" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.06</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.05</v>
       </c>
       <c r="L20" t="n">
         <v>0.05</v>
@@ -2021,39 +2081,42 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R20" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="S20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="V20" t="n">
         <v>0.08</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>0.08</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.04</v>
@@ -2118,16 +2181,19 @@
       <c r="X21" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.05</v>
@@ -2192,16 +2258,19 @@
       <c r="X22" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0.1</v>
@@ -2266,10 +2335,13 @@
       <c r="X23" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,7 +2363,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2361,13 +2433,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>2439</v>
@@ -2432,13 +2507,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>1166</v>
@@ -2503,13 +2581,16 @@
       <c r="W3" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>1273</v>
@@ -2574,84 +2655,90 @@
       <c r="W4" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D5" t="n">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E5" t="n">
         <v>394</v>
       </c>
       <c r="F5" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G5" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H5" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="I5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
         <v>303</v>
       </c>
       <c r="M5" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N5" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O5" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P5" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q5" t="n">
+        <v>312</v>
+      </c>
+      <c r="R5" t="n">
+        <v>295</v>
+      </c>
+      <c r="S5" t="n">
+        <v>307</v>
+      </c>
+      <c r="T5" t="n">
+        <v>289</v>
+      </c>
+      <c r="U5" t="n">
+        <v>277</v>
+      </c>
+      <c r="V5" t="n">
         <v>305</v>
       </c>
-      <c r="R5" t="n">
-        <v>291</v>
-      </c>
-      <c r="S5" t="n">
-        <v>300</v>
-      </c>
-      <c r="T5" t="n">
-        <v>279</v>
-      </c>
-      <c r="U5" t="n">
-        <v>269</v>
-      </c>
-      <c r="V5" t="n">
-        <v>298</v>
-      </c>
       <c r="W5" t="n">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>293</v>
+      </c>
+      <c r="X5" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
         <v>832</v>
@@ -2716,87 +2803,93 @@
       <c r="W6" t="n">
         <v>732</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D7" t="n">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="E7" t="n">
         <v>406</v>
       </c>
       <c r="F7" t="n">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G7" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H7" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="I7" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="K7" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L7" t="n">
         <v>349</v>
       </c>
       <c r="M7" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="N7" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O7" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P7" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q7" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="R7" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="S7" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="T7" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="U7" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="V7" t="n">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="W7" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>326</v>
+      </c>
+      <c r="X7" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D8" t="n">
         <v>924</v>
@@ -2811,16 +2904,16 @@
         <v>884</v>
       </c>
       <c r="H8" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I8" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="J8" t="n">
         <v>850</v>
       </c>
       <c r="K8" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L8" t="n">
         <v>800</v>
@@ -2829,7 +2922,7 @@
         <v>820</v>
       </c>
       <c r="N8" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O8" t="n">
         <v>801</v>
@@ -2841,10 +2934,10 @@
         <v>835</v>
       </c>
       <c r="R8" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S8" t="n">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="T8" t="n">
         <v>785</v>
@@ -2856,15 +2949,18 @@
         <v>793</v>
       </c>
       <c r="W8" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>765</v>
+      </c>
+      <c r="X8" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
         <v>194</v>
@@ -2929,13 +3025,16 @@
       <c r="W9" t="n">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
         <v>383</v>
@@ -3000,13 +3099,16 @@
       <c r="W10" t="n">
         <v>329</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
         <v>465</v>
@@ -3071,13 +3173,16 @@
       <c r="W11" t="n">
         <v>402</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>440</v>
@@ -3142,13 +3247,16 @@
       <c r="W12" t="n">
         <v>379</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
         <v>957</v>
@@ -3213,13 +3321,16 @@
       <c r="W13" t="n">
         <v>848</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
         <v>302</v>
@@ -3284,13 +3395,16 @@
       <c r="W14" t="n">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
         <v>689</v>
@@ -3355,13 +3469,16 @@
       <c r="W15" t="n">
         <v>491</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
         <v>1448</v>
@@ -3426,13 +3543,16 @@
       <c r="W16" t="n">
         <v>1403</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
         <v>404</v>
@@ -3459,10 +3579,10 @@
         <v>370</v>
       </c>
       <c r="K17" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L17" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M17" t="n">
         <v>304</v>
@@ -3480,10 +3600,10 @@
         <v>319</v>
       </c>
       <c r="R17" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S17" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T17" t="n">
         <v>273</v>
@@ -3492,231 +3612,243 @@
         <v>250</v>
       </c>
       <c r="V17" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="W17" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="D18" t="n">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="E18" t="n">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="F18" t="n">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="G18" t="n">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="H18" t="n">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="I18" t="n">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="J18" t="n">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="K18" t="n">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="L18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M18" t="n">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="N18" t="n">
+        <v>860</v>
+      </c>
+      <c r="O18" t="n">
+        <v>842</v>
+      </c>
+      <c r="P18" t="n">
+        <v>871</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>884</v>
+      </c>
+      <c r="R18" t="n">
+        <v>857</v>
+      </c>
+      <c r="S18" t="n">
         <v>881</v>
       </c>
-      <c r="O18" t="n">
-        <v>863</v>
-      </c>
-      <c r="P18" t="n">
-        <v>890</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>911</v>
-      </c>
-      <c r="R18" t="n">
-        <v>881</v>
-      </c>
-      <c r="S18" t="n">
-        <v>902</v>
-      </c>
       <c r="T18" t="n">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="U18" t="n">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="V18" t="n">
-        <v>849</v>
+        <v>810</v>
       </c>
       <c r="W18" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>806</v>
+      </c>
+      <c r="X18" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D19" t="n">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="E19" t="n">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="F19" t="n">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="G19" t="n">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H19" t="n">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="I19" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="J19" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="K19" t="n">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="L19" t="n">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="M19" t="n">
+        <v>698</v>
+      </c>
+      <c r="N19" t="n">
+        <v>664</v>
+      </c>
+      <c r="O19" t="n">
+        <v>672</v>
+      </c>
+      <c r="P19" t="n">
+        <v>681</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>694</v>
+      </c>
+      <c r="R19" t="n">
+        <v>675</v>
+      </c>
+      <c r="S19" t="n">
         <v>693</v>
       </c>
-      <c r="N19" t="n">
-        <v>670</v>
-      </c>
-      <c r="O19" t="n">
-        <v>664</v>
-      </c>
-      <c r="P19" t="n">
-        <v>687</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>690</v>
-      </c>
-      <c r="R19" t="n">
-        <v>676</v>
-      </c>
-      <c r="S19" t="n">
-        <v>696</v>
-      </c>
       <c r="T19" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="U19" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="V19" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="W19" t="n">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>671</v>
+      </c>
+      <c r="X19" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D20" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E20" t="n">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F20" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G20" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="H20" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="I20" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J20" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K20" t="n">
+        <v>225</v>
+      </c>
+      <c r="L20" t="n">
+        <v>226</v>
+      </c>
+      <c r="M20" t="n">
+        <v>234</v>
+      </c>
+      <c r="N20" t="n">
+        <v>243</v>
+      </c>
+      <c r="O20" t="n">
         <v>206</v>
       </c>
-      <c r="L20" t="n">
-        <v>204</v>
-      </c>
-      <c r="M20" t="n">
-        <v>214</v>
-      </c>
-      <c r="N20" t="n">
-        <v>216</v>
-      </c>
-      <c r="O20" t="n">
-        <v>193</v>
-      </c>
       <c r="P20" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Q20" t="n">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="R20" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="S20" t="n">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="T20" t="n">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="U20" t="n">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="V20" t="n">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="W20" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>230</v>
+      </c>
+      <c r="X20" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>882</v>
@@ -3781,13 +3913,16 @@
       <c r="W21" t="n">
         <v>388</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>1058</v>
@@ -3852,13 +3987,16 @@
       <c r="W22" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>498</v>
@@ -3923,10 +4061,13 @@
       <c r="W23" t="n">
         <v>969</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -3950,6 +4091,7 @@
       <c r="U24" t="s"/>
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>trideni</t>
   </si>
@@ -92,6 +92,9 @@
     <t>16. 2. 2021</t>
   </si>
   <si>
+    <t>2. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -182,10 +185,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,16 +647,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.06</v>
@@ -721,16 +727,19 @@
       <c r="Y2" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -798,16 +807,19 @@
       <c r="Y3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>0.06</v>
@@ -875,22 +887,25 @@
       <c r="Y4" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>0.06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
@@ -902,10 +917,10 @@
         <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K5" t="n">
         <v>0.07000000000000001</v>
@@ -923,45 +938,48 @@
         <v>0.08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q5" t="n">
         <v>0.06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" t="n">
         <v>0.09</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W5" t="n">
         <v>0.05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>0.08</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>0.04</v>
@@ -1029,16 +1047,19 @@
       <c r="Y6" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0.07000000000000001</v>
@@ -1050,7 +1071,7 @@
         <v>0.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H7" t="n">
         <v>0.18</v>
@@ -1089,13 +1110,13 @@
         <v>0.17</v>
       </c>
       <c r="T7" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="U7" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="V7" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="W7" t="n">
         <v>0.16</v>
@@ -1104,18 +1125,21 @@
         <v>0.14</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>0.19</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1183,16 +1207,19 @@
       <c r="Y8" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
@@ -1260,16 +1287,19 @@
       <c r="Y9" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>0.07000000000000001</v>
@@ -1337,16 +1367,19 @@
       <c r="Y10" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>0.04</v>
@@ -1414,16 +1447,19 @@
       <c r="Y11" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0.06</v>
@@ -1491,16 +1527,19 @@
       <c r="Y12" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1568,16 +1607,19 @@
       <c r="Y13" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.09</v>
@@ -1645,16 +1687,19 @@
       <c r="Y14" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>0.06</v>
@@ -1722,16 +1767,19 @@
       <c r="Y15" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -1799,16 +1847,19 @@
       <c r="Y16" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.07000000000000001</v>
@@ -1876,16 +1927,19 @@
       <c r="Y17" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -1948,21 +2002,24 @@
         <v>0.09</v>
       </c>
       <c r="X18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Y18" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.05</v>
@@ -2030,16 +2087,19 @@
       <c r="Y19" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.07000000000000001</v>
@@ -2107,16 +2167,19 @@
       <c r="Y20" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.04</v>
@@ -2184,16 +2247,19 @@
       <c r="Y21" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.05</v>
@@ -2261,16 +2327,19 @@
       <c r="Y22" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>0.1</v>
@@ -2338,10 +2407,13 @@
       <c r="Y23" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2363,7 +2435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2436,13 +2508,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>2439</v>
@@ -2510,13 +2585,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>1166</v>
@@ -2584,13 +2662,16 @@
       <c r="X3" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1273</v>
@@ -2658,87 +2739,93 @@
       <c r="X4" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D5" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E5" t="n">
         <v>394</v>
       </c>
       <c r="F5" t="n">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G5" t="n">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="H5" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I5" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
         <v>303</v>
       </c>
       <c r="M5" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="N5" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O5" t="n">
+        <v>304</v>
+      </c>
+      <c r="P5" t="n">
+        <v>310</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>323</v>
+      </c>
+      <c r="R5" t="n">
+        <v>301</v>
+      </c>
+      <c r="S5" t="n">
+        <v>327</v>
+      </c>
+      <c r="T5" t="n">
         <v>299</v>
       </c>
-      <c r="P5" t="n">
+      <c r="U5" t="n">
+        <v>282</v>
+      </c>
+      <c r="V5" t="n">
+        <v>312</v>
+      </c>
+      <c r="W5" t="n">
         <v>308</v>
       </c>
-      <c r="Q5" t="n">
-        <v>312</v>
-      </c>
-      <c r="R5" t="n">
-        <v>295</v>
-      </c>
-      <c r="S5" t="n">
-        <v>307</v>
-      </c>
-      <c r="T5" t="n">
-        <v>289</v>
-      </c>
-      <c r="U5" t="n">
-        <v>277</v>
-      </c>
-      <c r="V5" t="n">
-        <v>305</v>
-      </c>
-      <c r="W5" t="n">
-        <v>293</v>
-      </c>
       <c r="X5" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>292</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>832</v>
@@ -2806,90 +2893,96 @@
       <c r="X6" t="n">
         <v>733</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D7" t="n">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E7" t="n">
         <v>406</v>
       </c>
       <c r="F7" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G7" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H7" t="n">
         <v>376</v>
       </c>
       <c r="I7" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J7" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K7" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L7" t="n">
         <v>349</v>
       </c>
       <c r="M7" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N7" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O7" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" t="n">
         <v>349</v>
       </c>
       <c r="Q7" t="n">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="R7" t="n">
         <v>350</v>
       </c>
       <c r="S7" t="n">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="T7" t="n">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="U7" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="V7" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="W7" t="n">
         <v>326</v>
       </c>
       <c r="X7" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>335</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D8" t="n">
         <v>924</v>
@@ -2904,10 +2997,10 @@
         <v>884</v>
       </c>
       <c r="H8" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I8" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J8" t="n">
         <v>850</v>
@@ -2922,19 +3015,19 @@
         <v>820</v>
       </c>
       <c r="N8" t="n">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O8" t="n">
         <v>801</v>
       </c>
       <c r="P8" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Q8" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="R8" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="S8" t="n">
         <v>828</v>
@@ -2952,15 +3045,18 @@
         <v>765</v>
       </c>
       <c r="X8" t="n">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>760</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>194</v>
@@ -3028,13 +3124,16 @@
       <c r="X9" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>383</v>
@@ -3102,13 +3201,16 @@
       <c r="X10" t="n">
         <v>332</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
         <v>465</v>
@@ -3176,13 +3278,16 @@
       <c r="X11" t="n">
         <v>395</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>440</v>
@@ -3250,13 +3355,16 @@
       <c r="X12" t="n">
         <v>378</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>957</v>
@@ -3324,13 +3432,16 @@
       <c r="X13" t="n">
         <v>836</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>302</v>
@@ -3398,13 +3509,16 @@
       <c r="X14" t="n">
         <v>239</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
         <v>689</v>
@@ -3472,13 +3586,16 @@
       <c r="X15" t="n">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
         <v>1448</v>
@@ -3546,13 +3663,16 @@
       <c r="X16" t="n">
         <v>1416</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>404</v>
@@ -3612,21 +3732,24 @@
         <v>250</v>
       </c>
       <c r="V17" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W17" t="n">
         <v>272</v>
       </c>
       <c r="X17" t="n">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>279</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>943</v>
@@ -3686,21 +3809,24 @@
         <v>793</v>
       </c>
       <c r="V18" t="n">
-        <v>810</v>
+        <v>849</v>
       </c>
       <c r="W18" t="n">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="X18" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>821</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
         <v>670</v>
@@ -3760,21 +3886,24 @@
         <v>635</v>
       </c>
       <c r="V19" t="n">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="W19" t="n">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="X19" t="n">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>626</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>224</v>
@@ -3834,21 +3963,24 @@
         <v>234</v>
       </c>
       <c r="V20" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="W20" t="n">
         <v>230</v>
       </c>
       <c r="X20" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>251</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>882</v>
@@ -3916,13 +4048,16 @@
       <c r="X21" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>1058</v>
@@ -3990,13 +4125,16 @@
       <c r="X22" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>498</v>
@@ -4064,10 +4202,13 @@
       <c r="X23" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -4092,6 +4233,7 @@
       <c r="V24" t="s"/>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>trideni</t>
   </si>
@@ -95,6 +95,9 @@
     <t>2. 3. 2021</t>
   </si>
   <si>
+    <t>16. 3. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -185,10 +188,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,16 +653,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.06</v>
@@ -730,16 +736,19 @@
       <c r="Z2" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -810,16 +819,19 @@
       <c r="Z3" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.06</v>
@@ -890,16 +902,19 @@
       <c r="Z4" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.06</v>
@@ -970,16 +985,19 @@
       <c r="Z5" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>0.04</v>
@@ -1050,16 +1068,19 @@
       <c r="Z6" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0.07000000000000001</v>
@@ -1130,16 +1151,19 @@
       <c r="Z7" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1210,16 +1234,19 @@
       <c r="Z8" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>0.1</v>
@@ -1290,16 +1317,19 @@
       <c r="Z9" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.07000000000000001</v>
@@ -1370,16 +1400,19 @@
       <c r="Z10" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0.04</v>
@@ -1450,16 +1483,19 @@
       <c r="Z11" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0.06</v>
@@ -1530,16 +1566,19 @@
       <c r="Z12" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1610,16 +1649,19 @@
       <c r="Z13" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>0.09</v>
@@ -1690,16 +1732,19 @@
       <c r="Z14" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
         <v>0.06</v>
@@ -1770,16 +1815,19 @@
       <c r="Z15" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -1850,16 +1898,19 @@
       <c r="Z16" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.07000000000000001</v>
@@ -1930,16 +1981,19 @@
       <c r="Z17" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -2010,16 +2064,19 @@
       <c r="Z18" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.05</v>
@@ -2090,16 +2147,19 @@
       <c r="Z19" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.07000000000000001</v>
@@ -2170,16 +2230,19 @@
       <c r="Z20" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.04</v>
@@ -2250,16 +2313,19 @@
       <c r="Z21" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.05</v>
@@ -2330,16 +2396,19 @@
       <c r="Z22" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.1</v>
@@ -2410,10 +2479,13 @@
       <c r="Z23" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2435,7 +2507,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,13 +2583,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>2439</v>
@@ -2588,13 +2663,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>1166</v>
@@ -2665,13 +2743,16 @@
       <c r="Y3" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>1273</v>
@@ -2742,13 +2823,16 @@
       <c r="Y4" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>334</v>
@@ -2819,13 +2903,16 @@
       <c r="Y5" t="n">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>832</v>
@@ -2896,13 +2983,16 @@
       <c r="Y6" t="n">
         <v>748</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>391</v>
@@ -2973,13 +3063,16 @@
       <c r="Y7" t="n">
         <v>325</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>882</v>
@@ -3050,13 +3143,16 @@
       <c r="Y8" t="n">
         <v>763</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>194</v>
@@ -3127,13 +3223,16 @@
       <c r="Y9" t="n">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>383</v>
@@ -3204,13 +3303,16 @@
       <c r="Y10" t="n">
         <v>334</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
         <v>465</v>
@@ -3281,13 +3383,16 @@
       <c r="Y11" t="n">
         <v>396</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>440</v>
@@ -3358,13 +3463,16 @@
       <c r="Y12" t="n">
         <v>380</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>957</v>
@@ -3435,13 +3543,16 @@
       <c r="Y13" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>302</v>
@@ -3512,13 +3623,16 @@
       <c r="Y14" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>689</v>
@@ -3589,13 +3703,16 @@
       <c r="Y15" t="n">
         <v>473</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>1448</v>
@@ -3666,13 +3783,16 @@
       <c r="Y16" t="n">
         <v>1397</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>404</v>
@@ -3743,13 +3863,16 @@
       <c r="Y17" t="n">
         <v>283</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>943</v>
@@ -3820,13 +3943,16 @@
       <c r="Y18" t="n">
         <v>824</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>670</v>
@@ -3897,13 +4023,16 @@
       <c r="Y19" t="n">
         <v>623</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>224</v>
@@ -3974,13 +4103,16 @@
       <c r="Y20" t="n">
         <v>269</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
         <v>882</v>
@@ -4051,13 +4183,16 @@
       <c r="Y21" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>1058</v>
@@ -4128,13 +4263,16 @@
       <c r="Y22" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>498</v>
@@ -4205,10 +4343,13 @@
       <c r="Y23" t="n">
         <v>1058</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -4234,6 +4375,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
+      <c r="Z24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAQ\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB912584-C96A-4386-A30D-43B6421AC08E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC64F8-1351-47BD-BAF9-BE9C9CE00123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>trideni</t>
   </si>
@@ -110,6 +110,9 @@
     <t>4. 5. 2021</t>
   </si>
   <si>
+    <t>25. 5. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -200,10 +203,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -230,8 +233,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,16 +689,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -777,16 +781,19 @@
       <c r="AC2">
         <v>0.1</v>
       </c>
+      <c r="AD2">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -866,16 +873,19 @@
       <c r="AC3">
         <v>0.08</v>
       </c>
+      <c r="AD3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -955,16 +965,19 @@
       <c r="AC4">
         <v>0.12</v>
       </c>
+      <c r="AD4">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1044,16 +1057,19 @@
       <c r="AC5">
         <v>0.08</v>
       </c>
+      <c r="AD5">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1133,16 +1149,19 @@
       <c r="AC6">
         <v>0.08</v>
       </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1222,16 +1241,19 @@
       <c r="AC7">
         <v>0.15</v>
       </c>
+      <c r="AD7">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1311,16 +1333,19 @@
       <c r="AC8">
         <v>0.11</v>
       </c>
+      <c r="AD8">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1400,16 +1425,19 @@
       <c r="AC9">
         <v>0.22</v>
       </c>
+      <c r="AD9">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1489,16 +1517,19 @@
       <c r="AC10">
         <v>0.1</v>
       </c>
+      <c r="AD10">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1578,16 +1609,19 @@
       <c r="AC11">
         <v>0.09</v>
       </c>
+      <c r="AD11">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1667,16 +1701,19 @@
       <c r="AC12">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AD12">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1756,16 +1793,19 @@
       <c r="AC13">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AD13">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -1845,16 +1885,19 @@
       <c r="AC14">
         <v>0.24</v>
       </c>
+      <c r="AD14">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -1934,16 +1977,19 @@
       <c r="AC15">
         <v>0.12</v>
       </c>
+      <c r="AD15">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2023,16 +2069,19 @@
       <c r="AC16">
         <v>0.08</v>
       </c>
+      <c r="AD16">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2112,16 +2161,19 @@
       <c r="AC17">
         <v>0.16</v>
       </c>
+      <c r="AD17">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2201,16 +2253,19 @@
       <c r="AC18">
         <v>0.09</v>
       </c>
+      <c r="AD18">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2290,16 +2345,19 @@
       <c r="AC19">
         <v>0.09</v>
       </c>
+      <c r="AD19">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2379,16 +2437,19 @@
       <c r="AC20">
         <v>0.1</v>
       </c>
+      <c r="AD20">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2468,16 +2529,19 @@
       <c r="AC21">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AD21">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2557,16 +2621,19 @@
       <c r="AC22">
         <v>0.06</v>
       </c>
+      <c r="AD22">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -2646,10 +2713,13 @@
       <c r="AC23">
         <v>0.17</v>
       </c>
+      <c r="AD23">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2659,13 +2729,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2750,13 +2820,16 @@
       <c r="AB1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -2834,15 +2907,18 @@
         <v>2059</v>
       </c>
       <c r="AB2">
-        <v>2032</v>
+        <v>2029</v>
+      </c>
+      <c r="AC2">
+        <v>1975</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -2920,15 +2996,18 @@
         <v>997</v>
       </c>
       <c r="AB3">
-        <v>981</v>
+        <v>980</v>
+      </c>
+      <c r="AC3">
+        <v>956</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3006,15 +3085,18 @@
         <v>1062</v>
       </c>
       <c r="AB4">
-        <v>1051</v>
+        <v>1049</v>
+      </c>
+      <c r="AC4">
+        <v>1019</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3092,15 +3174,18 @@
         <v>283</v>
       </c>
       <c r="AB5">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="AC5">
+        <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3180,13 +3265,16 @@
       <c r="AB6">
         <v>709</v>
       </c>
+      <c r="AC6">
+        <v>687</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3266,13 +3354,16 @@
       <c r="AB7">
         <v>315</v>
       </c>
+      <c r="AC7">
+        <v>313</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3350,15 +3441,18 @@
         <v>734</v>
       </c>
       <c r="AB8">
-        <v>736</v>
+        <v>734</v>
+      </c>
+      <c r="AC8">
+        <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3438,13 +3532,16 @@
       <c r="AB9">
         <v>169</v>
       </c>
+      <c r="AC9">
+        <v>168</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -3522,15 +3619,18 @@
         <v>322</v>
       </c>
       <c r="AB10">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="AC10">
+        <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -3608,15 +3708,18 @@
         <v>389</v>
       </c>
       <c r="AB11">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="AC11">
+        <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -3694,15 +3797,18 @@
         <v>365</v>
       </c>
       <c r="AB12">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="AC12">
+        <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -3782,13 +3888,16 @@
       <c r="AB13">
         <v>800</v>
       </c>
+      <c r="AC13">
+        <v>776</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -3868,13 +3977,16 @@
       <c r="AB14">
         <v>218</v>
       </c>
+      <c r="AC14">
+        <v>186</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -3952,15 +4064,18 @@
         <v>455</v>
       </c>
       <c r="AB15">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="AC15">
+        <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4038,15 +4153,18 @@
         <v>1373</v>
       </c>
       <c r="AB16">
-        <v>1387</v>
+        <v>1386</v>
+      </c>
+      <c r="AC16">
+        <v>1368</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4124,15 +4242,18 @@
         <v>246</v>
       </c>
       <c r="AB17">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="AC17">
+        <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4212,13 +4333,16 @@
       <c r="AB18">
         <v>736</v>
       </c>
+      <c r="AC18">
+        <v>738</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4296,15 +4420,18 @@
         <v>645</v>
       </c>
       <c r="AB19">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="AC19">
+        <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -4382,15 +4509,18 @@
         <v>252</v>
       </c>
       <c r="AB20">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="AC20">
+        <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -4470,13 +4600,16 @@
       <c r="AB21">
         <v>461</v>
       </c>
+      <c r="AC21">
+        <v>512</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -4556,13 +4689,16 @@
       <c r="AB22">
         <v>831</v>
       </c>
+      <c r="AC22">
+        <v>844</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -4640,12 +4776,15 @@
         <v>908</v>
       </c>
       <c r="AB23">
-        <v>740</v>
+        <v>737</v>
+      </c>
+      <c r="AC23">
+        <v>619</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAQ\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FC64F8-1351-47BD-BAF9-BE9C9CE00123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5DFD5-6B4D-4CCE-A6BA-6277A646EFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>trideni</t>
   </si>
@@ -113,6 +113,9 @@
     <t>25. 5. 2021</t>
   </si>
   <si>
+    <t>22. 6. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -203,10 +206,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -233,6 +236,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,13 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,16 +697,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -784,16 +792,19 @@
       <c r="AD2">
         <v>0.11</v>
       </c>
+      <c r="AE2">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -876,16 +887,19 @@
       <c r="AD3">
         <v>0.1</v>
       </c>
+      <c r="AE3">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -968,16 +982,19 @@
       <c r="AD4">
         <v>0.13</v>
       </c>
+      <c r="AE4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1060,16 +1077,19 @@
       <c r="AD5">
         <v>0.11</v>
       </c>
+      <c r="AE5">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1152,16 +1172,19 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1244,16 +1267,19 @@
       <c r="AD7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AE7">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1336,16 +1362,19 @@
       <c r="AD8">
         <v>0.12</v>
       </c>
+      <c r="AE8">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1428,16 +1457,19 @@
       <c r="AD9">
         <v>0.27</v>
       </c>
+      <c r="AE9">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1520,16 +1552,19 @@
       <c r="AD10">
         <v>0.12</v>
       </c>
+      <c r="AE10">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1612,16 +1647,19 @@
       <c r="AD11">
         <v>0.09</v>
       </c>
+      <c r="AE11">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1704,16 +1742,19 @@
       <c r="AD12">
         <v>0.13</v>
       </c>
+      <c r="AE12">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1796,16 +1837,19 @@
       <c r="AD13">
         <v>0.09</v>
       </c>
+      <c r="AE13">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -1888,16 +1932,19 @@
       <c r="AD14">
         <v>0.21</v>
       </c>
+      <c r="AE14">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -1980,16 +2027,19 @@
       <c r="AD15">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AE15">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2072,16 +2122,19 @@
       <c r="AD16">
         <v>0.1</v>
       </c>
+      <c r="AE16">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2164,16 +2217,19 @@
       <c r="AD17">
         <v>0.2</v>
       </c>
+      <c r="AE17">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2256,16 +2312,19 @@
       <c r="AD18">
         <v>0.12</v>
       </c>
+      <c r="AE18">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2348,16 +2407,19 @@
       <c r="AD19">
         <v>0.08</v>
       </c>
+      <c r="AE19">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2440,16 +2502,19 @@
       <c r="AD20">
         <v>0.13</v>
       </c>
+      <c r="AE20">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2532,16 +2597,19 @@
       <c r="AD21">
         <v>0.08</v>
       </c>
+      <c r="AE21">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2624,16 +2692,19 @@
       <c r="AD22">
         <v>0.09</v>
       </c>
+      <c r="AE22">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -2716,10 +2787,13 @@
       <c r="AD23">
         <v>0.19</v>
       </c>
+      <c r="AE23">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2729,13 +2803,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2823,13 +2897,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -2912,13 +2989,16 @@
       <c r="AC2">
         <v>1975</v>
       </c>
+      <c r="AD2">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -3001,13 +3081,16 @@
       <c r="AC3">
         <v>956</v>
       </c>
+      <c r="AD3">
+        <v>937</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3090,13 +3173,16 @@
       <c r="AC4">
         <v>1019</v>
       </c>
+      <c r="AD4">
+        <v>967</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3179,13 +3265,16 @@
       <c r="AC5">
         <v>269</v>
       </c>
+      <c r="AD5">
+        <v>260</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3268,13 +3357,16 @@
       <c r="AC6">
         <v>687</v>
       </c>
+      <c r="AD6">
+        <v>677</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3357,13 +3449,16 @@
       <c r="AC7">
         <v>313</v>
       </c>
+      <c r="AD7">
+        <v>296</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3446,13 +3541,16 @@
       <c r="AC8">
         <v>706</v>
       </c>
+      <c r="AD8">
+        <v>671</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3535,13 +3633,16 @@
       <c r="AC9">
         <v>168</v>
       </c>
+      <c r="AD9">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -3624,13 +3725,16 @@
       <c r="AC10">
         <v>303</v>
       </c>
+      <c r="AD10">
+        <v>298</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -3713,13 +3817,16 @@
       <c r="AC11">
         <v>376</v>
       </c>
+      <c r="AD11">
+        <v>357</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -3802,13 +3909,16 @@
       <c r="AC12">
         <v>352</v>
       </c>
+      <c r="AD12">
+        <v>342</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -3891,13 +4001,16 @@
       <c r="AC13">
         <v>776</v>
       </c>
+      <c r="AD13">
+        <v>746</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -3980,13 +4093,16 @@
       <c r="AC14">
         <v>186</v>
       </c>
+      <c r="AD14">
+        <v>183</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -4069,13 +4185,16 @@
       <c r="AC15">
         <v>421</v>
       </c>
+      <c r="AD15">
+        <v>377</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4158,13 +4277,16 @@
       <c r="AC16">
         <v>1368</v>
       </c>
+      <c r="AD16">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4247,13 +4369,16 @@
       <c r="AC17">
         <v>225</v>
       </c>
+      <c r="AD17">
+        <v>194</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4336,13 +4461,16 @@
       <c r="AC18">
         <v>738</v>
       </c>
+      <c r="AD18">
+        <v>753</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4425,13 +4553,16 @@
       <c r="AC19">
         <v>639</v>
       </c>
+      <c r="AD19">
+        <v>580</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -4514,13 +4645,16 @@
       <c r="AC20">
         <v>249</v>
       </c>
+      <c r="AD20">
+        <v>249</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -4603,13 +4737,16 @@
       <c r="AC21">
         <v>512</v>
       </c>
+      <c r="AD21">
+        <v>573</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -4692,13 +4829,16 @@
       <c r="AC22">
         <v>844</v>
       </c>
+      <c r="AD22">
+        <v>803</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -4781,10 +4921,13 @@
       <c r="AC23">
         <v>619</v>
       </c>
+      <c r="AD23">
+        <v>528</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAQ\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5DFD5-6B4D-4CCE-A6BA-6277A646EFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1F5B6-D618-485C-9BF5-7F86F8D85F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>trideni</t>
   </si>
@@ -116,6 +116,9 @@
     <t>22. 6. 2021</t>
   </si>
   <si>
+    <t>20. 7. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -206,10 +209,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,13 +602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,16 +702,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -795,16 +800,19 @@
       <c r="AE2">
         <v>0.09</v>
       </c>
+      <c r="AF2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -890,16 +898,19 @@
       <c r="AE3">
         <v>0.08</v>
       </c>
+      <c r="AF3">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -985,16 +996,19 @@
       <c r="AE4">
         <v>0.1</v>
       </c>
+      <c r="AF4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1080,16 +1094,19 @@
       <c r="AE5">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AF5">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1175,16 +1192,19 @@
       <c r="AE6">
         <v>0.08</v>
       </c>
+      <c r="AF6">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1270,16 +1290,19 @@
       <c r="AE7">
         <v>0.13</v>
       </c>
+      <c r="AF7">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1365,16 +1388,19 @@
       <c r="AE8">
         <v>0.09</v>
       </c>
+      <c r="AF8">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1460,16 +1486,19 @@
       <c r="AE9">
         <v>0.17</v>
       </c>
+      <c r="AF9">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1555,16 +1584,19 @@
       <c r="AE10">
         <v>0.1</v>
       </c>
+      <c r="AF10">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1650,16 +1682,19 @@
       <c r="AE11">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AF11">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1745,16 +1780,19 @@
       <c r="AE12">
         <v>0.12</v>
       </c>
+      <c r="AF12">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1840,16 +1878,19 @@
       <c r="AE13">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AF13">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -1935,16 +1976,19 @@
       <c r="AE14">
         <v>0.2</v>
       </c>
+      <c r="AF14">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -2030,16 +2074,19 @@
       <c r="AE15">
         <v>0.1</v>
       </c>
+      <c r="AF15">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2125,16 +2172,19 @@
       <c r="AE16">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AF16">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2220,16 +2270,19 @@
       <c r="AE17">
         <v>0.13</v>
       </c>
+      <c r="AF17">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2315,16 +2368,19 @@
       <c r="AE18">
         <v>0.11</v>
       </c>
+      <c r="AF18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2410,16 +2466,19 @@
       <c r="AE19">
         <v>0.05</v>
       </c>
+      <c r="AF19">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2505,16 +2564,19 @@
       <c r="AE20">
         <v>0.1</v>
       </c>
+      <c r="AF20">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2600,16 +2662,19 @@
       <c r="AE21">
         <v>0.05</v>
       </c>
+      <c r="AF21">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2695,16 +2760,19 @@
       <c r="AE22">
         <v>0.06</v>
       </c>
+      <c r="AF22">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -2790,10 +2858,13 @@
       <c r="AE23">
         <v>0.18</v>
       </c>
+      <c r="AF23">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2803,13 +2874,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2900,13 +2971,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -2992,13 +3066,16 @@
       <c r="AD2">
         <v>1904</v>
       </c>
+      <c r="AE2">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -3084,13 +3161,16 @@
       <c r="AD3">
         <v>937</v>
       </c>
+      <c r="AE3">
+        <v>863</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3176,13 +3256,16 @@
       <c r="AD4">
         <v>967</v>
       </c>
+      <c r="AE4">
+        <v>919</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3268,13 +3351,16 @@
       <c r="AD5">
         <v>260</v>
       </c>
+      <c r="AE5">
+        <v>233</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3360,13 +3446,16 @@
       <c r="AD6">
         <v>677</v>
       </c>
+      <c r="AE6">
+        <v>630</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3452,13 +3541,16 @@
       <c r="AD7">
         <v>296</v>
       </c>
+      <c r="AE7">
+        <v>285</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3544,13 +3636,16 @@
       <c r="AD8">
         <v>671</v>
       </c>
+      <c r="AE8">
+        <v>634</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3636,13 +3731,16 @@
       <c r="AD9">
         <v>161</v>
       </c>
+      <c r="AE9">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -3728,13 +3826,16 @@
       <c r="AD10">
         <v>298</v>
       </c>
+      <c r="AE10">
+        <v>286</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -3820,13 +3921,16 @@
       <c r="AD11">
         <v>357</v>
       </c>
+      <c r="AE11">
+        <v>334</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -3912,13 +4016,16 @@
       <c r="AD12">
         <v>342</v>
       </c>
+      <c r="AE12">
+        <v>314</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -4004,13 +4111,16 @@
       <c r="AD13">
         <v>746</v>
       </c>
+      <c r="AE13">
+        <v>703</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -4096,13 +4206,16 @@
       <c r="AD14">
         <v>183</v>
       </c>
+      <c r="AE14">
+        <v>158</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -4188,13 +4301,16 @@
       <c r="AD15">
         <v>377</v>
       </c>
+      <c r="AE15">
+        <v>372</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4280,13 +4396,16 @@
       <c r="AD16">
         <v>1344</v>
       </c>
+      <c r="AE16">
+        <v>1252</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4372,13 +4491,16 @@
       <c r="AD17">
         <v>194</v>
       </c>
+      <c r="AE17">
+        <v>201</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4464,13 +4586,16 @@
       <c r="AD18">
         <v>753</v>
       </c>
+      <c r="AE18">
+        <v>684</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4556,13 +4681,16 @@
       <c r="AD19">
         <v>580</v>
       </c>
+      <c r="AE19">
+        <v>557</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -4648,13 +4776,16 @@
       <c r="AD20">
         <v>249</v>
       </c>
+      <c r="AE20">
+        <v>236</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -4740,13 +4871,16 @@
       <c r="AD21">
         <v>573</v>
       </c>
+      <c r="AE21">
+        <v>459</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -4832,13 +4966,16 @@
       <c r="AD22">
         <v>803</v>
       </c>
+      <c r="AE22">
+        <v>767</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -4924,10 +5061,13 @@
       <c r="AD23">
         <v>528</v>
       </c>
+      <c r="AE23">
+        <v>556</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAQ\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1F5B6-D618-485C-9BF5-7F86F8D85F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5895BD-D4C5-437A-831F-F14674DB9E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
   <si>
     <t>trideni</t>
   </si>
@@ -119,6 +119,9 @@
     <t>20. 7. 2021</t>
   </si>
   <si>
+    <t>24. 8. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -209,10 +212,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
   </si>
 </sst>
 </file>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,16 +708,19 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -803,16 +809,19 @@
       <c r="AF2">
         <v>0.1</v>
       </c>
+      <c r="AG2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -901,16 +910,19 @@
       <c r="AF3">
         <v>0.09</v>
       </c>
+      <c r="AG3">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -999,16 +1011,19 @@
       <c r="AF4">
         <v>0.1</v>
       </c>
+      <c r="AG4">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1097,16 +1112,19 @@
       <c r="AF5">
         <v>0.06</v>
       </c>
+      <c r="AG5">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1195,16 +1213,19 @@
       <c r="AF6">
         <v>0.11</v>
       </c>
+      <c r="AG6">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1293,16 +1314,19 @@
       <c r="AF7">
         <v>0.13</v>
       </c>
+      <c r="AG7">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1391,16 +1415,19 @@
       <c r="AF8">
         <v>0.09</v>
       </c>
+      <c r="AG8">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1489,16 +1516,19 @@
       <c r="AF9">
         <v>0.2</v>
       </c>
+      <c r="AG9">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1587,16 +1617,19 @@
       <c r="AF10">
         <v>0.11</v>
       </c>
+      <c r="AG10">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1685,16 +1718,19 @@
       <c r="AF11">
         <v>0.08</v>
       </c>
+      <c r="AG11">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1783,16 +1819,19 @@
       <c r="AF12">
         <v>0.09</v>
       </c>
+      <c r="AG12">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1881,16 +1920,19 @@
       <c r="AF13">
         <v>0.08</v>
       </c>
+      <c r="AG13">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -1979,16 +2021,19 @@
       <c r="AF14">
         <v>0.19</v>
       </c>
+      <c r="AG14">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -2077,16 +2122,19 @@
       <c r="AF15">
         <v>0.11</v>
       </c>
+      <c r="AG15">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2175,16 +2223,19 @@
       <c r="AF16">
         <v>0.08</v>
       </c>
+      <c r="AG16">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2273,16 +2324,19 @@
       <c r="AF17">
         <v>0.15</v>
       </c>
+      <c r="AG17">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2371,16 +2425,19 @@
       <c r="AF18">
         <v>0.1</v>
       </c>
+      <c r="AG18">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2469,16 +2526,19 @@
       <c r="AF19">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AG19">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2567,16 +2627,19 @@
       <c r="AF20">
         <v>0.09</v>
       </c>
+      <c r="AG20">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2665,16 +2728,19 @@
       <c r="AF21">
         <v>0.05</v>
       </c>
+      <c r="AG21">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2763,16 +2829,19 @@
       <c r="AF22">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AG22">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -2861,10 +2930,13 @@
       <c r="AF23">
         <v>0.18</v>
       </c>
+      <c r="AG23">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2874,13 +2946,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2974,13 +3046,16 @@
       <c r="AE1" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -3069,13 +3144,16 @@
       <c r="AE2">
         <v>1782</v>
       </c>
+      <c r="AF2">
+        <v>1901</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -3164,13 +3242,16 @@
       <c r="AE3">
         <v>863</v>
       </c>
+      <c r="AF3">
+        <v>937</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3259,13 +3340,16 @@
       <c r="AE4">
         <v>919</v>
       </c>
+      <c r="AF4">
+        <v>964</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3354,13 +3438,16 @@
       <c r="AE5">
         <v>233</v>
       </c>
+      <c r="AF5">
+        <v>259</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3449,13 +3536,16 @@
       <c r="AE6">
         <v>630</v>
       </c>
+      <c r="AF6">
+        <v>678</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3544,13 +3634,16 @@
       <c r="AE7">
         <v>285</v>
       </c>
+      <c r="AF7">
+        <v>296</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3639,13 +3732,16 @@
       <c r="AE8">
         <v>634</v>
       </c>
+      <c r="AF8">
+        <v>668</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3734,13 +3830,16 @@
       <c r="AE9">
         <v>145</v>
       </c>
+      <c r="AF9">
+        <v>161</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -3829,13 +3928,16 @@
       <c r="AE10">
         <v>286</v>
       </c>
+      <c r="AF10">
+        <v>290</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -3924,13 +4026,16 @@
       <c r="AE11">
         <v>334</v>
       </c>
+      <c r="AF11">
+        <v>369</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -4019,13 +4124,16 @@
       <c r="AE12">
         <v>314</v>
       </c>
+      <c r="AF12">
+        <v>340</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -4114,13 +4222,16 @@
       <c r="AE13">
         <v>703</v>
       </c>
+      <c r="AF13">
+        <v>741</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -4209,13 +4320,16 @@
       <c r="AE14">
         <v>158</v>
       </c>
+      <c r="AF14">
+        <v>200</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -4304,13 +4418,16 @@
       <c r="AE15">
         <v>372</v>
       </c>
+      <c r="AF15">
+        <v>365</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4399,13 +4516,16 @@
       <c r="AE16">
         <v>1252</v>
       </c>
+      <c r="AF16">
+        <v>1336</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4494,13 +4614,16 @@
       <c r="AE17">
         <v>201</v>
       </c>
+      <c r="AF17">
+        <v>200</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4589,13 +4712,16 @@
       <c r="AE18">
         <v>684</v>
       </c>
+      <c r="AF18">
+        <v>729</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4684,13 +4810,16 @@
       <c r="AE19">
         <v>557</v>
       </c>
+      <c r="AF19">
+        <v>583</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -4779,13 +4908,16 @@
       <c r="AE20">
         <v>236</v>
       </c>
+      <c r="AF20">
+        <v>263</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -4874,13 +5006,16 @@
       <c r="AE21">
         <v>459</v>
       </c>
+      <c r="AF21">
+        <v>522</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -4969,13 +5104,16 @@
       <c r="AE22">
         <v>767</v>
       </c>
+      <c r="AF22">
+        <v>847</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -5064,10 +5202,13 @@
       <c r="AE23">
         <v>556</v>
       </c>
+      <c r="AF23">
+        <v>529</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PAQ\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5895BD-D4C5-437A-831F-F14674DB9E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963AE2E-245B-48B7-AB1A-27912159B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
   <si>
     <t>trideni</t>
   </si>
@@ -122,6 +122,9 @@
     <t>24. 8. 2021</t>
   </si>
   <si>
+    <t>28. 9. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -212,10 +215,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,16 +713,19 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -812,16 +817,19 @@
       <c r="AG2">
         <v>0.1</v>
       </c>
+      <c r="AH2">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -913,16 +921,19 @@
       <c r="AG3">
         <v>0.08</v>
       </c>
+      <c r="AH3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -1014,16 +1025,19 @@
       <c r="AG4">
         <v>0.13</v>
       </c>
+      <c r="AH4">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1115,16 +1129,19 @@
       <c r="AG5">
         <v>0.03</v>
       </c>
+      <c r="AH5">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1216,16 +1233,19 @@
       <c r="AG6">
         <v>0.09</v>
       </c>
+      <c r="AH6">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1317,16 +1337,19 @@
       <c r="AG7">
         <v>0.17</v>
       </c>
+      <c r="AH7">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1418,16 +1441,19 @@
       <c r="AG8">
         <v>0.11</v>
       </c>
+      <c r="AH8">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1519,16 +1545,19 @@
       <c r="AG9">
         <v>0.21</v>
       </c>
+      <c r="AH9">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1620,16 +1649,19 @@
       <c r="AG10">
         <v>0.15</v>
       </c>
+      <c r="AH10">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1721,16 +1753,19 @@
       <c r="AG11">
         <v>0.06</v>
       </c>
+      <c r="AH11">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1822,16 +1857,19 @@
       <c r="AG12">
         <v>0.13</v>
       </c>
+      <c r="AH12">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1923,16 +1961,19 @@
       <c r="AG13">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AH13">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -2024,16 +2065,19 @@
       <c r="AG14">
         <v>0.19</v>
       </c>
+      <c r="AH14">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -2125,16 +2169,19 @@
       <c r="AG15">
         <v>0.11</v>
       </c>
+      <c r="AH15">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2226,16 +2273,19 @@
       <c r="AG16">
         <v>0.09</v>
       </c>
+      <c r="AH16">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2327,16 +2377,19 @@
       <c r="AG17">
         <v>0.15</v>
       </c>
+      <c r="AH17">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2428,16 +2481,19 @@
       <c r="AG18">
         <v>0.12</v>
       </c>
+      <c r="AH18">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2529,16 +2585,19 @@
       <c r="AG19">
         <v>0.06</v>
       </c>
+      <c r="AH19">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2630,16 +2689,19 @@
       <c r="AG20">
         <v>0.11</v>
       </c>
+      <c r="AH20">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2731,16 +2793,19 @@
       <c r="AG21">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AH21">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2832,16 +2897,19 @@
       <c r="AG22">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AH22">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -2933,10 +3001,13 @@
       <c r="AG23">
         <v>0.18</v>
       </c>
+      <c r="AH23">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2946,13 +3017,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3049,13 +3120,16 @@
       <c r="AF1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AG1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -3147,13 +3221,16 @@
       <c r="AF2">
         <v>1901</v>
       </c>
+      <c r="AG2">
+        <v>1855</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -3245,13 +3322,16 @@
       <c r="AF3">
         <v>937</v>
       </c>
+      <c r="AG3">
+        <v>897</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3343,13 +3423,16 @@
       <c r="AF4">
         <v>964</v>
       </c>
+      <c r="AG4">
+        <v>958</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3441,13 +3524,16 @@
       <c r="AF5">
         <v>259</v>
       </c>
+      <c r="AG5">
+        <v>230</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3539,13 +3625,16 @@
       <c r="AF6">
         <v>678</v>
       </c>
+      <c r="AG6">
+        <v>667</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3637,13 +3726,16 @@
       <c r="AF7">
         <v>296</v>
       </c>
+      <c r="AG7">
+        <v>283</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3735,13 +3827,16 @@
       <c r="AF8">
         <v>668</v>
       </c>
+      <c r="AG8">
+        <v>675</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3833,13 +3928,16 @@
       <c r="AF9">
         <v>161</v>
       </c>
+      <c r="AG9">
+        <v>158</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -3931,13 +4029,16 @@
       <c r="AF10">
         <v>290</v>
       </c>
+      <c r="AG10">
+        <v>298</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -4029,13 +4130,16 @@
       <c r="AF11">
         <v>369</v>
       </c>
+      <c r="AG11">
+        <v>355</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -4127,13 +4231,16 @@
       <c r="AF12">
         <v>340</v>
       </c>
+      <c r="AG12">
+        <v>323</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -4225,13 +4332,16 @@
       <c r="AF13">
         <v>741</v>
       </c>
+      <c r="AG13">
+        <v>721</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -4323,13 +4433,16 @@
       <c r="AF14">
         <v>200</v>
       </c>
+      <c r="AG14">
+        <v>165</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -4421,13 +4534,16 @@
       <c r="AF15">
         <v>365</v>
       </c>
+      <c r="AG15">
+        <v>370</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4519,13 +4635,16 @@
       <c r="AF16">
         <v>1336</v>
       </c>
+      <c r="AG16">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4617,13 +4736,16 @@
       <c r="AF17">
         <v>200</v>
       </c>
+      <c r="AG17">
+        <v>180</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4715,13 +4837,16 @@
       <c r="AF18">
         <v>729</v>
       </c>
+      <c r="AG18">
+        <v>679</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4813,13 +4938,16 @@
       <c r="AF19">
         <v>583</v>
       </c>
+      <c r="AG19">
+        <v>613</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -4911,13 +5039,16 @@
       <c r="AF20">
         <v>263</v>
       </c>
+      <c r="AG20">
+        <v>255</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -5009,13 +5140,16 @@
       <c r="AF21">
         <v>522</v>
       </c>
+      <c r="AG21">
+        <v>539</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -5107,13 +5241,16 @@
       <c r="AF22">
         <v>847</v>
       </c>
+      <c r="AG22">
+        <v>801</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -5205,10 +5342,13 @@
       <c r="AF23">
         <v>529</v>
       </c>
+      <c r="AG23">
+        <v>515</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963AE2E-245B-48B7-AB1A-27912159B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6157F5-245D-4993-A294-28866C5F45AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>trideni</t>
   </si>
@@ -125,6 +125,9 @@
     <t>28. 9. 2021</t>
   </si>
   <si>
+    <t>12. 10. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -215,10 +218,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
   </si>
 </sst>
 </file>
@@ -245,6 +248,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -607,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,16 +720,19 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -820,16 +827,19 @@
       <c r="AH2">
         <v>0.09</v>
       </c>
+      <c r="AI2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3">
         <v>0.05</v>
@@ -924,16 +934,19 @@
       <c r="AH3">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AI3">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
       <c r="D4">
         <v>0.06</v>
@@ -1028,16 +1041,19 @@
       <c r="AH4">
         <v>0.11</v>
       </c>
+      <c r="AI4">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1132,16 +1148,19 @@
       <c r="AH5">
         <v>0.05</v>
       </c>
+      <c r="AI5">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -1236,16 +1255,19 @@
       <c r="AH6">
         <v>0.08</v>
       </c>
+      <c r="AI6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1340,16 +1362,19 @@
       <c r="AH7">
         <v>0.12</v>
       </c>
+      <c r="AI7">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>0.06</v>
@@ -1444,16 +1469,19 @@
       <c r="AH8">
         <v>0.11</v>
       </c>
+      <c r="AI8">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>0.1</v>
@@ -1548,16 +1576,19 @@
       <c r="AH9">
         <v>0.15</v>
       </c>
+      <c r="AI9">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>7.0000000000000007E-2</v>
@@ -1652,16 +1683,19 @@
       <c r="AH10">
         <v>0.11</v>
       </c>
+      <c r="AI10">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>0.04</v>
@@ -1756,16 +1790,19 @@
       <c r="AH11">
         <v>0.08</v>
       </c>
+      <c r="AI11">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0.06</v>
@@ -1860,16 +1897,19 @@
       <c r="AH12">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AI12">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1964,16 +2004,19 @@
       <c r="AH13">
         <v>0.09</v>
       </c>
+      <c r="AI13">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>0.09</v>
@@ -2068,16 +2111,19 @@
       <c r="AH14">
         <v>0.22</v>
       </c>
+      <c r="AI14">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>0.06</v>
@@ -2172,16 +2218,19 @@
       <c r="AH15">
         <v>0.11</v>
       </c>
+      <c r="AI15">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>0.05</v>
@@ -2276,16 +2325,19 @@
       <c r="AH16">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AI16">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
@@ -2380,16 +2432,19 @@
       <c r="AH17">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AI17">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>0.05</v>
@@ -2484,16 +2539,19 @@
       <c r="AH18">
         <v>0.11</v>
       </c>
+      <c r="AI18">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2588,16 +2646,19 @@
       <c r="AH19">
         <v>0.06</v>
       </c>
+      <c r="AI19">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>7.0000000000000007E-2</v>
@@ -2692,16 +2753,19 @@
       <c r="AH20">
         <v>0.08</v>
       </c>
+      <c r="AI20">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>0.04</v>
@@ -2796,16 +2860,19 @@
       <c r="AH21">
         <v>0.06</v>
       </c>
+      <c r="AI21">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -2900,16 +2967,19 @@
       <c r="AH22">
         <v>0.06</v>
       </c>
+      <c r="AI22">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -3004,10 +3074,13 @@
       <c r="AH23">
         <v>0.17</v>
       </c>
+      <c r="AI23">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3017,13 +3090,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3123,13 +3196,16 @@
       <c r="AG1" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AH1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -3224,13 +3300,16 @@
       <c r="AG2">
         <v>1855</v>
       </c>
+      <c r="AH2">
+        <v>1836</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1166</v>
@@ -3325,13 +3404,16 @@
       <c r="AG3">
         <v>897</v>
       </c>
+      <c r="AH3">
+        <v>895</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>1273</v>
@@ -3426,13 +3508,16 @@
       <c r="AG4">
         <v>958</v>
       </c>
+      <c r="AH4">
+        <v>941</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>334</v>
@@ -3527,13 +3612,16 @@
       <c r="AG5">
         <v>230</v>
       </c>
+      <c r="AH5">
+        <v>239</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>832</v>
@@ -3628,13 +3716,16 @@
       <c r="AG6">
         <v>667</v>
       </c>
+      <c r="AH6">
+        <v>655</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>391</v>
@@ -3729,13 +3820,16 @@
       <c r="AG7">
         <v>283</v>
       </c>
+      <c r="AH7">
+        <v>281</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>882</v>
@@ -3830,13 +3924,16 @@
       <c r="AG8">
         <v>675</v>
       </c>
+      <c r="AH8">
+        <v>661</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>194</v>
@@ -3931,13 +4028,16 @@
       <c r="AG9">
         <v>158</v>
       </c>
+      <c r="AH9">
+        <v>158</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>383</v>
@@ -4032,13 +4132,16 @@
       <c r="AG10">
         <v>298</v>
       </c>
+      <c r="AH10">
+        <v>296</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>465</v>
@@ -4133,13 +4236,16 @@
       <c r="AG11">
         <v>355</v>
       </c>
+      <c r="AH11">
+        <v>348</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>440</v>
@@ -4234,13 +4340,16 @@
       <c r="AG12">
         <v>323</v>
       </c>
+      <c r="AH12">
+        <v>322</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>957</v>
@@ -4335,13 +4444,16 @@
       <c r="AG13">
         <v>721</v>
       </c>
+      <c r="AH13">
+        <v>712</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>302</v>
@@ -4436,13 +4548,16 @@
       <c r="AG14">
         <v>165</v>
       </c>
+      <c r="AH14">
+        <v>187</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>689</v>
@@ -4537,13 +4652,16 @@
       <c r="AG15">
         <v>370</v>
       </c>
+      <c r="AH15">
+        <v>352</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>1448</v>
@@ -4638,13 +4756,16 @@
       <c r="AG16">
         <v>1320</v>
       </c>
+      <c r="AH16">
+        <v>1297</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>404</v>
@@ -4739,13 +4860,16 @@
       <c r="AG17">
         <v>180</v>
       </c>
+      <c r="AH17">
+        <v>193</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>943</v>
@@ -4840,13 +4964,16 @@
       <c r="AG18">
         <v>679</v>
       </c>
+      <c r="AH18">
+        <v>666</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>670</v>
@@ -4941,13 +5068,16 @@
       <c r="AG19">
         <v>613</v>
       </c>
+      <c r="AH19">
+        <v>611</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>224</v>
@@ -5042,13 +5172,16 @@
       <c r="AG20">
         <v>255</v>
       </c>
+      <c r="AH20">
+        <v>245</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>882</v>
@@ -5143,13 +5276,16 @@
       <c r="AG21">
         <v>539</v>
       </c>
+      <c r="AH21">
+        <v>522</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>1058</v>
@@ -5244,13 +5380,16 @@
       <c r="AG22">
         <v>801</v>
       </c>
+      <c r="AH22">
+        <v>819</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>498</v>
@@ -5345,10 +5484,13 @@
       <c r="AG23">
         <v>515</v>
       </c>
+      <c r="AH23">
+        <v>495</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B34D06-12DC-45BE-B9B1-C9D734AADCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB65FA-7182-431E-9587-E8BF385697C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
   <si>
     <t>trideni</t>
   </si>
@@ -131,6 +131,9 @@
     <t>11. 11. 2021</t>
   </si>
   <si>
+    <t>30. 11. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -143,112 +146,112 @@
     <t>Očkování</t>
   </si>
   <si>
+    <t>Očkován/a aspoň jednou dávkou</t>
+  </si>
+  <si>
+    <t>Věk a očkování</t>
+  </si>
+  <si>
+    <t>18–54 let, neočkován/a</t>
+  </si>
+  <si>
+    <t>18–54 let, očkován/a</t>
+  </si>
+  <si>
+    <t>55 a více let, neočkován/a</t>
+  </si>
+  <si>
+    <t>55 a více let, očkován/a</t>
+  </si>
+  <si>
+    <t>Pohlaví</t>
+  </si>
+  <si>
+    <t>Muž</t>
+  </si>
+  <si>
+    <t>Žena</t>
+  </si>
+  <si>
+    <t>Pohlaví a děti v domácnosti</t>
+  </si>
+  <si>
+    <t>Muž s dětmi do 18 let v domácnosti</t>
+  </si>
+  <si>
+    <t>Muž bez dětí do 18 let v domácnosti</t>
+  </si>
+  <si>
+    <t>Žena s dětmi do 18 let v domácnosti</t>
+  </si>
+  <si>
+    <t>Žena bez dětí do 18 let v domácnosti</t>
+  </si>
+  <si>
+    <t>Věk</t>
+  </si>
+  <si>
+    <t>18 až 24 let</t>
+  </si>
+  <si>
+    <t>25 až 34 let</t>
+  </si>
+  <si>
+    <t>35 až 44 let</t>
+  </si>
+  <si>
+    <t>45 až 54 let</t>
+  </si>
+  <si>
+    <t>55 a více let</t>
+  </si>
+  <si>
+    <t>Zasažení domácnosti krizí</t>
+  </si>
+  <si>
+    <t>Těžce ekonomicky zasažení</t>
+  </si>
+  <si>
+    <t>Lehce ekonomicky zasažení</t>
+  </si>
+  <si>
+    <t>Ostatní</t>
+  </si>
+  <si>
+    <t>Příjem domácnosti aktuální</t>
+  </si>
+  <si>
+    <t>Pod hranicí chudoby</t>
+  </si>
+  <si>
+    <t>Nízkopříjmová</t>
+  </si>
+  <si>
+    <t>Nadstandardně příjmová</t>
+  </si>
+  <si>
+    <t>Vysokopříjmová</t>
+  </si>
+  <si>
+    <t>Obavy ohledně koronaviru</t>
+  </si>
+  <si>
+    <t>Klidný</t>
+  </si>
+  <si>
+    <t>Částečné starosti</t>
+  </si>
+  <si>
+    <t>Velké starosti</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+  </si>
+  <si>
     <t>Neočkován/a</t>
   </si>
   <si>
-    <t>Očkován/a aspoň jednou dávkou</t>
-  </si>
-  <si>
-    <t>Věk a očkování</t>
-  </si>
-  <si>
-    <t>18–54 let, neočkován/a</t>
-  </si>
-  <si>
-    <t>18–54 let, očkován/a</t>
-  </si>
-  <si>
-    <t>55 a více let, neočkován/a</t>
-  </si>
-  <si>
-    <t>55 a více let, očkován/a</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Pohlaví a děti v domácnosti</t>
-  </si>
-  <si>
-    <t>Muž s dětmi do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Muž bez dětí do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Žena s dětmi do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Žena bez dětí do 18 let v domácnosti</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 24 let</t>
-  </si>
-  <si>
-    <t>25 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 44 let</t>
-  </si>
-  <si>
-    <t>45 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Zasažení domácnosti krizí</t>
-  </si>
-  <si>
-    <t>Těžce ekonomicky zasažení</t>
-  </si>
-  <si>
-    <t>Lehce ekonomicky zasažení</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Příjem domácnosti aktuální</t>
-  </si>
-  <si>
-    <t>Pod hranicí chudoby</t>
-  </si>
-  <si>
-    <t>Nízkopříjmová</t>
-  </si>
-  <si>
-    <t>Nadstandardně příjmová</t>
-  </si>
-  <si>
-    <t>Vysokopříjmová</t>
-  </si>
-  <si>
-    <t>Obavy ohledně koronaviru</t>
-  </si>
-  <si>
-    <t>Klidný</t>
-  </si>
-  <si>
-    <t>Částečné starosti</t>
-  </si>
-  <si>
-    <t>Velké starosti</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
   </si>
 </sst>
 </file>
@@ -275,6 +278,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,16 +756,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -862,731 +869,758 @@
       <c r="AJ2">
         <v>0.1</v>
       </c>
+      <c r="AK2">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
+      <c r="X3">
+        <v>0.04</v>
+      </c>
+      <c r="Y3">
+        <v>0.09</v>
+      </c>
+      <c r="Z3">
+        <v>0.03</v>
+      </c>
+      <c r="AA3">
+        <v>0.09</v>
+      </c>
+      <c r="AB3">
+        <v>0.08</v>
+      </c>
+      <c r="AC3">
+        <v>0.08</v>
+      </c>
+      <c r="AD3">
+        <v>0.11</v>
+      </c>
+      <c r="AE3">
+        <v>0.08</v>
+      </c>
+      <c r="AF3">
+        <v>0.09</v>
+      </c>
+      <c r="AG3">
+        <v>0.1</v>
+      </c>
+      <c r="AH3">
+        <v>0.09</v>
+      </c>
+      <c r="AI3">
+        <v>0.09</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1</v>
+      </c>
+      <c r="AK3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
         <v>0.06</v>
       </c>
-      <c r="E3">
-        <v>0.19</v>
-      </c>
-      <c r="F3">
-        <v>0.16</v>
-      </c>
-      <c r="G3">
+      <c r="E4">
+        <v>0.22</v>
+      </c>
+      <c r="F4">
+        <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.13</v>
+      </c>
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+      <c r="J4">
+        <v>0.11</v>
+      </c>
+      <c r="K4">
+        <v>0.11</v>
+      </c>
+      <c r="L4">
+        <v>0.09</v>
+      </c>
+      <c r="M4">
+        <v>0.09</v>
+      </c>
+      <c r="N4">
+        <v>0.08</v>
+      </c>
+      <c r="O4">
+        <v>0.11</v>
+      </c>
+      <c r="P4">
+        <v>0.11</v>
+      </c>
+      <c r="Q4">
+        <v>0.11</v>
+      </c>
+      <c r="R4">
+        <v>0.13</v>
+      </c>
+      <c r="S4">
+        <v>0.13</v>
+      </c>
+      <c r="T4">
+        <v>0.13</v>
+      </c>
+      <c r="U4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.13</v>
+      </c>
+      <c r="W4">
         <v>0.12</v>
       </c>
-      <c r="H3">
-        <v>0.11</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>0.1</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>0.08</v>
-      </c>
-      <c r="M3">
-        <v>0.08</v>
-      </c>
-      <c r="N3">
-        <v>0.08</v>
-      </c>
-      <c r="O3">
-        <v>0.09</v>
-      </c>
-      <c r="P3">
-        <v>0.1</v>
-      </c>
-      <c r="Q3">
-        <v>0.09</v>
-      </c>
-      <c r="R3">
-        <v>0.11</v>
-      </c>
-      <c r="S3">
-        <v>0.11</v>
-      </c>
-      <c r="T3">
-        <v>0.11</v>
-      </c>
-      <c r="U3">
-        <v>0.11</v>
-      </c>
-      <c r="V3">
-        <v>0.11</v>
-      </c>
-      <c r="W3">
-        <v>0.1</v>
-      </c>
-      <c r="X3">
+      <c r="X4">
+        <v>0.13</v>
+      </c>
+      <c r="Y4">
+        <v>0.15</v>
+      </c>
+      <c r="Z4">
+        <v>0.15</v>
+      </c>
+      <c r="AA4">
+        <v>0.15</v>
+      </c>
+      <c r="AB4">
+        <v>0.15</v>
+      </c>
+      <c r="AC4">
         <v>0.12</v>
       </c>
-      <c r="Y3">
+      <c r="AD4">
         <v>0.13</v>
       </c>
-      <c r="Z3">
+      <c r="AE4">
+        <v>0.11</v>
+      </c>
+      <c r="AF4">
+        <v>0.1</v>
+      </c>
+      <c r="AG4">
+        <v>0.11</v>
+      </c>
+      <c r="AH4">
+        <v>0.11</v>
+      </c>
+      <c r="AI4">
         <v>0.13</v>
       </c>
-      <c r="AA3">
+      <c r="AJ4">
+        <v>0.1</v>
+      </c>
+      <c r="AK4">
         <v>0.13</v>
       </c>
-      <c r="AB3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC3">
-        <v>0.11</v>
-      </c>
-      <c r="AD3">
-        <v>0.12</v>
-      </c>
-      <c r="AE3">
-        <v>0.1</v>
-      </c>
-      <c r="AF3">
-        <v>0.1</v>
-      </c>
-      <c r="AG3">
-        <v>0.1</v>
-      </c>
-      <c r="AH3">
-        <v>0.1</v>
-      </c>
-      <c r="AI3">
-        <v>0.11</v>
-      </c>
-      <c r="AJ3">
-        <v>0.09</v>
-      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4">
-        <v>0.04</v>
-      </c>
-      <c r="Y4">
-        <v>0.09</v>
-      </c>
-      <c r="Z4">
-        <v>0.03</v>
-      </c>
-      <c r="AA4">
-        <v>0.09</v>
-      </c>
-      <c r="AB4">
-        <v>0.08</v>
-      </c>
-      <c r="AC4">
-        <v>0.08</v>
-      </c>
-      <c r="AD4">
-        <v>0.11</v>
-      </c>
-      <c r="AE4">
-        <v>0.08</v>
-      </c>
-      <c r="AF4">
-        <v>0.09</v>
-      </c>
-      <c r="AG4">
-        <v>0.1</v>
-      </c>
-      <c r="AH4">
-        <v>0.09</v>
-      </c>
-      <c r="AI4">
-        <v>0.09</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>0.06</v>
-      </c>
-      <c r="E5">
-        <v>0.22</v>
-      </c>
-      <c r="F5">
-        <v>0.18</v>
-      </c>
-      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="X5">
+        <v>0.02</v>
+      </c>
+      <c r="Y5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.04</v>
+      </c>
+      <c r="AA5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5">
+      <c r="AB5">
+        <v>0.11</v>
+      </c>
+      <c r="AC5">
+        <v>0.16</v>
+      </c>
+      <c r="AD5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>0.11</v>
+      </c>
+      <c r="AG5">
         <v>0.13</v>
       </c>
-      <c r="I5">
-        <v>0.11</v>
-      </c>
-      <c r="J5">
-        <v>0.11</v>
-      </c>
-      <c r="K5">
-        <v>0.11</v>
-      </c>
-      <c r="L5">
-        <v>0.09</v>
-      </c>
-      <c r="M5">
-        <v>0.09</v>
-      </c>
-      <c r="N5">
-        <v>0.08</v>
-      </c>
-      <c r="O5">
-        <v>0.11</v>
-      </c>
-      <c r="P5">
-        <v>0.11</v>
-      </c>
-      <c r="Q5">
-        <v>0.11</v>
-      </c>
-      <c r="R5">
-        <v>0.13</v>
-      </c>
-      <c r="S5">
-        <v>0.13</v>
-      </c>
-      <c r="T5">
-        <v>0.13</v>
-      </c>
-      <c r="U5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.13</v>
-      </c>
-      <c r="W5">
-        <v>0.12</v>
-      </c>
-      <c r="X5">
-        <v>0.13</v>
-      </c>
-      <c r="Y5">
+      <c r="AH5">
+        <v>0.08</v>
+      </c>
+      <c r="AI5">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.11</v>
+      </c>
+      <c r="AK5">
         <v>0.15</v>
       </c>
-      <c r="Z5">
-        <v>0.15</v>
-      </c>
-      <c r="AA5">
-        <v>0.15</v>
-      </c>
-      <c r="AB5">
-        <v>0.15</v>
-      </c>
-      <c r="AC5">
-        <v>0.12</v>
-      </c>
-      <c r="AD5">
-        <v>0.13</v>
-      </c>
-      <c r="AE5">
-        <v>0.11</v>
-      </c>
-      <c r="AF5">
-        <v>0.1</v>
-      </c>
-      <c r="AG5">
-        <v>0.11</v>
-      </c>
-      <c r="AH5">
-        <v>0.11</v>
-      </c>
-      <c r="AI5">
-        <v>0.13</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0.13</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <v>0.09</v>
+      </c>
+      <c r="H6">
+        <v>0.08</v>
+      </c>
+      <c r="I6">
+        <v>0.09</v>
+      </c>
+      <c r="J6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.08</v>
+      </c>
+      <c r="N6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.05</v>
+      </c>
+      <c r="P6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.08</v>
+      </c>
+      <c r="S6">
+        <v>0.08</v>
+      </c>
+      <c r="T6">
+        <v>0.08</v>
+      </c>
+      <c r="U6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X6">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Y6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="Z6">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AA6">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB6">
         <v>0.11</v>
       </c>
       <c r="AC6">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="AD6">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AF6">
         <v>0.11</v>
       </c>
       <c r="AG6">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AI6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJ6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK6">
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7">
+        <v>0.12</v>
+      </c>
+      <c r="Z7">
+        <v>0.02</v>
+      </c>
+      <c r="AA7">
         <v>0.05</v>
       </c>
-      <c r="E7">
-        <v>0.13</v>
-      </c>
-      <c r="F7">
+      <c r="AB7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC7">
+        <v>0.06</v>
+      </c>
+      <c r="AD7">
+        <v>0.1</v>
+      </c>
+      <c r="AE7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF7">
+        <v>0.08</v>
+      </c>
+      <c r="AG7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH7">
+        <v>0.09</v>
+      </c>
+      <c r="AI7">
+        <v>0.09</v>
+      </c>
+      <c r="AJ7">
+        <v>0.08</v>
+      </c>
+      <c r="AK7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
         <v>0.12</v>
       </c>
-      <c r="G7">
-        <v>0.09</v>
-      </c>
-      <c r="H7">
-        <v>0.08</v>
-      </c>
-      <c r="I7">
-        <v>0.09</v>
-      </c>
-      <c r="J7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M7">
-        <v>0.08</v>
-      </c>
-      <c r="N7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.05</v>
-      </c>
-      <c r="P7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R7">
-        <v>0.08</v>
-      </c>
-      <c r="S7">
-        <v>0.08</v>
-      </c>
-      <c r="T7">
-        <v>0.08</v>
-      </c>
-      <c r="U7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X7">
-        <v>0.1</v>
-      </c>
-      <c r="Y7">
-        <v>0.11</v>
-      </c>
-      <c r="Z7">
-        <v>0.09</v>
-      </c>
-      <c r="AA7">
-        <v>0.1</v>
-      </c>
-      <c r="AB7">
-        <v>0.11</v>
-      </c>
-      <c r="AC7">
-        <v>0.09</v>
-      </c>
-      <c r="AD7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AE7">
-        <v>0.08</v>
-      </c>
-      <c r="AF7">
-        <v>0.11</v>
-      </c>
-      <c r="AG7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH7">
-        <v>0.1</v>
-      </c>
-      <c r="AI7">
-        <v>0.08</v>
-      </c>
-      <c r="AJ7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="F8">
+        <v>0.11</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8">
+        <v>0.08</v>
+      </c>
+      <c r="J8">
+        <v>0.08</v>
+      </c>
+      <c r="K8">
+        <v>0.08</v>
+      </c>
+      <c r="L8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.06</v>
+      </c>
+      <c r="O8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.08</v>
+      </c>
+      <c r="Q8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.09</v>
+      </c>
+      <c r="S8">
+        <v>0.09</v>
+      </c>
+      <c r="T8">
+        <v>0.08</v>
+      </c>
+      <c r="U8">
+        <v>0.09</v>
+      </c>
+      <c r="V8">
+        <v>0.08</v>
+      </c>
+      <c r="W8">
+        <v>0.08</v>
       </c>
       <c r="X8">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Y8">
         <v>0.12</v>
       </c>
       <c r="Z8">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="AA8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AB8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="AC8">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AD8">
         <v>0.1</v>
       </c>
       <c r="AE8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AF8">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AG8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AH8">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI8">
         <v>0.09</v>
       </c>
       <c r="AJ8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK8">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9">
         <v>0.12</v>
       </c>
-      <c r="F9">
-        <v>0.11</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0.08</v>
-      </c>
-      <c r="I9">
-        <v>0.08</v>
-      </c>
       <c r="J9">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K9">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="L9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="O9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Q9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="R9">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="S9">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T9">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U9">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V9">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="W9">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="X9">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y9">
+        <v>0.15</v>
+      </c>
+      <c r="Z9">
+        <v>0.13</v>
+      </c>
+      <c r="AA9">
+        <v>0.16</v>
+      </c>
+      <c r="AB9">
+        <v>0.15</v>
+      </c>
+      <c r="AC9">
         <v>0.12</v>
       </c>
-      <c r="Z9">
+      <c r="AD9">
+        <v>0.13</v>
+      </c>
+      <c r="AE9">
+        <v>0.1</v>
+      </c>
+      <c r="AF9">
+        <v>0.1</v>
+      </c>
+      <c r="AG9">
+        <v>0.13</v>
+      </c>
+      <c r="AH9">
+        <v>0.11</v>
+      </c>
+      <c r="AI9">
+        <v>0.11</v>
+      </c>
+      <c r="AJ9">
         <v>0.12</v>
       </c>
-      <c r="AA9">
-        <v>0.1</v>
-      </c>
-      <c r="AB9">
-        <v>0.1</v>
-      </c>
-      <c r="AC9">
-        <v>0.08</v>
-      </c>
-      <c r="AD9">
-        <v>0.1</v>
-      </c>
-      <c r="AE9">
-        <v>0.08</v>
-      </c>
-      <c r="AF9">
-        <v>0.09</v>
-      </c>
-      <c r="AG9">
-        <v>0.08</v>
-      </c>
-      <c r="AH9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI9">
-        <v>0.09</v>
-      </c>
-      <c r="AJ9">
-        <v>7.0000000000000007E-2</v>
+      <c r="AK9">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>0.06</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="H10">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I10">
+        <v>0.08</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.04</v>
+      </c>
+      <c r="M10">
+        <v>0.05</v>
+      </c>
+      <c r="N10">
+        <v>0.05</v>
+      </c>
+      <c r="O10">
+        <v>0.08</v>
+      </c>
+      <c r="P10">
+        <v>0.09</v>
+      </c>
+      <c r="Q10">
+        <v>0.06</v>
+      </c>
+      <c r="R10">
+        <v>0.08</v>
+      </c>
+      <c r="S10">
+        <v>0.09</v>
+      </c>
+      <c r="T10">
+        <v>0.08</v>
+      </c>
+      <c r="U10">
+        <v>0.11</v>
+      </c>
+      <c r="V10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W10">
+        <v>0.05</v>
+      </c>
+      <c r="X10">
+        <v>0.08</v>
+      </c>
+      <c r="Y10">
+        <v>0.08</v>
+      </c>
+      <c r="Z10">
         <v>0.12</v>
       </c>
-      <c r="J10">
-        <v>0.11</v>
-      </c>
-      <c r="K10">
-        <v>0.11</v>
-      </c>
-      <c r="L10">
-        <v>0.1</v>
-      </c>
-      <c r="M10">
-        <v>0.1</v>
-      </c>
-      <c r="N10">
-        <v>0.09</v>
-      </c>
-      <c r="O10">
-        <v>0.1</v>
-      </c>
-      <c r="P10">
-        <v>0.11</v>
-      </c>
-      <c r="Q10">
-        <v>0.12</v>
-      </c>
-      <c r="R10">
-        <v>0.13</v>
-      </c>
-      <c r="S10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V10">
-        <v>0.13</v>
-      </c>
-      <c r="W10">
-        <v>0.13</v>
-      </c>
-      <c r="X10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>0.15</v>
-      </c>
-      <c r="Z10">
-        <v>0.13</v>
-      </c>
       <c r="AA10">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AB10">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AC10">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AD10">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE10">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF10">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="AG10">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AH10">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="AI10">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AJ10">
-        <v>0.12</v>
+        <v>0.05</v>
+      </c>
+      <c r="AK10">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I11">
         <v>0.08</v>
@@ -1595,28 +1629,28 @@
         <v>0.08</v>
       </c>
       <c r="K11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M11">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Q11">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="R11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="S11">
         <v>0.09</v>
@@ -1625,1800 +1659,1848 @@
         <v>0.08</v>
       </c>
       <c r="U11">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="V11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="W11">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="X11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Y11">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="Z11">
+        <v>0.11</v>
+      </c>
+      <c r="AA11">
+        <v>0.1</v>
+      </c>
+      <c r="AB11">
+        <v>0.11</v>
+      </c>
+      <c r="AC11">
+        <v>0.08</v>
+      </c>
+      <c r="AD11">
+        <v>0.1</v>
+      </c>
+      <c r="AE11">
+        <v>0.08</v>
+      </c>
+      <c r="AF11">
+        <v>0.11</v>
+      </c>
+      <c r="AG11">
+        <v>0.09</v>
+      </c>
+      <c r="AH11">
+        <v>0.08</v>
+      </c>
+      <c r="AI11">
+        <v>0.1</v>
+      </c>
+      <c r="AJ11">
+        <v>0.08</v>
+      </c>
+      <c r="AK11">
         <v>0.12</v>
       </c>
-      <c r="AA11">
-        <v>0.11</v>
-      </c>
-      <c r="AB11">
-        <v>0.08</v>
-      </c>
-      <c r="AC11">
-        <v>0.08</v>
-      </c>
-      <c r="AD11">
-        <v>0.11</v>
-      </c>
-      <c r="AE11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF11">
-        <v>0.06</v>
-      </c>
-      <c r="AG11">
-        <v>0.03</v>
-      </c>
-      <c r="AH11">
-        <v>0.05</v>
-      </c>
-      <c r="AI11">
-        <v>0.06</v>
-      </c>
-      <c r="AJ11">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12">
+        <v>0.33</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+      <c r="H12">
+        <v>0.18</v>
+      </c>
+      <c r="I12">
+        <v>0.16</v>
+      </c>
+      <c r="J12">
+        <v>0.13</v>
+      </c>
+      <c r="K12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.11</v>
+      </c>
+      <c r="M12">
+        <v>0.09</v>
+      </c>
+      <c r="N12">
+        <v>0.08</v>
+      </c>
+      <c r="O12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P12">
         <v>0.12</v>
       </c>
-      <c r="F12">
-        <v>0.11</v>
-      </c>
-      <c r="G12">
-        <v>0.11</v>
-      </c>
-      <c r="H12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.08</v>
-      </c>
-      <c r="J12">
-        <v>0.08</v>
-      </c>
-      <c r="K12">
-        <v>0.09</v>
-      </c>
-      <c r="L12">
-        <v>0.08</v>
-      </c>
-      <c r="M12">
-        <v>0.08</v>
-      </c>
-      <c r="N12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.08</v>
-      </c>
       <c r="Q12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="R12">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="S12">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="T12">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="U12">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="V12">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="W12">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="X12">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y12">
+        <v>0.19</v>
+      </c>
+      <c r="Z12">
+        <v>0.16</v>
+      </c>
+      <c r="AA12">
+        <v>0.19</v>
+      </c>
+      <c r="AB12">
+        <v>0.17</v>
+      </c>
+      <c r="AC12">
+        <v>0.15</v>
+      </c>
+      <c r="AD12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE12">
         <v>0.13</v>
       </c>
-      <c r="Z12">
-        <v>0.11</v>
-      </c>
-      <c r="AA12">
-        <v>0.1</v>
-      </c>
-      <c r="AB12">
-        <v>0.11</v>
-      </c>
-      <c r="AC12">
-        <v>0.08</v>
-      </c>
-      <c r="AD12">
-        <v>0.1</v>
-      </c>
-      <c r="AE12">
-        <v>0.08</v>
-      </c>
       <c r="AF12">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AG12">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AH12">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AI12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AJ12">
-        <v>0.08</v>
+        <v>0.13</v>
+      </c>
+      <c r="AK12">
+        <v>0.18</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E13">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="F13">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G13">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="H13">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I13">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>0.09</v>
+      </c>
+      <c r="L13">
+        <v>0.09</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>0.09</v>
+      </c>
+      <c r="O13">
+        <v>0.08</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
         <v>0.13</v>
       </c>
-      <c r="K13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L13">
-        <v>0.11</v>
-      </c>
-      <c r="M13">
-        <v>0.09</v>
-      </c>
-      <c r="N13">
-        <v>0.08</v>
-      </c>
-      <c r="O13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P13">
+      <c r="S13">
         <v>0.12</v>
       </c>
-      <c r="Q13">
-        <v>0.15</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.12</v>
       </c>
-      <c r="S13">
-        <v>0.17</v>
-      </c>
-      <c r="T13">
-        <v>0.18</v>
-      </c>
       <c r="U13">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="V13">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="W13">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="X13">
         <v>0.14000000000000001</v>
       </c>
       <c r="Y13">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="Z13">
+        <v>0.12</v>
+      </c>
+      <c r="AA13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.11</v>
+      </c>
+      <c r="AD13">
+        <v>0.12</v>
+      </c>
+      <c r="AE13">
+        <v>0.09</v>
+      </c>
+      <c r="AF13">
+        <v>0.09</v>
+      </c>
+      <c r="AG13">
+        <v>0.11</v>
+      </c>
+      <c r="AH13">
+        <v>0.11</v>
+      </c>
+      <c r="AI13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ13">
+        <v>0.11</v>
+      </c>
+      <c r="AK13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.34</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>0.21</v>
+      </c>
+      <c r="I14">
+        <v>0.17</v>
+      </c>
+      <c r="J14">
+        <v>0.22</v>
+      </c>
+      <c r="K14">
+        <v>0.18</v>
+      </c>
+      <c r="L14">
         <v>0.16</v>
       </c>
-      <c r="AA13">
-        <v>0.19</v>
-      </c>
-      <c r="AB13">
+      <c r="M14">
         <v>0.17</v>
       </c>
-      <c r="AC13">
+      <c r="N14">
+        <v>0.09</v>
+      </c>
+      <c r="O14">
+        <v>0.17</v>
+      </c>
+      <c r="P14">
+        <v>0.21</v>
+      </c>
+      <c r="Q14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.22</v>
+      </c>
+      <c r="S14">
+        <v>0.22</v>
+      </c>
+      <c r="T14">
+        <v>0.27</v>
+      </c>
+      <c r="U14">
+        <v>0.27</v>
+      </c>
+      <c r="V14">
         <v>0.15</v>
       </c>
-      <c r="AD13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE13">
-        <v>0.13</v>
-      </c>
-      <c r="AF13">
-        <v>0.13</v>
-      </c>
-      <c r="AG13">
+      <c r="W14">
+        <v>0.23</v>
+      </c>
+      <c r="X14">
+        <v>0.21</v>
+      </c>
+      <c r="Y14">
+        <v>0.2</v>
+      </c>
+      <c r="Z14">
+        <v>0.27</v>
+      </c>
+      <c r="AA14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB14">
+        <v>0.26</v>
+      </c>
+      <c r="AC14">
+        <v>0.22</v>
+      </c>
+      <c r="AD14">
+        <v>0.27</v>
+      </c>
+      <c r="AE14">
         <v>0.17</v>
       </c>
-      <c r="AH13">
-        <v>0.12</v>
-      </c>
-      <c r="AI13">
+      <c r="AF14">
+        <v>0.2</v>
+      </c>
+      <c r="AG14">
+        <v>0.21</v>
+      </c>
+      <c r="AH14">
         <v>0.15</v>
       </c>
-      <c r="AJ13">
-        <v>0.13</v>
+      <c r="AI14">
+        <v>0.2</v>
+      </c>
+      <c r="AJ14">
+        <v>0.21</v>
+      </c>
+      <c r="AK14">
+        <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>0.06</v>
-      </c>
-      <c r="E14">
-        <v>0.21</v>
-      </c>
-      <c r="F14">
-        <v>0.18</v>
-      </c>
-      <c r="G14">
-        <v>0.13</v>
-      </c>
-      <c r="H14">
-        <v>0.12</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14">
-        <v>0.09</v>
-      </c>
-      <c r="L14">
-        <v>0.09</v>
-      </c>
-      <c r="M14">
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <v>0.09</v>
-      </c>
-      <c r="O14">
-        <v>0.08</v>
-      </c>
-      <c r="P14">
-        <v>0.1</v>
-      </c>
-      <c r="Q14">
-        <v>0.1</v>
-      </c>
-      <c r="R14">
-        <v>0.13</v>
-      </c>
-      <c r="S14">
-        <v>0.12</v>
-      </c>
-      <c r="T14">
-        <v>0.12</v>
-      </c>
-      <c r="U14">
-        <v>0.13</v>
-      </c>
-      <c r="V14">
-        <v>0.12</v>
-      </c>
-      <c r="W14">
-        <v>0.11</v>
-      </c>
-      <c r="X14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y14">
-        <v>0.13</v>
-      </c>
-      <c r="Z14">
-        <v>0.12</v>
-      </c>
-      <c r="AA14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>0.11</v>
-      </c>
-      <c r="AD14">
-        <v>0.12</v>
-      </c>
-      <c r="AE14">
-        <v>0.09</v>
-      </c>
-      <c r="AF14">
-        <v>0.09</v>
-      </c>
-      <c r="AG14">
-        <v>0.11</v>
-      </c>
-      <c r="AH14">
-        <v>0.11</v>
-      </c>
-      <c r="AI14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ14">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="H15">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I15">
+        <v>0.12</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.09</v>
+      </c>
+      <c r="L15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.09</v>
+      </c>
+      <c r="N15">
+        <v>0.08</v>
+      </c>
+      <c r="O15">
+        <v>0.08</v>
+      </c>
+      <c r="P15">
+        <v>0.12</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>0.11</v>
+      </c>
+      <c r="S15">
+        <v>0.15</v>
+      </c>
+      <c r="T15">
+        <v>0.12</v>
+      </c>
+      <c r="U15">
+        <v>0.11</v>
+      </c>
+      <c r="V15">
+        <v>0.13</v>
+      </c>
+      <c r="W15">
+        <v>0.13</v>
+      </c>
+      <c r="X15">
+        <v>0.13</v>
+      </c>
+      <c r="Y15">
+        <v>0.15</v>
+      </c>
+      <c r="Z15">
+        <v>0.13</v>
+      </c>
+      <c r="AA15">
+        <v>0.13</v>
+      </c>
+      <c r="AB15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
+      </c>
+      <c r="AD15">
+        <v>0.12</v>
+      </c>
+      <c r="AE15">
+        <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>0.11</v>
+      </c>
+      <c r="AG15">
+        <v>0.15</v>
+      </c>
+      <c r="AH15">
+        <v>0.11</v>
+      </c>
+      <c r="AI15">
+        <v>0.1</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1</v>
+      </c>
+      <c r="AK15">
         <v>0.17</v>
       </c>
-      <c r="J15">
-        <v>0.22</v>
-      </c>
-      <c r="K15">
-        <v>0.18</v>
-      </c>
-      <c r="L15">
-        <v>0.16</v>
-      </c>
-      <c r="M15">
-        <v>0.17</v>
-      </c>
-      <c r="N15">
-        <v>0.09</v>
-      </c>
-      <c r="O15">
-        <v>0.17</v>
-      </c>
-      <c r="P15">
-        <v>0.21</v>
-      </c>
-      <c r="Q15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R15">
-        <v>0.22</v>
-      </c>
-      <c r="S15">
-        <v>0.22</v>
-      </c>
-      <c r="T15">
-        <v>0.27</v>
-      </c>
-      <c r="U15">
-        <v>0.27</v>
-      </c>
-      <c r="V15">
-        <v>0.15</v>
-      </c>
-      <c r="W15">
-        <v>0.23</v>
-      </c>
-      <c r="X15">
-        <v>0.21</v>
-      </c>
-      <c r="Y15">
-        <v>0.2</v>
-      </c>
-      <c r="Z15">
-        <v>0.27</v>
-      </c>
-      <c r="AA15">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AB15">
-        <v>0.26</v>
-      </c>
-      <c r="AC15">
-        <v>0.22</v>
-      </c>
-      <c r="AD15">
-        <v>0.27</v>
-      </c>
-      <c r="AE15">
-        <v>0.17</v>
-      </c>
-      <c r="AF15">
-        <v>0.2</v>
-      </c>
-      <c r="AG15">
-        <v>0.21</v>
-      </c>
-      <c r="AH15">
-        <v>0.15</v>
-      </c>
-      <c r="AI15">
-        <v>0.2</v>
-      </c>
-      <c r="AJ15">
-        <v>0.21</v>
-      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E16">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G16">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
+        <v>0.08</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>0.08</v>
+      </c>
+      <c r="L16">
+        <v>0.06</v>
+      </c>
+      <c r="M16">
+        <v>0.04</v>
+      </c>
+      <c r="N16">
+        <v>0.06</v>
+      </c>
+      <c r="O16">
+        <v>0.09</v>
+      </c>
+      <c r="P16">
+        <v>0.06</v>
+      </c>
+      <c r="Q16">
+        <v>0.08</v>
+      </c>
+      <c r="R16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.08</v>
+      </c>
+      <c r="T16">
+        <v>0.08</v>
+      </c>
+      <c r="U16">
+        <v>0.09</v>
+      </c>
+      <c r="V16">
+        <v>0.1</v>
+      </c>
+      <c r="W16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X16">
+        <v>0.09</v>
+      </c>
+      <c r="Y16">
         <v>0.12</v>
       </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16">
-        <v>0.09</v>
-      </c>
-      <c r="L16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M16">
-        <v>0.09</v>
-      </c>
-      <c r="N16">
-        <v>0.08</v>
-      </c>
-      <c r="O16">
-        <v>0.08</v>
-      </c>
-      <c r="P16">
-        <v>0.12</v>
-      </c>
-      <c r="Q16">
-        <v>0.1</v>
-      </c>
-      <c r="R16">
-        <v>0.11</v>
-      </c>
-      <c r="S16">
-        <v>0.15</v>
-      </c>
-      <c r="T16">
-        <v>0.12</v>
-      </c>
-      <c r="U16">
-        <v>0.11</v>
-      </c>
-      <c r="V16">
-        <v>0.13</v>
-      </c>
-      <c r="W16">
-        <v>0.13</v>
-      </c>
-      <c r="X16">
-        <v>0.13</v>
-      </c>
-      <c r="Y16">
-        <v>0.15</v>
-      </c>
       <c r="Z16">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AA16">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AB16">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AC16">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD16">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AE16">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF16">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AG16">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="AH16">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AI16">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJ16">
-        <v>0.1</v>
+        <v>0.06</v>
+      </c>
+      <c r="AK16">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E17">
+        <v>0.24</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.15</v>
+      </c>
+      <c r="H17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F17">
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0.11</v>
+      </c>
+      <c r="K17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17">
         <v>0.12</v>
       </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.08</v>
-      </c>
-      <c r="I17">
-        <v>0.08</v>
-      </c>
-      <c r="J17">
-        <v>0.1</v>
-      </c>
-      <c r="K17">
-        <v>0.08</v>
-      </c>
-      <c r="L17">
-        <v>0.06</v>
-      </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="O17">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="P17">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="Q17">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="R17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="S17">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="T17">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="U17">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="V17">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="X17">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="Y17">
+        <v>0.16</v>
+      </c>
+      <c r="Z17">
+        <v>0.15</v>
+      </c>
+      <c r="AA17">
+        <v>0.17</v>
+      </c>
+      <c r="AB17">
+        <v>0.15</v>
+      </c>
+      <c r="AC17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD17">
+        <v>0.13</v>
+      </c>
+      <c r="AE17">
         <v>0.12</v>
       </c>
-      <c r="Z17">
-        <v>0.1</v>
-      </c>
-      <c r="AA17">
-        <v>0.09</v>
-      </c>
-      <c r="AB17">
-        <v>0.1</v>
-      </c>
-      <c r="AC17">
-        <v>0.09</v>
-      </c>
-      <c r="AD17">
-        <v>0.09</v>
-      </c>
-      <c r="AE17">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="AF17">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AG17">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="AH17">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI17">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AJ17">
-        <v>0.06</v>
+        <v>0.11</v>
+      </c>
+      <c r="AK17">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E18">
+        <v>0.13</v>
+      </c>
+      <c r="F18">
+        <v>0.12</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.08</v>
+      </c>
+      <c r="I18">
+        <v>0.09</v>
+      </c>
+      <c r="J18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.08</v>
+      </c>
+      <c r="N18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.05</v>
+      </c>
+      <c r="P18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R18">
+        <v>0.08</v>
+      </c>
+      <c r="S18">
+        <v>0.08</v>
+      </c>
+      <c r="T18">
+        <v>0.08</v>
+      </c>
+      <c r="U18">
+        <v>0.08</v>
+      </c>
+      <c r="V18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W18">
+        <v>0.08</v>
+      </c>
+      <c r="X18">
+        <v>0.1</v>
+      </c>
+      <c r="Y18">
+        <v>0.11</v>
+      </c>
+      <c r="Z18">
+        <v>0.09</v>
+      </c>
+      <c r="AA18">
+        <v>0.09</v>
+      </c>
+      <c r="AB18">
+        <v>0.1</v>
+      </c>
+      <c r="AC18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD18">
+        <v>0.09</v>
+      </c>
+      <c r="AE18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF18">
+        <v>0.08</v>
+      </c>
+      <c r="AG18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH18">
+        <v>0.09</v>
+      </c>
+      <c r="AI18">
+        <v>0.08</v>
+      </c>
+      <c r="AJ18">
+        <v>0.08</v>
+      </c>
+      <c r="AK18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>0.09</v>
+      </c>
+      <c r="E19">
+        <v>0.35</v>
+      </c>
+      <c r="F19">
+        <v>0.27</v>
+      </c>
+      <c r="G19">
+        <v>0.26</v>
+      </c>
+      <c r="H19">
+        <v>0.22</v>
+      </c>
+      <c r="I19">
+        <v>0.17</v>
+      </c>
+      <c r="J19">
+        <v>0.19</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
+        <v>0.15</v>
+      </c>
+      <c r="M19">
+        <v>0.21</v>
+      </c>
+      <c r="N19">
+        <v>0.19</v>
+      </c>
+      <c r="O19">
+        <v>0.18</v>
+      </c>
+      <c r="P19">
+        <v>0.22</v>
+      </c>
+      <c r="Q19">
+        <v>0.2</v>
+      </c>
+      <c r="R19">
+        <v>0.17</v>
+      </c>
+      <c r="S19">
+        <v>0.22</v>
+      </c>
+      <c r="T19">
+        <v>0.25</v>
+      </c>
+      <c r="U19">
+        <v>0.21</v>
+      </c>
+      <c r="V19">
+        <v>0.21</v>
+      </c>
+      <c r="W19">
+        <v>0.2</v>
+      </c>
+      <c r="X19">
+        <v>0.25</v>
+      </c>
+      <c r="Y19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB19">
         <v>0.24</v>
       </c>
-      <c r="F18">
+      <c r="AC19">
+        <v>0.24</v>
+      </c>
+      <c r="AD19">
+        <v>0.21</v>
+      </c>
+      <c r="AE19">
         <v>0.2</v>
       </c>
-      <c r="G18">
+      <c r="AF19">
+        <v>0.19</v>
+      </c>
+      <c r="AG19">
+        <v>0.19</v>
+      </c>
+      <c r="AH19">
+        <v>0.22</v>
+      </c>
+      <c r="AI19">
+        <v>0.17</v>
+      </c>
+      <c r="AJ19">
         <v>0.15</v>
       </c>
-      <c r="H18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1</v>
-      </c>
-      <c r="J18">
-        <v>0.11</v>
-      </c>
-      <c r="K18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L18">
-        <v>0.12</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>0.1</v>
-      </c>
-      <c r="O18">
-        <v>0.12</v>
-      </c>
-      <c r="P18">
-        <v>0.11</v>
-      </c>
-      <c r="Q18">
-        <v>0.13</v>
-      </c>
-      <c r="R18">
-        <v>0.16</v>
-      </c>
-      <c r="S18">
-        <v>0.13</v>
-      </c>
-      <c r="T18">
-        <v>0.13</v>
-      </c>
-      <c r="U18">
-        <v>0.15</v>
-      </c>
-      <c r="V18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="W18">
-        <v>0.12</v>
-      </c>
-      <c r="X18">
-        <v>0.13</v>
-      </c>
-      <c r="Y18">
-        <v>0.16</v>
-      </c>
-      <c r="Z18">
-        <v>0.15</v>
-      </c>
-      <c r="AA18">
-        <v>0.17</v>
-      </c>
-      <c r="AB18">
-        <v>0.15</v>
-      </c>
-      <c r="AC18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AD18">
-        <v>0.13</v>
-      </c>
-      <c r="AE18">
-        <v>0.12</v>
-      </c>
-      <c r="AF18">
-        <v>0.09</v>
-      </c>
-      <c r="AG18">
-        <v>0.13</v>
-      </c>
-      <c r="AH18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI18">
-        <v>0.11</v>
-      </c>
-      <c r="AJ18">
-        <v>0.11</v>
+      <c r="AK19">
+        <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19">
-        <v>0.05</v>
-      </c>
-      <c r="E19">
-        <v>0.13</v>
-      </c>
-      <c r="F19">
-        <v>0.12</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.08</v>
-      </c>
-      <c r="I19">
-        <v>0.09</v>
-      </c>
-      <c r="J19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M19">
-        <v>0.08</v>
-      </c>
-      <c r="N19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.05</v>
-      </c>
-      <c r="P19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R19">
-        <v>0.08</v>
-      </c>
-      <c r="S19">
-        <v>0.08</v>
-      </c>
-      <c r="T19">
-        <v>0.08</v>
-      </c>
-      <c r="U19">
-        <v>0.08</v>
-      </c>
-      <c r="V19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W19">
-        <v>0.08</v>
-      </c>
-      <c r="X19">
-        <v>0.1</v>
-      </c>
-      <c r="Y19">
-        <v>0.11</v>
-      </c>
-      <c r="Z19">
-        <v>0.09</v>
-      </c>
-      <c r="AA19">
-        <v>0.09</v>
-      </c>
-      <c r="AB19">
-        <v>0.1</v>
-      </c>
-      <c r="AC19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD19">
-        <v>0.09</v>
-      </c>
-      <c r="AE19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF19">
-        <v>0.08</v>
-      </c>
-      <c r="AG19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH19">
-        <v>0.09</v>
-      </c>
-      <c r="AI19">
-        <v>0.08</v>
-      </c>
-      <c r="AJ19">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E20">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="G20">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="H20">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I20">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="J20">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="K20">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L20">
+        <v>0.1</v>
+      </c>
+      <c r="M20">
+        <v>0.08</v>
+      </c>
+      <c r="N20">
+        <v>0.08</v>
+      </c>
+      <c r="O20">
+        <v>0.09</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>0.12</v>
+      </c>
+      <c r="R20">
+        <v>0.12</v>
+      </c>
+      <c r="S20">
+        <v>0.13</v>
+      </c>
+      <c r="T20">
+        <v>0.12</v>
+      </c>
+      <c r="U20">
         <v>0.15</v>
       </c>
-      <c r="M20">
-        <v>0.21</v>
-      </c>
-      <c r="N20">
-        <v>0.19</v>
-      </c>
-      <c r="O20">
-        <v>0.18</v>
-      </c>
-      <c r="P20">
-        <v>0.22</v>
-      </c>
-      <c r="Q20">
-        <v>0.2</v>
-      </c>
-      <c r="R20">
-        <v>0.17</v>
-      </c>
-      <c r="S20">
-        <v>0.22</v>
-      </c>
-      <c r="T20">
-        <v>0.25</v>
-      </c>
-      <c r="U20">
-        <v>0.21</v>
-      </c>
       <c r="V20">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="W20">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="X20">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="Y20">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="Z20">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.28000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="AB20">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AD20">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AF20">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="AG20">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="AH20">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="AI20">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AJ20">
-        <v>0.15</v>
+        <v>0.11</v>
+      </c>
+      <c r="AK20">
+        <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21">
+        <v>0.05</v>
+      </c>
+      <c r="E21">
+        <v>0.13</v>
+      </c>
+      <c r="F21">
+        <v>0.11</v>
+      </c>
+      <c r="G21">
+        <v>0.08</v>
+      </c>
+      <c r="H21">
+        <v>0.08</v>
+      </c>
+      <c r="I21">
+        <v>0.08</v>
+      </c>
+      <c r="J21">
         <v>0.06</v>
       </c>
-      <c r="E21">
+      <c r="K21">
+        <v>0.06</v>
+      </c>
+      <c r="L21">
+        <v>0.06</v>
+      </c>
+      <c r="M21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.05</v>
+      </c>
+      <c r="O21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R21">
+        <v>0.09</v>
+      </c>
+      <c r="S21">
+        <v>0.08</v>
+      </c>
+      <c r="T21">
+        <v>0.08</v>
+      </c>
+      <c r="U21">
+        <v>0.08</v>
+      </c>
+      <c r="V21">
+        <v>0.08</v>
+      </c>
+      <c r="W21">
+        <v>0.08</v>
+      </c>
+      <c r="X21">
+        <v>0.09</v>
+      </c>
+      <c r="Y21">
+        <v>0.11</v>
+      </c>
+      <c r="Z21">
+        <v>0.09</v>
+      </c>
+      <c r="AA21">
+        <v>0.09</v>
+      </c>
+      <c r="AB21">
+        <v>0.11</v>
+      </c>
+      <c r="AC21">
+        <v>0.08</v>
+      </c>
+      <c r="AD21">
+        <v>0.1</v>
+      </c>
+      <c r="AE21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF21">
+        <v>0.08</v>
+      </c>
+      <c r="AG21">
+        <v>0.09</v>
+      </c>
+      <c r="AH21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI21">
+        <v>0.09</v>
+      </c>
+      <c r="AJ21">
+        <v>0.08</v>
+      </c>
+      <c r="AK21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.36</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22">
         <v>0.2</v>
       </c>
-      <c r="F21">
+      <c r="H22">
+        <v>0.16</v>
+      </c>
+      <c r="I22">
+        <v>0.13</v>
+      </c>
+      <c r="J22">
+        <v>0.13</v>
+      </c>
+      <c r="K22">
+        <v>0.17</v>
+      </c>
+      <c r="L22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.15</v>
+      </c>
+      <c r="N22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.15</v>
+      </c>
+      <c r="Q22">
+        <v>0.13</v>
+      </c>
+      <c r="R22">
+        <v>0.12</v>
+      </c>
+      <c r="S22">
+        <v>0.17</v>
+      </c>
+      <c r="T22">
+        <v>0.19</v>
+      </c>
+      <c r="U22">
+        <v>0.16</v>
+      </c>
+      <c r="V22">
+        <v>0.16</v>
+      </c>
+      <c r="W22">
+        <v>0.17</v>
+      </c>
+      <c r="X22">
         <v>0.18</v>
       </c>
-      <c r="G21">
+      <c r="Y22">
+        <v>0.18</v>
+      </c>
+      <c r="Z22">
+        <v>0.16</v>
+      </c>
+      <c r="AA22">
+        <v>0.21</v>
+      </c>
+      <c r="AB22">
+        <v>0.17</v>
+      </c>
+      <c r="AC22">
+        <v>0.16</v>
+      </c>
+      <c r="AD22">
+        <v>0.2</v>
+      </c>
+      <c r="AE22">
+        <v>0.13</v>
+      </c>
+      <c r="AF22">
         <v>0.15</v>
       </c>
-      <c r="H21">
-        <v>0.11</v>
-      </c>
-      <c r="I21">
-        <v>0.12</v>
-      </c>
-      <c r="J21">
+      <c r="AG22">
+        <v>0.15</v>
+      </c>
+      <c r="AH22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AI22">
+        <v>0.1</v>
+      </c>
+      <c r="AJ22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK22">
         <v>0.13</v>
       </c>
-      <c r="K21">
-        <v>0.12</v>
-      </c>
-      <c r="L21">
-        <v>0.1</v>
-      </c>
-      <c r="M21">
-        <v>0.08</v>
-      </c>
-      <c r="N21">
-        <v>0.08</v>
-      </c>
-      <c r="O21">
-        <v>0.09</v>
-      </c>
-      <c r="P21">
-        <v>0.1</v>
-      </c>
-      <c r="Q21">
-        <v>0.12</v>
-      </c>
-      <c r="R21">
-        <v>0.12</v>
-      </c>
-      <c r="S21">
-        <v>0.13</v>
-      </c>
-      <c r="T21">
-        <v>0.12</v>
-      </c>
-      <c r="U21">
-        <v>0.15</v>
-      </c>
-      <c r="V21">
-        <v>0.13</v>
-      </c>
-      <c r="W21">
-        <v>0.11</v>
-      </c>
-      <c r="X21">
-        <v>0.13</v>
-      </c>
-      <c r="Y21">
-        <v>0.13</v>
-      </c>
-      <c r="Z21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>0.16</v>
-      </c>
-      <c r="AB21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC21">
-        <v>0.12</v>
-      </c>
-      <c r="AD21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE21">
-        <v>0.1</v>
-      </c>
-      <c r="AF21">
-        <v>0.11</v>
-      </c>
-      <c r="AG21">
-        <v>0.11</v>
-      </c>
-      <c r="AH21">
-        <v>0.11</v>
-      </c>
-      <c r="AI21">
-        <v>0.1</v>
-      </c>
-      <c r="AJ21">
-        <v>0.11</v>
-      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>0.05</v>
-      </c>
-      <c r="E22">
-        <v>0.13</v>
-      </c>
-      <c r="F22">
-        <v>0.11</v>
-      </c>
-      <c r="G22">
-        <v>0.08</v>
-      </c>
-      <c r="H22">
-        <v>0.08</v>
-      </c>
-      <c r="I22">
-        <v>0.08</v>
-      </c>
-      <c r="J22">
-        <v>0.06</v>
-      </c>
-      <c r="K22">
-        <v>0.06</v>
-      </c>
-      <c r="L22">
-        <v>0.06</v>
-      </c>
-      <c r="M22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N22">
-        <v>0.05</v>
-      </c>
-      <c r="O22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R22">
-        <v>0.09</v>
-      </c>
-      <c r="S22">
-        <v>0.08</v>
-      </c>
-      <c r="T22">
-        <v>0.08</v>
-      </c>
-      <c r="U22">
-        <v>0.08</v>
-      </c>
-      <c r="V22">
-        <v>0.08</v>
-      </c>
-      <c r="W22">
-        <v>0.08</v>
-      </c>
-      <c r="X22">
-        <v>0.09</v>
-      </c>
-      <c r="Y22">
-        <v>0.11</v>
-      </c>
-      <c r="Z22">
-        <v>0.09</v>
-      </c>
-      <c r="AA22">
-        <v>0.09</v>
-      </c>
-      <c r="AB22">
-        <v>0.11</v>
-      </c>
-      <c r="AC22">
-        <v>0.08</v>
-      </c>
-      <c r="AD22">
-        <v>0.1</v>
-      </c>
-      <c r="AE22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF22">
-        <v>0.08</v>
-      </c>
-      <c r="AG22">
-        <v>0.09</v>
-      </c>
-      <c r="AH22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI22">
-        <v>0.09</v>
-      </c>
-      <c r="AJ22">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E23">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="F23">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="G23">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="H23">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I23">
+        <v>0.11</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.08</v>
+      </c>
+      <c r="M23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.06</v>
+      </c>
+      <c r="O23">
+        <v>0.08</v>
+      </c>
+      <c r="P23">
+        <v>0.09</v>
+      </c>
+      <c r="Q23">
+        <v>0.09</v>
+      </c>
+      <c r="R23">
+        <v>0.1</v>
+      </c>
+      <c r="S23">
+        <v>0.11</v>
+      </c>
+      <c r="T23">
+        <v>0.12</v>
+      </c>
+      <c r="U23">
+        <v>0.12</v>
+      </c>
+      <c r="V23">
+        <v>0.1</v>
+      </c>
+      <c r="W23">
+        <v>0.09</v>
+      </c>
+      <c r="X23">
         <v>0.13</v>
       </c>
-      <c r="J23">
+      <c r="Y23">
+        <v>0.15</v>
+      </c>
+      <c r="Z23">
+        <v>0.15</v>
+      </c>
+      <c r="AA23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB23">
         <v>0.13</v>
       </c>
-      <c r="K23">
-        <v>0.17</v>
-      </c>
-      <c r="L23">
+      <c r="AC23">
+        <v>0.09</v>
+      </c>
+      <c r="AD23">
+        <v>0.12</v>
+      </c>
+      <c r="AE23">
+        <v>0.11</v>
+      </c>
+      <c r="AF23">
+        <v>0.1</v>
+      </c>
+      <c r="AG23">
+        <v>0.12</v>
+      </c>
+      <c r="AH23">
+        <v>0.11</v>
+      </c>
+      <c r="AI23">
+        <v>0.12</v>
+      </c>
+      <c r="AJ23">
+        <v>0.1</v>
+      </c>
+      <c r="AK23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M23">
-        <v>0.15</v>
-      </c>
-      <c r="N23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P23">
-        <v>0.15</v>
-      </c>
-      <c r="Q23">
-        <v>0.13</v>
-      </c>
-      <c r="R23">
-        <v>0.12</v>
-      </c>
-      <c r="S23">
-        <v>0.17</v>
-      </c>
-      <c r="T23">
-        <v>0.19</v>
-      </c>
-      <c r="U23">
-        <v>0.16</v>
-      </c>
-      <c r="V23">
-        <v>0.16</v>
-      </c>
-      <c r="W23">
-        <v>0.17</v>
-      </c>
-      <c r="X23">
-        <v>0.18</v>
-      </c>
-      <c r="Y23">
-        <v>0.18</v>
-      </c>
-      <c r="Z23">
-        <v>0.16</v>
-      </c>
-      <c r="AA23">
-        <v>0.21</v>
-      </c>
-      <c r="AB23">
-        <v>0.17</v>
-      </c>
-      <c r="AC23">
-        <v>0.16</v>
-      </c>
-      <c r="AD23">
-        <v>0.2</v>
-      </c>
-      <c r="AE23">
-        <v>0.13</v>
-      </c>
-      <c r="AF23">
-        <v>0.15</v>
-      </c>
-      <c r="AG23">
-        <v>0.15</v>
-      </c>
-      <c r="AH23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AI23">
-        <v>0.1</v>
-      </c>
-      <c r="AJ23">
-        <v>0.14000000000000001</v>
-      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>0.05</v>
       </c>
       <c r="E24">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F24">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G24">
+        <v>0.09</v>
+      </c>
+      <c r="H24">
+        <v>0.08</v>
+      </c>
+      <c r="I24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.06</v>
+      </c>
+      <c r="K24">
+        <v>0.09</v>
+      </c>
+      <c r="L24">
+        <v>0.06</v>
+      </c>
+      <c r="M24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.08</v>
+      </c>
+      <c r="O24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.08</v>
+      </c>
+      <c r="Q24">
+        <v>0.09</v>
+      </c>
+      <c r="R24">
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <v>0.09</v>
+      </c>
+      <c r="T24">
+        <v>0.08</v>
+      </c>
+      <c r="U24">
+        <v>0.09</v>
+      </c>
+      <c r="V24">
+        <v>0.11</v>
+      </c>
+      <c r="W24">
+        <v>0.09</v>
+      </c>
+      <c r="X24">
+        <v>0.09</v>
+      </c>
+      <c r="Y24">
+        <v>0.11</v>
+      </c>
+      <c r="Z24">
+        <v>0.08</v>
+      </c>
+      <c r="AA24">
+        <v>0.09</v>
+      </c>
+      <c r="AB24">
+        <v>0.1</v>
+      </c>
+      <c r="AC24">
+        <v>0.09</v>
+      </c>
+      <c r="AD24">
+        <v>0.08</v>
+      </c>
+      <c r="AE24">
+        <v>0.05</v>
+      </c>
+      <c r="AF24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG24">
+        <v>0.06</v>
+      </c>
+      <c r="AH24">
+        <v>0.06</v>
+      </c>
+      <c r="AI24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ24">
+        <v>0.1</v>
+      </c>
+      <c r="AK24">
         <v>0.12</v>
       </c>
-      <c r="H24">
-        <v>0.1</v>
-      </c>
-      <c r="I24">
-        <v>0.11</v>
-      </c>
-      <c r="J24">
-        <v>0.1</v>
-      </c>
-      <c r="K24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L24">
-        <v>0.08</v>
-      </c>
-      <c r="M24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N24">
-        <v>0.06</v>
-      </c>
-      <c r="O24">
-        <v>0.08</v>
-      </c>
-      <c r="P24">
-        <v>0.09</v>
-      </c>
-      <c r="Q24">
-        <v>0.09</v>
-      </c>
-      <c r="R24">
-        <v>0.1</v>
-      </c>
-      <c r="S24">
-        <v>0.11</v>
-      </c>
-      <c r="T24">
-        <v>0.12</v>
-      </c>
-      <c r="U24">
-        <v>0.12</v>
-      </c>
-      <c r="V24">
-        <v>0.1</v>
-      </c>
-      <c r="W24">
-        <v>0.09</v>
-      </c>
-      <c r="X24">
-        <v>0.13</v>
-      </c>
-      <c r="Y24">
-        <v>0.15</v>
-      </c>
-      <c r="Z24">
-        <v>0.15</v>
-      </c>
-      <c r="AA24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB24">
-        <v>0.13</v>
-      </c>
-      <c r="AC24">
-        <v>0.09</v>
-      </c>
-      <c r="AD24">
-        <v>0.12</v>
-      </c>
-      <c r="AE24">
-        <v>0.11</v>
-      </c>
-      <c r="AF24">
-        <v>0.1</v>
-      </c>
-      <c r="AG24">
-        <v>0.12</v>
-      </c>
-      <c r="AH24">
-        <v>0.11</v>
-      </c>
-      <c r="AI24">
-        <v>0.12</v>
-      </c>
-      <c r="AJ24">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.18</v>
+      </c>
+      <c r="F25">
+        <v>0.15</v>
+      </c>
+      <c r="G25">
+        <v>0.11</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>0.11</v>
+      </c>
+      <c r="K25">
+        <v>0.06</v>
+      </c>
+      <c r="L25">
         <v>0.05</v>
       </c>
-      <c r="E25">
+      <c r="M25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.03</v>
+      </c>
+      <c r="O25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q25">
+        <v>0.08</v>
+      </c>
+      <c r="R25">
         <v>0.12</v>
       </c>
-      <c r="F25">
-        <v>0.1</v>
-      </c>
-      <c r="G25">
-        <v>0.09</v>
-      </c>
-      <c r="H25">
-        <v>0.08</v>
-      </c>
-      <c r="I25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J25">
+      <c r="S25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U25">
+        <v>0.1</v>
+      </c>
+      <c r="V25">
+        <v>0.08</v>
+      </c>
+      <c r="W25">
+        <v>0.09</v>
+      </c>
+      <c r="X25">
+        <v>0.08</v>
+      </c>
+      <c r="Y25">
+        <v>0.1</v>
+      </c>
+      <c r="Z25">
+        <v>0.1</v>
+      </c>
+      <c r="AA25">
+        <v>0.1</v>
+      </c>
+      <c r="AB25">
+        <v>0.13</v>
+      </c>
+      <c r="AC25">
+        <v>0.1</v>
+      </c>
+      <c r="AD25">
+        <v>0.13</v>
+      </c>
+      <c r="AE25">
+        <v>0.1</v>
+      </c>
+      <c r="AF25">
+        <v>0.09</v>
+      </c>
+      <c r="AG25">
+        <v>0.11</v>
+      </c>
+      <c r="AH25">
+        <v>0.08</v>
+      </c>
+      <c r="AI25">
+        <v>0.09</v>
+      </c>
+      <c r="AJ25">
+        <v>0.08</v>
+      </c>
+      <c r="AK25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>0.04</v>
+      </c>
+      <c r="E26">
+        <v>0.09</v>
+      </c>
+      <c r="F26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26">
         <v>0.06</v>
       </c>
-      <c r="K25">
-        <v>0.09</v>
-      </c>
-      <c r="L25">
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26">
         <v>0.06</v>
       </c>
-      <c r="M25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N25">
-        <v>0.08</v>
-      </c>
-      <c r="O25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P25">
-        <v>0.08</v>
-      </c>
-      <c r="Q25">
-        <v>0.09</v>
-      </c>
-      <c r="R25">
-        <v>0.1</v>
-      </c>
-      <c r="S25">
-        <v>0.09</v>
-      </c>
-      <c r="T25">
-        <v>0.08</v>
-      </c>
-      <c r="U25">
-        <v>0.09</v>
-      </c>
-      <c r="V25">
-        <v>0.11</v>
-      </c>
-      <c r="W25">
-        <v>0.09</v>
-      </c>
-      <c r="X25">
-        <v>0.09</v>
-      </c>
-      <c r="Y25">
-        <v>0.11</v>
-      </c>
-      <c r="Z25">
-        <v>0.08</v>
-      </c>
-      <c r="AA25">
-        <v>0.09</v>
-      </c>
-      <c r="AB25">
-        <v>0.1</v>
-      </c>
-      <c r="AC25">
-        <v>0.09</v>
-      </c>
-      <c r="AD25">
-        <v>0.08</v>
-      </c>
-      <c r="AE25">
+      <c r="K26">
         <v>0.05</v>
-      </c>
-      <c r="AF25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG25">
-        <v>0.06</v>
-      </c>
-      <c r="AH25">
-        <v>0.06</v>
-      </c>
-      <c r="AI25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ25">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.18</v>
-      </c>
-      <c r="F26">
-        <v>0.15</v>
-      </c>
-      <c r="G26">
-        <v>0.11</v>
-      </c>
-      <c r="H26">
-        <v>0.1</v>
-      </c>
-      <c r="I26">
-        <v>0.1</v>
-      </c>
-      <c r="J26">
-        <v>0.11</v>
-      </c>
-      <c r="K26">
-        <v>0.06</v>
       </c>
       <c r="L26">
         <v>0.05</v>
       </c>
       <c r="M26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N26">
+        <v>0.04</v>
+      </c>
+      <c r="O26">
+        <v>0.05</v>
+      </c>
+      <c r="P26">
+        <v>0.04</v>
+      </c>
+      <c r="Q26">
         <v>0.03</v>
       </c>
-      <c r="O26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q26">
-        <v>0.08</v>
-      </c>
       <c r="R26">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="T26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U26">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V26">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="W26">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="X26">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y26">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Z26">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AA26">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AB26">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AC26">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AD26">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AE26">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AF26">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="AG26">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH26">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AI26">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AJ26">
-        <v>0.08</v>
+        <v>0.04</v>
+      </c>
+      <c r="AK26">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I27">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J27">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="L27">
         <v>0.05</v>
       </c>
       <c r="M27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P27">
         <v>0.06</v>
       </c>
-      <c r="N27">
-        <v>0.04</v>
-      </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.05</v>
       </c>
-      <c r="P27">
-        <v>0.04</v>
-      </c>
-      <c r="Q27">
-        <v>0.03</v>
-      </c>
       <c r="R27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T27">
+        <v>0.08</v>
+      </c>
+      <c r="U27">
+        <v>0.08</v>
+      </c>
+      <c r="V27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W27">
+        <v>0.08</v>
+      </c>
+      <c r="X27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y27">
+        <v>0.09</v>
+      </c>
+      <c r="Z27">
         <v>0.06</v>
       </c>
-      <c r="T27">
+      <c r="AA27">
         <v>0.06</v>
       </c>
-      <c r="U27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V27">
+      <c r="AB27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC27">
         <v>0.06</v>
       </c>
-      <c r="W27">
+      <c r="AD27">
+        <v>0.09</v>
+      </c>
+      <c r="AE27">
         <v>0.06</v>
       </c>
-      <c r="X27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y27">
-        <v>0.08</v>
-      </c>
-      <c r="Z27">
-        <v>0.09</v>
-      </c>
-      <c r="AA27">
-        <v>0.09</v>
-      </c>
-      <c r="AB27">
-        <v>0.09</v>
-      </c>
-      <c r="AC27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD27">
-        <v>0.08</v>
-      </c>
-      <c r="AE27">
-        <v>0.05</v>
-      </c>
       <c r="AF27">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG27">
         <v>7.0000000000000007E-2</v>
@@ -3427,234 +3509,130 @@
         <v>0.06</v>
       </c>
       <c r="AI27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ27">
         <v>0.06</v>
       </c>
-      <c r="AJ27">
-        <v>0.04</v>
+      <c r="AK27">
+        <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E28">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="F28">
+        <v>0.24</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>0.17</v>
+      </c>
+      <c r="I28">
+        <v>0.18</v>
+      </c>
+      <c r="J28">
+        <v>0.19</v>
+      </c>
+      <c r="K28">
+        <v>0.18</v>
+      </c>
+      <c r="L28">
+        <v>0.17</v>
+      </c>
+      <c r="M28">
+        <v>0.15</v>
+      </c>
+      <c r="N28">
         <v>0.12</v>
       </c>
-      <c r="G28">
-        <v>0.1</v>
-      </c>
-      <c r="H28">
-        <v>0.1</v>
-      </c>
-      <c r="I28">
-        <v>0.09</v>
-      </c>
-      <c r="J28">
-        <v>0.08</v>
-      </c>
-      <c r="K28">
-        <v>0.09</v>
-      </c>
-      <c r="L28">
-        <v>0.05</v>
-      </c>
-      <c r="M28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N28">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="O28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="P28">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="Q28">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="R28">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="S28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="T28">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="U28">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="V28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="W28">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="Y28">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="Z28">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="AA28">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="AB28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AC28">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="AD28">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="AE28">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="AF28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="AG28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="AH28">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="AI28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="AJ28">
-        <v>0.06</v>
+        <v>0.16</v>
+      </c>
+      <c r="AK28">
+        <v>0.19</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29">
-        <v>0.1</v>
-      </c>
-      <c r="E29">
-        <v>0.27</v>
-      </c>
-      <c r="F29">
-        <v>0.24</v>
-      </c>
-      <c r="G29">
-        <v>0.2</v>
-      </c>
-      <c r="H29">
-        <v>0.17</v>
-      </c>
-      <c r="I29">
-        <v>0.18</v>
-      </c>
-      <c r="J29">
-        <v>0.19</v>
-      </c>
-      <c r="K29">
-        <v>0.18</v>
-      </c>
-      <c r="L29">
-        <v>0.17</v>
-      </c>
-      <c r="M29">
-        <v>0.15</v>
-      </c>
-      <c r="N29">
-        <v>0.12</v>
-      </c>
-      <c r="O29">
-        <v>0.13</v>
-      </c>
-      <c r="P29">
-        <v>0.18</v>
-      </c>
-      <c r="Q29">
-        <v>0.16</v>
-      </c>
-      <c r="R29">
-        <v>0.16</v>
-      </c>
-      <c r="S29">
-        <v>0.17</v>
-      </c>
-      <c r="T29">
-        <v>0.17</v>
-      </c>
-      <c r="U29">
-        <v>0.17</v>
-      </c>
-      <c r="V29">
-        <v>0.15</v>
-      </c>
-      <c r="W29">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X29">
-        <v>0.17</v>
-      </c>
-      <c r="Y29">
-        <v>0.19</v>
-      </c>
-      <c r="Z29">
-        <v>0.18</v>
-      </c>
-      <c r="AA29">
-        <v>0.19</v>
-      </c>
-      <c r="AB29">
-        <v>0.2</v>
-      </c>
-      <c r="AC29">
-        <v>0.17</v>
-      </c>
-      <c r="AD29">
-        <v>0.19</v>
-      </c>
-      <c r="AE29">
-        <v>0.18</v>
-      </c>
-      <c r="AF29">
-        <v>0.18</v>
-      </c>
-      <c r="AG29">
-        <v>0.18</v>
-      </c>
-      <c r="AH29">
-        <v>0.17</v>
-      </c>
-      <c r="AI29">
-        <v>0.18</v>
-      </c>
-      <c r="AJ29">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3665,13 +3643,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3777,13 +3755,16 @@
       <c r="AI1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="AJ1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -3884,13 +3865,16 @@
       <c r="AI2">
         <v>1709</v>
       </c>
+      <c r="AJ2">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2439</v>
@@ -3991,10 +3975,13 @@
       <c r="AI3">
         <v>479</v>
       </c>
+      <c r="AJ3">
+        <v>412</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -4038,8 +4025,11 @@
       <c r="AI4">
         <v>1230</v>
       </c>
+      <c r="AJ4">
+        <v>1378</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4145,8 +4135,11 @@
       <c r="AI5">
         <v>348</v>
       </c>
+      <c r="AJ5">
+        <v>314</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4192,8 +4185,11 @@
       <c r="AI6">
         <v>692</v>
       </c>
+      <c r="AJ6">
+        <v>772</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4299,8 +4295,11 @@
       <c r="AI7">
         <v>130</v>
       </c>
+      <c r="AJ7">
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4346,8 +4345,11 @@
       <c r="AI8">
         <v>539</v>
       </c>
+      <c r="AJ8">
+        <v>606</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4453,8 +4455,11 @@
       <c r="AI9">
         <v>833</v>
       </c>
+      <c r="AJ9">
+        <v>872</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4560,8 +4565,11 @@
       <c r="AI10">
         <v>876</v>
       </c>
+      <c r="AJ10">
+        <v>918</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4667,8 +4675,11 @@
       <c r="AI11">
         <v>212</v>
       </c>
+      <c r="AJ11">
+        <v>236</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4774,8 +4785,11 @@
       <c r="AI12">
         <v>621</v>
       </c>
+      <c r="AJ12">
+        <v>636</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4881,8 +4895,11 @@
       <c r="AI13">
         <v>273</v>
       </c>
+      <c r="AJ13">
+        <v>280</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4988,8 +5005,11 @@
       <c r="AI14">
         <v>603</v>
       </c>
+      <c r="AJ14">
+        <v>638</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -5095,8 +5115,11 @@
       <c r="AI15">
         <v>144</v>
       </c>
+      <c r="AJ15">
+        <v>152</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5202,8 +5225,11 @@
       <c r="AI16">
         <v>281</v>
       </c>
+      <c r="AJ16">
+        <v>300</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -5309,8 +5335,11 @@
       <c r="AI17">
         <v>312</v>
       </c>
+      <c r="AJ17">
+        <v>327</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5416,8 +5445,11 @@
       <c r="AI18">
         <v>315</v>
       </c>
+      <c r="AJ18">
+        <v>320</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -5523,8 +5555,11 @@
       <c r="AI19">
         <v>657</v>
       </c>
+      <c r="AJ19">
+        <v>691</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -5628,10 +5663,13 @@
         <v>187</v>
       </c>
       <c r="AI20">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="AJ20">
+        <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -5735,10 +5773,13 @@
         <v>352</v>
       </c>
       <c r="AI21">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="AJ21">
+        <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -5844,8 +5885,11 @@
       <c r="AI22">
         <v>1177</v>
       </c>
+      <c r="AJ22">
+        <v>1246</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -5949,10 +5993,13 @@
         <v>193</v>
       </c>
       <c r="AI23">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="AJ23">
+        <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -6056,10 +6103,13 @@
         <v>666</v>
       </c>
       <c r="AI24">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="AJ24">
+        <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -6163,10 +6213,13 @@
         <v>611</v>
       </c>
       <c r="AI25">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="AJ25">
+        <v>585</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -6270,10 +6323,13 @@
         <v>245</v>
       </c>
       <c r="AI26">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="AJ26">
+        <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -6379,8 +6435,11 @@
       <c r="AI27">
         <v>385</v>
       </c>
+      <c r="AJ27">
+        <v>339</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -6486,8 +6545,11 @@
       <c r="AI28">
         <v>658</v>
       </c>
+      <c r="AJ28">
+        <v>653</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -6593,10 +6655,13 @@
       <c r="AI29">
         <v>666</v>
       </c>
+      <c r="AJ29">
+        <v>798</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB65FA-7182-431E-9587-E8BF385697C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94D238-5C65-4079-BE33-C991D0E1B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
   <si>
     <t>trideni</t>
   </si>
@@ -134,6 +134,9 @@
     <t>30. 11. 2021</t>
   </si>
   <si>
+    <t>28. 12. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t>Očkování</t>
   </si>
   <si>
+    <t>Neočkován/a</t>
+  </si>
+  <si>
     <t>Očkován/a aspoň jednou dávkou</t>
   </si>
   <si>
@@ -245,13 +251,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
-  </si>
-  <si>
-    <t>Neočkován/a</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
   </si>
 </sst>
 </file>
@@ -641,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,16 +762,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -872,165 +878,171 @@
       <c r="AK2">
         <v>0.13</v>
       </c>
+      <c r="AL2">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>0.06</v>
+      </c>
+      <c r="E3">
+        <v>0.19</v>
+      </c>
+      <c r="F3">
+        <v>0.16</v>
+      </c>
+      <c r="G3">
+        <v>0.12</v>
+      </c>
+      <c r="H3">
+        <v>0.11</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.08</v>
+      </c>
+      <c r="M3">
+        <v>0.08</v>
+      </c>
+      <c r="N3">
+        <v>0.08</v>
+      </c>
+      <c r="O3">
+        <v>0.09</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.09</v>
+      </c>
+      <c r="R3">
+        <v>0.11</v>
+      </c>
+      <c r="S3">
+        <v>0.11</v>
+      </c>
+      <c r="T3">
+        <v>0.11</v>
+      </c>
+      <c r="U3">
+        <v>0.11</v>
+      </c>
+      <c r="V3">
+        <v>0.11</v>
+      </c>
+      <c r="W3">
+        <v>0.1</v>
+      </c>
+      <c r="X3">
+        <v>0.12</v>
+      </c>
+      <c r="Y3">
+        <v>0.13</v>
+      </c>
+      <c r="Z3">
+        <v>0.13</v>
+      </c>
+      <c r="AA3">
+        <v>0.13</v>
+      </c>
+      <c r="AB3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.11</v>
+      </c>
+      <c r="AD3">
+        <v>0.12</v>
+      </c>
+      <c r="AE3">
+        <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>0.1</v>
+      </c>
+      <c r="AG3">
+        <v>0.1</v>
+      </c>
+      <c r="AH3">
+        <v>0.1</v>
+      </c>
+      <c r="AI3">
+        <v>0.11</v>
+      </c>
+      <c r="AJ3">
+        <v>0.09</v>
+      </c>
+      <c r="AK3">
+        <v>0.12</v>
+      </c>
+      <c r="AL3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3">
-        <v>0.04</v>
-      </c>
-      <c r="Y3">
-        <v>0.09</v>
-      </c>
-      <c r="Z3">
-        <v>0.03</v>
-      </c>
-      <c r="AA3">
-        <v>0.09</v>
-      </c>
-      <c r="AB3">
-        <v>0.08</v>
-      </c>
-      <c r="AC3">
-        <v>0.08</v>
-      </c>
-      <c r="AD3">
-        <v>0.11</v>
-      </c>
-      <c r="AE3">
-        <v>0.08</v>
-      </c>
-      <c r="AF3">
-        <v>0.09</v>
-      </c>
-      <c r="AG3">
-        <v>0.1</v>
-      </c>
-      <c r="AH3">
-        <v>0.09</v>
-      </c>
-      <c r="AI3">
-        <v>0.09</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1</v>
-      </c>
-      <c r="AK3">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>0.06</v>
-      </c>
-      <c r="E4">
-        <v>0.22</v>
-      </c>
-      <c r="F4">
-        <v>0.18</v>
-      </c>
-      <c r="G4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.13</v>
-      </c>
-      <c r="I4">
-        <v>0.11</v>
-      </c>
-      <c r="J4">
-        <v>0.11</v>
-      </c>
-      <c r="K4">
-        <v>0.11</v>
-      </c>
-      <c r="L4">
-        <v>0.09</v>
-      </c>
-      <c r="M4">
-        <v>0.09</v>
-      </c>
-      <c r="N4">
-        <v>0.08</v>
-      </c>
-      <c r="O4">
-        <v>0.11</v>
-      </c>
-      <c r="P4">
-        <v>0.11</v>
-      </c>
-      <c r="Q4">
-        <v>0.11</v>
-      </c>
-      <c r="R4">
-        <v>0.13</v>
-      </c>
-      <c r="S4">
-        <v>0.13</v>
-      </c>
-      <c r="T4">
-        <v>0.13</v>
-      </c>
-      <c r="U4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V4">
-        <v>0.13</v>
-      </c>
-      <c r="W4">
-        <v>0.12</v>
+        <v>40</v>
       </c>
       <c r="X4">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="Y4">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="Z4">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="AA4">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AB4">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AC4">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AD4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE4">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AF4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG4">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH4">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AI4">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AJ4">
         <v>0.1</v>
@@ -1038,2469 +1050,2538 @@
       <c r="AK4">
         <v>0.13</v>
       </c>
+      <c r="AL4">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.22</v>
+      </c>
+      <c r="F5">
+        <v>0.18</v>
+      </c>
+      <c r="G5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.13</v>
+      </c>
+      <c r="I5">
+        <v>0.11</v>
+      </c>
+      <c r="J5">
+        <v>0.11</v>
+      </c>
+      <c r="K5">
+        <v>0.11</v>
+      </c>
+      <c r="L5">
+        <v>0.09</v>
+      </c>
+      <c r="M5">
+        <v>0.09</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5">
+        <v>0.11</v>
+      </c>
+      <c r="P5">
+        <v>0.11</v>
+      </c>
+      <c r="Q5">
+        <v>0.11</v>
+      </c>
+      <c r="R5">
+        <v>0.13</v>
+      </c>
+      <c r="S5">
+        <v>0.13</v>
+      </c>
+      <c r="T5">
+        <v>0.13</v>
+      </c>
+      <c r="U5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.13</v>
+      </c>
+      <c r="W5">
+        <v>0.12</v>
+      </c>
+      <c r="X5">
+        <v>0.13</v>
+      </c>
+      <c r="Y5">
+        <v>0.15</v>
+      </c>
+      <c r="Z5">
+        <v>0.15</v>
+      </c>
+      <c r="AA5">
+        <v>0.15</v>
+      </c>
+      <c r="AB5">
+        <v>0.15</v>
+      </c>
+      <c r="AC5">
+        <v>0.12</v>
+      </c>
+      <c r="AD5">
+        <v>0.13</v>
+      </c>
+      <c r="AE5">
+        <v>0.11</v>
+      </c>
+      <c r="AF5">
+        <v>0.1</v>
+      </c>
+      <c r="AG5">
+        <v>0.11</v>
+      </c>
+      <c r="AH5">
+        <v>0.11</v>
+      </c>
+      <c r="AI5">
+        <v>0.13</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1</v>
+      </c>
+      <c r="AK5">
+        <v>0.13</v>
+      </c>
+      <c r="AL5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6">
         <v>0.02</v>
       </c>
-      <c r="Y5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z5">
+      <c r="Y6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z6">
         <v>0.04</v>
       </c>
-      <c r="AA5">
+      <c r="AA6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AB5">
-        <v>0.11</v>
-      </c>
-      <c r="AC5">
+      <c r="AB6">
+        <v>0.11</v>
+      </c>
+      <c r="AC6">
         <v>0.16</v>
       </c>
-      <c r="AD5">
+      <c r="AD6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE5">
-        <v>0.1</v>
-      </c>
-      <c r="AF5">
-        <v>0.11</v>
-      </c>
-      <c r="AG5">
+      <c r="AE6">
+        <v>0.1</v>
+      </c>
+      <c r="AF6">
+        <v>0.11</v>
+      </c>
+      <c r="AG6">
         <v>0.13</v>
       </c>
-      <c r="AH5">
-        <v>0.08</v>
-      </c>
-      <c r="AI5">
-        <v>0.1</v>
-      </c>
-      <c r="AJ5">
-        <v>0.11</v>
-      </c>
-      <c r="AK5">
+      <c r="AH6">
+        <v>0.08</v>
+      </c>
+      <c r="AI6">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.11</v>
+      </c>
+      <c r="AK6">
         <v>0.15</v>
       </c>
+      <c r="AL6">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
         <v>0.05</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.13</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.12</v>
       </c>
-      <c r="G6">
-        <v>0.09</v>
-      </c>
-      <c r="H6">
-        <v>0.08</v>
-      </c>
-      <c r="I6">
-        <v>0.09</v>
-      </c>
-      <c r="J6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6">
-        <v>0.08</v>
-      </c>
-      <c r="N6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6">
+      <c r="G7">
+        <v>0.09</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7">
+        <v>0.09</v>
+      </c>
+      <c r="J7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.08</v>
+      </c>
+      <c r="N7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O7">
         <v>0.05</v>
       </c>
-      <c r="P6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R6">
-        <v>0.08</v>
-      </c>
-      <c r="S6">
-        <v>0.08</v>
-      </c>
-      <c r="T6">
-        <v>0.08</v>
-      </c>
-      <c r="U6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X6">
-        <v>0.1</v>
-      </c>
-      <c r="Y6">
-        <v>0.11</v>
-      </c>
-      <c r="Z6">
-        <v>0.09</v>
-      </c>
-      <c r="AA6">
-        <v>0.1</v>
-      </c>
-      <c r="AB6">
-        <v>0.11</v>
-      </c>
-      <c r="AC6">
-        <v>0.09</v>
-      </c>
-      <c r="AD6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AE6">
-        <v>0.08</v>
-      </c>
-      <c r="AF6">
-        <v>0.11</v>
-      </c>
-      <c r="AG6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH6">
-        <v>0.1</v>
-      </c>
-      <c r="AI6">
-        <v>0.08</v>
-      </c>
-      <c r="AJ6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AK6">
-        <v>0.11</v>
+      <c r="P7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.08</v>
+      </c>
+      <c r="S7">
+        <v>0.08</v>
+      </c>
+      <c r="T7">
+        <v>0.08</v>
+      </c>
+      <c r="U7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7">
+        <v>0.11</v>
+      </c>
+      <c r="Z7">
+        <v>0.09</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>0.11</v>
+      </c>
+      <c r="AC7">
+        <v>0.09</v>
+      </c>
+      <c r="AD7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE7">
+        <v>0.08</v>
+      </c>
+      <c r="AF7">
+        <v>0.11</v>
+      </c>
+      <c r="AG7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH7">
+        <v>0.1</v>
+      </c>
+      <c r="AI7">
+        <v>0.08</v>
+      </c>
+      <c r="AJ7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK7">
+        <v>0.11</v>
+      </c>
+      <c r="AL7">
+        <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7">
-        <v>0.1</v>
-      </c>
-      <c r="Y7">
-        <v>0.12</v>
-      </c>
-      <c r="Z7">
-        <v>0.02</v>
-      </c>
-      <c r="AA7">
-        <v>0.05</v>
-      </c>
-      <c r="AB7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AC7">
-        <v>0.06</v>
-      </c>
-      <c r="AD7">
-        <v>0.1</v>
-      </c>
-      <c r="AE7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF7">
-        <v>0.08</v>
-      </c>
-      <c r="AG7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH7">
-        <v>0.09</v>
-      </c>
-      <c r="AI7">
-        <v>0.09</v>
-      </c>
-      <c r="AJ7">
-        <v>0.08</v>
-      </c>
-      <c r="AK7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>0.05</v>
-      </c>
-      <c r="E8">
-        <v>0.12</v>
-      </c>
-      <c r="F8">
-        <v>0.11</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <v>0.08</v>
-      </c>
-      <c r="I8">
-        <v>0.08</v>
-      </c>
-      <c r="J8">
-        <v>0.08</v>
-      </c>
-      <c r="K8">
-        <v>0.08</v>
-      </c>
-      <c r="L8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N8">
-        <v>0.06</v>
-      </c>
-      <c r="O8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P8">
-        <v>0.08</v>
-      </c>
-      <c r="Q8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R8">
-        <v>0.09</v>
-      </c>
-      <c r="S8">
-        <v>0.09</v>
-      </c>
-      <c r="T8">
-        <v>0.08</v>
-      </c>
-      <c r="U8">
-        <v>0.09</v>
-      </c>
-      <c r="V8">
-        <v>0.08</v>
-      </c>
-      <c r="W8">
-        <v>0.08</v>
+        <v>40</v>
       </c>
       <c r="X8">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Y8">
         <v>0.12</v>
       </c>
       <c r="Z8">
+        <v>0.02</v>
+      </c>
+      <c r="AA8">
+        <v>0.05</v>
+      </c>
+      <c r="AB8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC8">
+        <v>0.06</v>
+      </c>
+      <c r="AD8">
+        <v>0.1</v>
+      </c>
+      <c r="AE8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF8">
+        <v>0.08</v>
+      </c>
+      <c r="AG8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH8">
+        <v>0.09</v>
+      </c>
+      <c r="AI8">
+        <v>0.09</v>
+      </c>
+      <c r="AJ8">
+        <v>0.08</v>
+      </c>
+      <c r="AK8">
+        <v>0.1</v>
+      </c>
+      <c r="AL8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>0.05</v>
+      </c>
+      <c r="E9">
         <v>0.12</v>
       </c>
-      <c r="AA8">
-        <v>0.1</v>
-      </c>
-      <c r="AB8">
-        <v>0.1</v>
-      </c>
-      <c r="AC8">
-        <v>0.08</v>
-      </c>
-      <c r="AD8">
-        <v>0.1</v>
-      </c>
-      <c r="AE8">
-        <v>0.08</v>
-      </c>
-      <c r="AF8">
-        <v>0.09</v>
-      </c>
-      <c r="AG8">
-        <v>0.08</v>
-      </c>
-      <c r="AH8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI8">
-        <v>0.09</v>
-      </c>
-      <c r="AJ8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AK8">
-        <v>0.11</v>
+      <c r="F9">
+        <v>0.11</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="I9">
+        <v>0.08</v>
+      </c>
+      <c r="J9">
+        <v>0.08</v>
+      </c>
+      <c r="K9">
+        <v>0.08</v>
+      </c>
+      <c r="L9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.06</v>
+      </c>
+      <c r="O9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.08</v>
+      </c>
+      <c r="Q9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R9">
+        <v>0.09</v>
+      </c>
+      <c r="S9">
+        <v>0.09</v>
+      </c>
+      <c r="T9">
+        <v>0.08</v>
+      </c>
+      <c r="U9">
+        <v>0.09</v>
+      </c>
+      <c r="V9">
+        <v>0.08</v>
+      </c>
+      <c r="W9">
+        <v>0.08</v>
+      </c>
+      <c r="X9">
+        <v>0.09</v>
+      </c>
+      <c r="Y9">
+        <v>0.12</v>
+      </c>
+      <c r="Z9">
+        <v>0.12</v>
+      </c>
+      <c r="AA9">
+        <v>0.1</v>
+      </c>
+      <c r="AB9">
+        <v>0.1</v>
+      </c>
+      <c r="AC9">
+        <v>0.08</v>
+      </c>
+      <c r="AD9">
+        <v>0.1</v>
+      </c>
+      <c r="AE9">
+        <v>0.08</v>
+      </c>
+      <c r="AF9">
+        <v>0.09</v>
+      </c>
+      <c r="AG9">
+        <v>0.08</v>
+      </c>
+      <c r="AH9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI9">
+        <v>0.09</v>
+      </c>
+      <c r="AJ9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK9">
+        <v>0.11</v>
+      </c>
+      <c r="AL9">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>0.06</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.15</v>
-      </c>
-      <c r="H9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.12</v>
-      </c>
-      <c r="J9">
-        <v>0.11</v>
-      </c>
-      <c r="K9">
-        <v>0.11</v>
-      </c>
-      <c r="L9">
-        <v>0.1</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9">
-        <v>0.09</v>
-      </c>
-      <c r="O9">
-        <v>0.1</v>
-      </c>
-      <c r="P9">
-        <v>0.11</v>
-      </c>
-      <c r="Q9">
-        <v>0.12</v>
-      </c>
-      <c r="R9">
-        <v>0.13</v>
-      </c>
-      <c r="S9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V9">
-        <v>0.13</v>
-      </c>
-      <c r="W9">
-        <v>0.13</v>
-      </c>
-      <c r="X9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y9">
-        <v>0.15</v>
-      </c>
-      <c r="Z9">
-        <v>0.13</v>
-      </c>
-      <c r="AA9">
-        <v>0.16</v>
-      </c>
-      <c r="AB9">
-        <v>0.15</v>
-      </c>
-      <c r="AC9">
-        <v>0.12</v>
-      </c>
-      <c r="AD9">
-        <v>0.13</v>
-      </c>
-      <c r="AE9">
-        <v>0.1</v>
-      </c>
-      <c r="AF9">
-        <v>0.1</v>
-      </c>
-      <c r="AG9">
-        <v>0.13</v>
-      </c>
-      <c r="AH9">
-        <v>0.11</v>
-      </c>
-      <c r="AI9">
-        <v>0.11</v>
-      </c>
-      <c r="AJ9">
-        <v>0.12</v>
-      </c>
-      <c r="AK9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>0.06</v>
       </c>
       <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>0.15</v>
+      </c>
+      <c r="H10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F10">
-        <v>0.1</v>
-      </c>
-      <c r="G10">
-        <v>0.09</v>
-      </c>
-      <c r="H10">
-        <v>0.09</v>
-      </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="J10">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="K10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+      <c r="N10">
+        <v>0.09</v>
+      </c>
+      <c r="O10">
+        <v>0.1</v>
+      </c>
+      <c r="P10">
+        <v>0.11</v>
+      </c>
+      <c r="Q10">
+        <v>0.12</v>
+      </c>
+      <c r="R10">
+        <v>0.13</v>
+      </c>
+      <c r="S10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.13</v>
+      </c>
+      <c r="W10">
+        <v>0.13</v>
+      </c>
+      <c r="X10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.15</v>
+      </c>
+      <c r="Z10">
+        <v>0.13</v>
+      </c>
+      <c r="AA10">
+        <v>0.16</v>
+      </c>
+      <c r="AB10">
+        <v>0.15</v>
+      </c>
+      <c r="AC10">
+        <v>0.12</v>
+      </c>
+      <c r="AD10">
+        <v>0.13</v>
+      </c>
+      <c r="AE10">
+        <v>0.1</v>
+      </c>
+      <c r="AF10">
+        <v>0.1</v>
+      </c>
+      <c r="AG10">
+        <v>0.13</v>
+      </c>
+      <c r="AH10">
+        <v>0.11</v>
+      </c>
+      <c r="AI10">
+        <v>0.11</v>
+      </c>
+      <c r="AJ10">
+        <v>0.12</v>
+      </c>
+      <c r="AK10">
+        <v>0.15</v>
+      </c>
+      <c r="AL10">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>0.06</v>
+      </c>
+      <c r="E11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.09</v>
+      </c>
+      <c r="H11">
+        <v>0.09</v>
+      </c>
+      <c r="I11">
+        <v>0.08</v>
+      </c>
+      <c r="J11">
+        <v>0.08</v>
+      </c>
+      <c r="K11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L11">
         <v>0.04</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>0.05</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>0.05</v>
       </c>
-      <c r="O10">
-        <v>0.08</v>
-      </c>
-      <c r="P10">
-        <v>0.09</v>
-      </c>
-      <c r="Q10">
+      <c r="O11">
+        <v>0.08</v>
+      </c>
+      <c r="P11">
+        <v>0.09</v>
+      </c>
+      <c r="Q11">
         <v>0.06</v>
       </c>
-      <c r="R10">
-        <v>0.08</v>
-      </c>
-      <c r="S10">
-        <v>0.09</v>
-      </c>
-      <c r="T10">
-        <v>0.08</v>
-      </c>
-      <c r="U10">
-        <v>0.11</v>
-      </c>
-      <c r="V10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W10">
+      <c r="R11">
+        <v>0.08</v>
+      </c>
+      <c r="S11">
+        <v>0.09</v>
+      </c>
+      <c r="T11">
+        <v>0.08</v>
+      </c>
+      <c r="U11">
+        <v>0.11</v>
+      </c>
+      <c r="V11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W11">
         <v>0.05</v>
       </c>
-      <c r="X10">
-        <v>0.08</v>
-      </c>
-      <c r="Y10">
-        <v>0.08</v>
-      </c>
-      <c r="Z10">
+      <c r="X11">
+        <v>0.08</v>
+      </c>
+      <c r="Y11">
+        <v>0.08</v>
+      </c>
+      <c r="Z11">
         <v>0.12</v>
       </c>
-      <c r="AA10">
-        <v>0.11</v>
-      </c>
-      <c r="AB10">
-        <v>0.08</v>
-      </c>
-      <c r="AC10">
-        <v>0.08</v>
-      </c>
-      <c r="AD10">
-        <v>0.11</v>
-      </c>
-      <c r="AE10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF10">
+      <c r="AA11">
+        <v>0.11</v>
+      </c>
+      <c r="AB11">
+        <v>0.08</v>
+      </c>
+      <c r="AC11">
+        <v>0.08</v>
+      </c>
+      <c r="AD11">
+        <v>0.11</v>
+      </c>
+      <c r="AE11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF11">
         <v>0.06</v>
       </c>
-      <c r="AG10">
+      <c r="AG11">
         <v>0.03</v>
       </c>
-      <c r="AH10">
+      <c r="AH11">
         <v>0.05</v>
       </c>
-      <c r="AI10">
+      <c r="AI11">
         <v>0.06</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ11">
         <v>0.05</v>
       </c>
-      <c r="AK10">
-        <v>7.0000000000000007E-2</v>
+      <c r="AK11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL11">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
         <v>0.04</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.12</v>
       </c>
-      <c r="F11">
-        <v>0.11</v>
-      </c>
-      <c r="G11">
-        <v>0.11</v>
-      </c>
-      <c r="H11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.08</v>
-      </c>
-      <c r="J11">
-        <v>0.08</v>
-      </c>
-      <c r="K11">
-        <v>0.09</v>
-      </c>
-      <c r="L11">
-        <v>0.08</v>
-      </c>
-      <c r="M11">
-        <v>0.08</v>
-      </c>
-      <c r="N11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P11">
-        <v>0.08</v>
-      </c>
-      <c r="Q11">
-        <v>0.08</v>
-      </c>
-      <c r="R11">
-        <v>0.09</v>
-      </c>
-      <c r="S11">
-        <v>0.09</v>
-      </c>
-      <c r="T11">
-        <v>0.08</v>
-      </c>
-      <c r="U11">
-        <v>0.08</v>
-      </c>
-      <c r="V11">
-        <v>0.09</v>
-      </c>
-      <c r="W11">
-        <v>0.09</v>
-      </c>
-      <c r="X11">
-        <v>0.1</v>
-      </c>
-      <c r="Y11">
+      <c r="F12">
+        <v>0.11</v>
+      </c>
+      <c r="G12">
+        <v>0.11</v>
+      </c>
+      <c r="H12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.08</v>
+      </c>
+      <c r="J12">
+        <v>0.08</v>
+      </c>
+      <c r="K12">
+        <v>0.09</v>
+      </c>
+      <c r="L12">
+        <v>0.08</v>
+      </c>
+      <c r="M12">
+        <v>0.08</v>
+      </c>
+      <c r="N12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.08</v>
+      </c>
+      <c r="Q12">
+        <v>0.08</v>
+      </c>
+      <c r="R12">
+        <v>0.09</v>
+      </c>
+      <c r="S12">
+        <v>0.09</v>
+      </c>
+      <c r="T12">
+        <v>0.08</v>
+      </c>
+      <c r="U12">
+        <v>0.08</v>
+      </c>
+      <c r="V12">
+        <v>0.09</v>
+      </c>
+      <c r="W12">
+        <v>0.09</v>
+      </c>
+      <c r="X12">
+        <v>0.1</v>
+      </c>
+      <c r="Y12">
         <v>0.13</v>
       </c>
-      <c r="Z11">
-        <v>0.11</v>
-      </c>
-      <c r="AA11">
-        <v>0.1</v>
-      </c>
-      <c r="AB11">
-        <v>0.11</v>
-      </c>
-      <c r="AC11">
-        <v>0.08</v>
-      </c>
-      <c r="AD11">
-        <v>0.1</v>
-      </c>
-      <c r="AE11">
-        <v>0.08</v>
-      </c>
-      <c r="AF11">
-        <v>0.11</v>
-      </c>
-      <c r="AG11">
-        <v>0.09</v>
-      </c>
-      <c r="AH11">
-        <v>0.08</v>
-      </c>
-      <c r="AI11">
-        <v>0.1</v>
-      </c>
-      <c r="AJ11">
-        <v>0.08</v>
-      </c>
-      <c r="AK11">
+      <c r="Z12">
+        <v>0.11</v>
+      </c>
+      <c r="AA12">
+        <v>0.1</v>
+      </c>
+      <c r="AB12">
+        <v>0.11</v>
+      </c>
+      <c r="AC12">
+        <v>0.08</v>
+      </c>
+      <c r="AD12">
+        <v>0.1</v>
+      </c>
+      <c r="AE12">
+        <v>0.08</v>
+      </c>
+      <c r="AF12">
+        <v>0.11</v>
+      </c>
+      <c r="AG12">
+        <v>0.09</v>
+      </c>
+      <c r="AH12">
+        <v>0.08</v>
+      </c>
+      <c r="AI12">
+        <v>0.1</v>
+      </c>
+      <c r="AJ12">
+        <v>0.08</v>
+      </c>
+      <c r="AK12">
         <v>0.12</v>
       </c>
+      <c r="AL12">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E12">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13">
         <v>0.33</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.25</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>0.19</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.18</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>0.16</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>0.13</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L12">
-        <v>0.11</v>
-      </c>
-      <c r="M12">
-        <v>0.09</v>
-      </c>
-      <c r="N12">
-        <v>0.08</v>
-      </c>
-      <c r="O12">
+      <c r="L13">
+        <v>0.11</v>
+      </c>
+      <c r="M13">
+        <v>0.09</v>
+      </c>
+      <c r="N13">
+        <v>0.08</v>
+      </c>
+      <c r="O13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>0.12</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>0.15</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>0.12</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>0.17</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>0.18</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>0.15</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>0.15</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>0.16</v>
-      </c>
-      <c r="X12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y12">
-        <v>0.19</v>
-      </c>
-      <c r="Z12">
-        <v>0.16</v>
-      </c>
-      <c r="AA12">
-        <v>0.19</v>
-      </c>
-      <c r="AB12">
-        <v>0.17</v>
-      </c>
-      <c r="AC12">
-        <v>0.15</v>
-      </c>
-      <c r="AD12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE12">
-        <v>0.13</v>
-      </c>
-      <c r="AF12">
-        <v>0.13</v>
-      </c>
-      <c r="AG12">
-        <v>0.17</v>
-      </c>
-      <c r="AH12">
-        <v>0.12</v>
-      </c>
-      <c r="AI12">
-        <v>0.15</v>
-      </c>
-      <c r="AJ12">
-        <v>0.13</v>
-      </c>
-      <c r="AK12">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>0.06</v>
-      </c>
-      <c r="E13">
-        <v>0.21</v>
-      </c>
-      <c r="F13">
-        <v>0.18</v>
-      </c>
-      <c r="G13">
-        <v>0.13</v>
-      </c>
-      <c r="H13">
-        <v>0.12</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
-      <c r="K13">
-        <v>0.09</v>
-      </c>
-      <c r="L13">
-        <v>0.09</v>
-      </c>
-      <c r="M13">
-        <v>0.1</v>
-      </c>
-      <c r="N13">
-        <v>0.09</v>
-      </c>
-      <c r="O13">
-        <v>0.08</v>
-      </c>
-      <c r="P13">
-        <v>0.1</v>
-      </c>
-      <c r="Q13">
-        <v>0.1</v>
-      </c>
-      <c r="R13">
-        <v>0.13</v>
-      </c>
-      <c r="S13">
-        <v>0.12</v>
-      </c>
-      <c r="T13">
-        <v>0.12</v>
-      </c>
-      <c r="U13">
-        <v>0.13</v>
-      </c>
-      <c r="V13">
-        <v>0.12</v>
-      </c>
-      <c r="W13">
-        <v>0.11</v>
       </c>
       <c r="X13">
         <v>0.14000000000000001</v>
       </c>
       <c r="Y13">
+        <v>0.19</v>
+      </c>
+      <c r="Z13">
+        <v>0.16</v>
+      </c>
+      <c r="AA13">
+        <v>0.19</v>
+      </c>
+      <c r="AB13">
+        <v>0.17</v>
+      </c>
+      <c r="AC13">
+        <v>0.15</v>
+      </c>
+      <c r="AD13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE13">
         <v>0.13</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
+        <v>0.13</v>
+      </c>
+      <c r="AG13">
+        <v>0.17</v>
+      </c>
+      <c r="AH13">
         <v>0.12</v>
       </c>
-      <c r="AA13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC13">
-        <v>0.11</v>
-      </c>
-      <c r="AD13">
-        <v>0.12</v>
-      </c>
-      <c r="AE13">
-        <v>0.09</v>
-      </c>
-      <c r="AF13">
-        <v>0.09</v>
-      </c>
-      <c r="AG13">
-        <v>0.11</v>
-      </c>
-      <c r="AH13">
-        <v>0.11</v>
-      </c>
       <c r="AI13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AJ13">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AK13">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
+      </c>
+      <c r="AL13">
+        <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E14">
+        <v>0.21</v>
+      </c>
+      <c r="F14">
+        <v>0.18</v>
+      </c>
+      <c r="G14">
+        <v>0.13</v>
+      </c>
+      <c r="H14">
+        <v>0.12</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>0.09</v>
+      </c>
+      <c r="L14">
+        <v>0.09</v>
+      </c>
+      <c r="M14">
+        <v>0.1</v>
+      </c>
+      <c r="N14">
+        <v>0.09</v>
+      </c>
+      <c r="O14">
+        <v>0.08</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>0.13</v>
+      </c>
+      <c r="S14">
+        <v>0.12</v>
+      </c>
+      <c r="T14">
+        <v>0.12</v>
+      </c>
+      <c r="U14">
+        <v>0.13</v>
+      </c>
+      <c r="V14">
+        <v>0.12</v>
+      </c>
+      <c r="W14">
+        <v>0.11</v>
+      </c>
+      <c r="X14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>0.13</v>
+      </c>
+      <c r="Z14">
+        <v>0.12</v>
+      </c>
+      <c r="AA14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>0.11</v>
+      </c>
+      <c r="AD14">
+        <v>0.12</v>
+      </c>
+      <c r="AE14">
+        <v>0.09</v>
+      </c>
+      <c r="AF14">
+        <v>0.09</v>
+      </c>
+      <c r="AG14">
+        <v>0.11</v>
+      </c>
+      <c r="AH14">
+        <v>0.11</v>
+      </c>
+      <c r="AI14">
+        <v>0.1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.11</v>
+      </c>
+      <c r="AK14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
         <v>0.34</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.24</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.25</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0.21</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.17</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>0.22</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.18</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.16</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>0.17</v>
       </c>
-      <c r="N14">
-        <v>0.09</v>
-      </c>
-      <c r="O14">
+      <c r="N15">
+        <v>0.09</v>
+      </c>
+      <c r="O15">
         <v>0.17</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>0.21</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>0.22</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>0.22</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>0.27</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>0.27</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>0.15</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>0.23</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <v>0.21</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>0.2</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>0.27</v>
       </c>
-      <c r="AA14">
+      <c r="AA15">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AB14">
+      <c r="AB15">
         <v>0.26</v>
       </c>
-      <c r="AC14">
+      <c r="AC15">
         <v>0.22</v>
       </c>
-      <c r="AD14">
+      <c r="AD15">
         <v>0.27</v>
       </c>
-      <c r="AE14">
+      <c r="AE15">
         <v>0.17</v>
       </c>
-      <c r="AF14">
+      <c r="AF15">
         <v>0.2</v>
       </c>
-      <c r="AG14">
+      <c r="AG15">
         <v>0.21</v>
       </c>
-      <c r="AH14">
+      <c r="AH15">
         <v>0.15</v>
       </c>
-      <c r="AI14">
+      <c r="AI15">
         <v>0.2</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ15">
         <v>0.21</v>
-      </c>
-      <c r="AK14">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.25</v>
-      </c>
-      <c r="F15">
-        <v>0.2</v>
-      </c>
-      <c r="G15">
-        <v>0.13</v>
-      </c>
-      <c r="H15">
-        <v>0.13</v>
-      </c>
-      <c r="I15">
-        <v>0.12</v>
-      </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
-      <c r="K15">
-        <v>0.09</v>
-      </c>
-      <c r="L15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M15">
-        <v>0.09</v>
-      </c>
-      <c r="N15">
-        <v>0.08</v>
-      </c>
-      <c r="O15">
-        <v>0.08</v>
-      </c>
-      <c r="P15">
-        <v>0.12</v>
-      </c>
-      <c r="Q15">
-        <v>0.1</v>
-      </c>
-      <c r="R15">
-        <v>0.11</v>
-      </c>
-      <c r="S15">
-        <v>0.15</v>
-      </c>
-      <c r="T15">
-        <v>0.12</v>
-      </c>
-      <c r="U15">
-        <v>0.11</v>
-      </c>
-      <c r="V15">
-        <v>0.13</v>
-      </c>
-      <c r="W15">
-        <v>0.13</v>
-      </c>
-      <c r="X15">
-        <v>0.13</v>
-      </c>
-      <c r="Y15">
-        <v>0.15</v>
-      </c>
-      <c r="Z15">
-        <v>0.13</v>
-      </c>
-      <c r="AA15">
-        <v>0.13</v>
-      </c>
-      <c r="AB15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>0.1</v>
-      </c>
-      <c r="AD15">
-        <v>0.12</v>
-      </c>
-      <c r="AE15">
-        <v>0.1</v>
-      </c>
-      <c r="AF15">
-        <v>0.11</v>
-      </c>
-      <c r="AG15">
-        <v>0.15</v>
-      </c>
-      <c r="AH15">
-        <v>0.11</v>
-      </c>
-      <c r="AI15">
-        <v>0.1</v>
-      </c>
-      <c r="AJ15">
-        <v>0.1</v>
       </c>
       <c r="AK15">
         <v>0.17</v>
       </c>
+      <c r="AL15">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.13</v>
+      </c>
+      <c r="H16">
+        <v>0.13</v>
+      </c>
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>0.09</v>
+      </c>
+      <c r="L16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.09</v>
+      </c>
+      <c r="N16">
+        <v>0.08</v>
+      </c>
+      <c r="O16">
+        <v>0.08</v>
+      </c>
+      <c r="P16">
+        <v>0.12</v>
+      </c>
+      <c r="Q16">
+        <v>0.1</v>
+      </c>
+      <c r="R16">
+        <v>0.11</v>
+      </c>
+      <c r="S16">
+        <v>0.15</v>
+      </c>
+      <c r="T16">
+        <v>0.12</v>
+      </c>
+      <c r="U16">
+        <v>0.11</v>
+      </c>
+      <c r="V16">
+        <v>0.13</v>
+      </c>
+      <c r="W16">
+        <v>0.13</v>
+      </c>
+      <c r="X16">
+        <v>0.13</v>
+      </c>
+      <c r="Y16">
+        <v>0.15</v>
+      </c>
+      <c r="Z16">
+        <v>0.13</v>
+      </c>
+      <c r="AA16">
+        <v>0.13</v>
+      </c>
+      <c r="AB16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC16">
+        <v>0.1</v>
+      </c>
+      <c r="AD16">
+        <v>0.12</v>
+      </c>
+      <c r="AE16">
+        <v>0.1</v>
+      </c>
+      <c r="AF16">
+        <v>0.11</v>
+      </c>
+      <c r="AG16">
+        <v>0.15</v>
+      </c>
+      <c r="AH16">
+        <v>0.11</v>
+      </c>
+      <c r="AI16">
+        <v>0.1</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>0.17</v>
+      </c>
+      <c r="AL16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
         <v>0.04</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.12</v>
       </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.08</v>
-      </c>
-      <c r="I16">
-        <v>0.08</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16">
-        <v>0.08</v>
-      </c>
-      <c r="L16">
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.08</v>
+      </c>
+      <c r="I17">
+        <v>0.08</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>0.08</v>
+      </c>
+      <c r="L17">
         <v>0.06</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.04</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>0.06</v>
       </c>
-      <c r="O16">
-        <v>0.09</v>
-      </c>
-      <c r="P16">
+      <c r="O17">
+        <v>0.09</v>
+      </c>
+      <c r="P17">
         <v>0.06</v>
       </c>
-      <c r="Q16">
-        <v>0.08</v>
-      </c>
-      <c r="R16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S16">
-        <v>0.08</v>
-      </c>
-      <c r="T16">
-        <v>0.08</v>
-      </c>
-      <c r="U16">
-        <v>0.09</v>
-      </c>
-      <c r="V16">
-        <v>0.1</v>
-      </c>
-      <c r="W16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X16">
-        <v>0.09</v>
-      </c>
-      <c r="Y16">
+      <c r="Q17">
+        <v>0.08</v>
+      </c>
+      <c r="R17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S17">
+        <v>0.08</v>
+      </c>
+      <c r="T17">
+        <v>0.08</v>
+      </c>
+      <c r="U17">
+        <v>0.09</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+      <c r="W17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X17">
+        <v>0.09</v>
+      </c>
+      <c r="Y17">
         <v>0.12</v>
       </c>
-      <c r="Z16">
-        <v>0.1</v>
-      </c>
-      <c r="AA16">
-        <v>0.09</v>
-      </c>
-      <c r="AB16">
-        <v>0.1</v>
-      </c>
-      <c r="AC16">
-        <v>0.09</v>
-      </c>
-      <c r="AD16">
-        <v>0.09</v>
-      </c>
-      <c r="AE16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF16">
-        <v>0.08</v>
-      </c>
-      <c r="AG16">
+      <c r="Z17">
+        <v>0.1</v>
+      </c>
+      <c r="AA17">
+        <v>0.09</v>
+      </c>
+      <c r="AB17">
+        <v>0.1</v>
+      </c>
+      <c r="AC17">
+        <v>0.09</v>
+      </c>
+      <c r="AD17">
+        <v>0.09</v>
+      </c>
+      <c r="AE17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF17">
+        <v>0.08</v>
+      </c>
+      <c r="AG17">
         <v>0.06</v>
       </c>
-      <c r="AH16">
-        <v>0.08</v>
-      </c>
-      <c r="AI16">
-        <v>0.08</v>
-      </c>
-      <c r="AJ16">
+      <c r="AH17">
+        <v>0.08</v>
+      </c>
+      <c r="AI17">
+        <v>0.08</v>
+      </c>
+      <c r="AJ17">
         <v>0.06</v>
       </c>
-      <c r="AK16">
-        <v>0.11</v>
+      <c r="AK17">
+        <v>0.11</v>
+      </c>
+      <c r="AL17">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
         <v>0.06</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.24</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.2</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.15</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I17">
-        <v>0.1</v>
-      </c>
-      <c r="J17">
-        <v>0.11</v>
-      </c>
-      <c r="K17">
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>0.11</v>
+      </c>
+      <c r="K18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>0.12</v>
       </c>
-      <c r="M17">
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <v>0.1</v>
-      </c>
-      <c r="O17">
+      <c r="M18">
+        <v>0.1</v>
+      </c>
+      <c r="N18">
+        <v>0.1</v>
+      </c>
+      <c r="O18">
         <v>0.12</v>
       </c>
-      <c r="P17">
-        <v>0.11</v>
-      </c>
-      <c r="Q17">
+      <c r="P18">
+        <v>0.11</v>
+      </c>
+      <c r="Q18">
         <v>0.13</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>0.16</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>0.13</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>0.13</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>0.15</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>0.12</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <v>0.13</v>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <v>0.16</v>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <v>0.15</v>
       </c>
-      <c r="AA17">
+      <c r="AA18">
         <v>0.17</v>
       </c>
-      <c r="AB17">
+      <c r="AB18">
         <v>0.15</v>
       </c>
-      <c r="AC17">
+      <c r="AC18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AD17">
+      <c r="AD18">
         <v>0.13</v>
       </c>
-      <c r="AE17">
+      <c r="AE18">
         <v>0.12</v>
       </c>
-      <c r="AF17">
-        <v>0.09</v>
-      </c>
-      <c r="AG17">
+      <c r="AF18">
+        <v>0.09</v>
+      </c>
+      <c r="AG18">
         <v>0.13</v>
       </c>
-      <c r="AH17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI17">
-        <v>0.11</v>
-      </c>
-      <c r="AJ17">
-        <v>0.11</v>
-      </c>
-      <c r="AK17">
+      <c r="AH18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI18">
+        <v>0.11</v>
+      </c>
+      <c r="AJ18">
+        <v>0.11</v>
+      </c>
+      <c r="AK18">
         <v>0.15</v>
       </c>
+      <c r="AL18">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>0.05</v>
-      </c>
-      <c r="E18">
-        <v>0.13</v>
-      </c>
-      <c r="F18">
-        <v>0.12</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.08</v>
-      </c>
-      <c r="I18">
-        <v>0.09</v>
-      </c>
-      <c r="J18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M18">
-        <v>0.08</v>
-      </c>
-      <c r="N18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O18">
-        <v>0.05</v>
-      </c>
-      <c r="P18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R18">
-        <v>0.08</v>
-      </c>
-      <c r="S18">
-        <v>0.08</v>
-      </c>
-      <c r="T18">
-        <v>0.08</v>
-      </c>
-      <c r="U18">
-        <v>0.08</v>
-      </c>
-      <c r="V18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W18">
-        <v>0.08</v>
-      </c>
-      <c r="X18">
-        <v>0.1</v>
-      </c>
-      <c r="Y18">
-        <v>0.11</v>
-      </c>
-      <c r="Z18">
-        <v>0.09</v>
-      </c>
-      <c r="AA18">
-        <v>0.09</v>
-      </c>
-      <c r="AB18">
-        <v>0.1</v>
-      </c>
-      <c r="AC18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD18">
-        <v>0.09</v>
-      </c>
-      <c r="AE18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF18">
-        <v>0.08</v>
-      </c>
-      <c r="AG18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH18">
-        <v>0.09</v>
-      </c>
-      <c r="AI18">
-        <v>0.08</v>
-      </c>
-      <c r="AJ18">
-        <v>0.08</v>
-      </c>
-      <c r="AK18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E19">
+        <v>0.13</v>
+      </c>
+      <c r="F19">
+        <v>0.12</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.08</v>
+      </c>
+      <c r="I19">
+        <v>0.09</v>
+      </c>
+      <c r="J19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.08</v>
+      </c>
+      <c r="N19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.05</v>
+      </c>
+      <c r="P19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.08</v>
+      </c>
+      <c r="S19">
+        <v>0.08</v>
+      </c>
+      <c r="T19">
+        <v>0.08</v>
+      </c>
+      <c r="U19">
+        <v>0.08</v>
+      </c>
+      <c r="V19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W19">
+        <v>0.08</v>
+      </c>
+      <c r="X19">
+        <v>0.1</v>
+      </c>
+      <c r="Y19">
+        <v>0.11</v>
+      </c>
+      <c r="Z19">
+        <v>0.09</v>
+      </c>
+      <c r="AA19">
+        <v>0.09</v>
+      </c>
+      <c r="AB19">
+        <v>0.1</v>
+      </c>
+      <c r="AC19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD19">
+        <v>0.09</v>
+      </c>
+      <c r="AE19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF19">
+        <v>0.08</v>
+      </c>
+      <c r="AG19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH19">
+        <v>0.09</v>
+      </c>
+      <c r="AI19">
+        <v>0.08</v>
+      </c>
+      <c r="AJ19">
+        <v>0.08</v>
+      </c>
+      <c r="AK19">
+        <v>0.1</v>
+      </c>
+      <c r="AL19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
         <v>0.35</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.27</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.26</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.22</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>0.17</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>0.19</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>0.2</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>0.15</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>0.21</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>0.19</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>0.18</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>0.22</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>0.2</v>
       </c>
-      <c r="R19">
+      <c r="R20">
         <v>0.17</v>
       </c>
-      <c r="S19">
+      <c r="S20">
         <v>0.22</v>
       </c>
-      <c r="T19">
+      <c r="T20">
         <v>0.25</v>
       </c>
-      <c r="U19">
+      <c r="U20">
         <v>0.21</v>
       </c>
-      <c r="V19">
+      <c r="V20">
         <v>0.21</v>
       </c>
-      <c r="W19">
+      <c r="W20">
         <v>0.2</v>
       </c>
-      <c r="X19">
+      <c r="X20">
         <v>0.25</v>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA19">
+      <c r="AA20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AB19">
+      <c r="AB20">
         <v>0.24</v>
       </c>
-      <c r="AC19">
+      <c r="AC20">
         <v>0.24</v>
       </c>
-      <c r="AD19">
+      <c r="AD20">
         <v>0.21</v>
       </c>
-      <c r="AE19">
+      <c r="AE20">
         <v>0.2</v>
       </c>
-      <c r="AF19">
+      <c r="AF20">
         <v>0.19</v>
       </c>
-      <c r="AG19">
+      <c r="AG20">
         <v>0.19</v>
       </c>
-      <c r="AH19">
+      <c r="AH20">
         <v>0.22</v>
       </c>
-      <c r="AI19">
+      <c r="AI20">
         <v>0.17</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ20">
         <v>0.15</v>
       </c>
-      <c r="AK19">
+      <c r="AK20">
         <v>0.24</v>
       </c>
+      <c r="AL20">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
         <v>0.06</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.2</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.18</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.15</v>
       </c>
-      <c r="H20">
-        <v>0.11</v>
-      </c>
-      <c r="I20">
+      <c r="H21">
+        <v>0.11</v>
+      </c>
+      <c r="I21">
         <v>0.12</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>0.13</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>0.12</v>
       </c>
-      <c r="L20">
-        <v>0.1</v>
-      </c>
-      <c r="M20">
-        <v>0.08</v>
-      </c>
-      <c r="N20">
-        <v>0.08</v>
-      </c>
-      <c r="O20">
-        <v>0.09</v>
-      </c>
-      <c r="P20">
-        <v>0.1</v>
-      </c>
-      <c r="Q20">
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>0.08</v>
+      </c>
+      <c r="N21">
+        <v>0.08</v>
+      </c>
+      <c r="O21">
+        <v>0.09</v>
+      </c>
+      <c r="P21">
+        <v>0.1</v>
+      </c>
+      <c r="Q21">
         <v>0.12</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>0.12</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <v>0.13</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>0.12</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>0.15</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>0.13</v>
       </c>
-      <c r="W20">
-        <v>0.11</v>
-      </c>
-      <c r="X20">
+      <c r="W21">
+        <v>0.11</v>
+      </c>
+      <c r="X21">
         <v>0.13</v>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <v>0.13</v>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>0.16</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC20">
+      <c r="AC21">
         <v>0.12</v>
       </c>
-      <c r="AD20">
+      <c r="AD21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE20">
-        <v>0.1</v>
-      </c>
-      <c r="AF20">
-        <v>0.11</v>
-      </c>
-      <c r="AG20">
-        <v>0.11</v>
-      </c>
-      <c r="AH20">
-        <v>0.11</v>
-      </c>
-      <c r="AI20">
-        <v>0.1</v>
-      </c>
-      <c r="AJ20">
-        <v>0.11</v>
-      </c>
-      <c r="AK20">
+      <c r="AE21">
+        <v>0.1</v>
+      </c>
+      <c r="AF21">
+        <v>0.11</v>
+      </c>
+      <c r="AG21">
+        <v>0.11</v>
+      </c>
+      <c r="AH21">
+        <v>0.11</v>
+      </c>
+      <c r="AI21">
+        <v>0.1</v>
+      </c>
+      <c r="AJ21">
+        <v>0.11</v>
+      </c>
+      <c r="AK21">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AL21">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21">
-        <v>0.05</v>
-      </c>
-      <c r="E21">
-        <v>0.13</v>
-      </c>
-      <c r="F21">
-        <v>0.11</v>
-      </c>
-      <c r="G21">
-        <v>0.08</v>
-      </c>
-      <c r="H21">
-        <v>0.08</v>
-      </c>
-      <c r="I21">
-        <v>0.08</v>
-      </c>
-      <c r="J21">
-        <v>0.06</v>
-      </c>
-      <c r="K21">
-        <v>0.06</v>
-      </c>
-      <c r="L21">
-        <v>0.06</v>
-      </c>
-      <c r="M21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N21">
-        <v>0.05</v>
-      </c>
-      <c r="O21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R21">
-        <v>0.09</v>
-      </c>
-      <c r="S21">
-        <v>0.08</v>
-      </c>
-      <c r="T21">
-        <v>0.08</v>
-      </c>
-      <c r="U21">
-        <v>0.08</v>
-      </c>
-      <c r="V21">
-        <v>0.08</v>
-      </c>
-      <c r="W21">
-        <v>0.08</v>
-      </c>
-      <c r="X21">
-        <v>0.09</v>
-      </c>
-      <c r="Y21">
-        <v>0.11</v>
-      </c>
-      <c r="Z21">
-        <v>0.09</v>
-      </c>
-      <c r="AA21">
-        <v>0.09</v>
-      </c>
-      <c r="AB21">
-        <v>0.11</v>
-      </c>
-      <c r="AC21">
-        <v>0.08</v>
-      </c>
-      <c r="AD21">
-        <v>0.1</v>
-      </c>
-      <c r="AE21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AF21">
-        <v>0.08</v>
-      </c>
-      <c r="AG21">
-        <v>0.09</v>
-      </c>
-      <c r="AH21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI21">
-        <v>0.09</v>
-      </c>
-      <c r="AJ21">
-        <v>0.08</v>
-      </c>
-      <c r="AK21">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E22">
+        <v>0.13</v>
+      </c>
+      <c r="F22">
+        <v>0.11</v>
+      </c>
+      <c r="G22">
+        <v>0.08</v>
+      </c>
+      <c r="H22">
+        <v>0.08</v>
+      </c>
+      <c r="I22">
+        <v>0.08</v>
+      </c>
+      <c r="J22">
+        <v>0.06</v>
+      </c>
+      <c r="K22">
+        <v>0.06</v>
+      </c>
+      <c r="L22">
+        <v>0.06</v>
+      </c>
+      <c r="M22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.05</v>
+      </c>
+      <c r="O22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R22">
+        <v>0.09</v>
+      </c>
+      <c r="S22">
+        <v>0.08</v>
+      </c>
+      <c r="T22">
+        <v>0.08</v>
+      </c>
+      <c r="U22">
+        <v>0.08</v>
+      </c>
+      <c r="V22">
+        <v>0.08</v>
+      </c>
+      <c r="W22">
+        <v>0.08</v>
+      </c>
+      <c r="X22">
+        <v>0.09</v>
+      </c>
+      <c r="Y22">
+        <v>0.11</v>
+      </c>
+      <c r="Z22">
+        <v>0.09</v>
+      </c>
+      <c r="AA22">
+        <v>0.09</v>
+      </c>
+      <c r="AB22">
+        <v>0.11</v>
+      </c>
+      <c r="AC22">
+        <v>0.08</v>
+      </c>
+      <c r="AD22">
+        <v>0.1</v>
+      </c>
+      <c r="AE22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF22">
+        <v>0.08</v>
+      </c>
+      <c r="AG22">
+        <v>0.09</v>
+      </c>
+      <c r="AH22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI22">
+        <v>0.09</v>
+      </c>
+      <c r="AJ22">
+        <v>0.08</v>
+      </c>
+      <c r="AK22">
+        <v>0.11</v>
+      </c>
+      <c r="AL22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E23">
         <v>0.36</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.27</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.2</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.16</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>0.13</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.13</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>0.17</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>0.15</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>0.15</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>0.13</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <v>0.12</v>
       </c>
-      <c r="S22">
+      <c r="S23">
         <v>0.17</v>
       </c>
-      <c r="T22">
+      <c r="T23">
         <v>0.19</v>
       </c>
-      <c r="U22">
+      <c r="U23">
         <v>0.16</v>
       </c>
-      <c r="V22">
+      <c r="V23">
         <v>0.16</v>
       </c>
-      <c r="W22">
+      <c r="W23">
         <v>0.17</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <v>0.18</v>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <v>0.18</v>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <v>0.16</v>
       </c>
-      <c r="AA22">
+      <c r="AA23">
         <v>0.21</v>
       </c>
-      <c r="AB22">
+      <c r="AB23">
         <v>0.17</v>
       </c>
-      <c r="AC22">
+      <c r="AC23">
         <v>0.16</v>
       </c>
-      <c r="AD22">
+      <c r="AD23">
         <v>0.2</v>
       </c>
-      <c r="AE22">
+      <c r="AE23">
         <v>0.13</v>
       </c>
-      <c r="AF22">
+      <c r="AF23">
         <v>0.15</v>
       </c>
-      <c r="AG22">
+      <c r="AG23">
         <v>0.15</v>
       </c>
-      <c r="AH22">
+      <c r="AH23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AI22">
-        <v>0.1</v>
-      </c>
-      <c r="AJ22">
+      <c r="AI23">
+        <v>0.1</v>
+      </c>
+      <c r="AJ23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AK22">
+      <c r="AK23">
         <v>0.13</v>
       </c>
+      <c r="AL23">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>0.05</v>
-      </c>
-      <c r="E23">
-        <v>0.16</v>
-      </c>
-      <c r="F23">
-        <v>0.13</v>
-      </c>
-      <c r="G23">
-        <v>0.12</v>
-      </c>
-      <c r="H23">
-        <v>0.1</v>
-      </c>
-      <c r="I23">
-        <v>0.11</v>
-      </c>
-      <c r="J23">
-        <v>0.1</v>
-      </c>
-      <c r="K23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L23">
-        <v>0.08</v>
-      </c>
-      <c r="M23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N23">
-        <v>0.06</v>
-      </c>
-      <c r="O23">
-        <v>0.08</v>
-      </c>
-      <c r="P23">
-        <v>0.09</v>
-      </c>
-      <c r="Q23">
-        <v>0.09</v>
-      </c>
-      <c r="R23">
-        <v>0.1</v>
-      </c>
-      <c r="S23">
-        <v>0.11</v>
-      </c>
-      <c r="T23">
-        <v>0.12</v>
-      </c>
-      <c r="U23">
-        <v>0.12</v>
-      </c>
-      <c r="V23">
-        <v>0.1</v>
-      </c>
-      <c r="W23">
-        <v>0.09</v>
-      </c>
-      <c r="X23">
-        <v>0.13</v>
-      </c>
-      <c r="Y23">
-        <v>0.15</v>
-      </c>
-      <c r="Z23">
-        <v>0.15</v>
-      </c>
-      <c r="AA23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>0.13</v>
-      </c>
-      <c r="AC23">
-        <v>0.09</v>
-      </c>
-      <c r="AD23">
-        <v>0.12</v>
-      </c>
-      <c r="AE23">
-        <v>0.11</v>
-      </c>
-      <c r="AF23">
-        <v>0.1</v>
-      </c>
-      <c r="AG23">
-        <v>0.12</v>
-      </c>
-      <c r="AH23">
-        <v>0.11</v>
-      </c>
-      <c r="AI23">
-        <v>0.12</v>
-      </c>
-      <c r="AJ23">
-        <v>0.1</v>
-      </c>
-      <c r="AK23">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>0.05</v>
       </c>
       <c r="E24">
+        <v>0.16</v>
+      </c>
+      <c r="F24">
+        <v>0.13</v>
+      </c>
+      <c r="G24">
         <v>0.12</v>
       </c>
-      <c r="F24">
-        <v>0.1</v>
-      </c>
-      <c r="G24">
-        <v>0.09</v>
-      </c>
       <c r="H24">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I24">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.08</v>
+      </c>
+      <c r="M24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N24">
         <v>0.06</v>
       </c>
-      <c r="K24">
-        <v>0.09</v>
-      </c>
-      <c r="L24">
+      <c r="O24">
+        <v>0.08</v>
+      </c>
+      <c r="P24">
+        <v>0.09</v>
+      </c>
+      <c r="Q24">
+        <v>0.09</v>
+      </c>
+      <c r="R24">
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <v>0.11</v>
+      </c>
+      <c r="T24">
+        <v>0.12</v>
+      </c>
+      <c r="U24">
+        <v>0.12</v>
+      </c>
+      <c r="V24">
+        <v>0.1</v>
+      </c>
+      <c r="W24">
+        <v>0.09</v>
+      </c>
+      <c r="X24">
+        <v>0.13</v>
+      </c>
+      <c r="Y24">
+        <v>0.15</v>
+      </c>
+      <c r="Z24">
+        <v>0.15</v>
+      </c>
+      <c r="AA24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.13</v>
+      </c>
+      <c r="AC24">
+        <v>0.09</v>
+      </c>
+      <c r="AD24">
+        <v>0.12</v>
+      </c>
+      <c r="AE24">
+        <v>0.11</v>
+      </c>
+      <c r="AF24">
+        <v>0.1</v>
+      </c>
+      <c r="AG24">
+        <v>0.12</v>
+      </c>
+      <c r="AH24">
+        <v>0.11</v>
+      </c>
+      <c r="AI24">
+        <v>0.12</v>
+      </c>
+      <c r="AJ24">
+        <v>0.1</v>
+      </c>
+      <c r="AK24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>0.05</v>
+      </c>
+      <c r="E25">
+        <v>0.12</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>0.09</v>
+      </c>
+      <c r="H25">
+        <v>0.08</v>
+      </c>
+      <c r="I25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J25">
         <v>0.06</v>
       </c>
-      <c r="M24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N24">
-        <v>0.08</v>
-      </c>
-      <c r="O24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P24">
-        <v>0.08</v>
-      </c>
-      <c r="Q24">
-        <v>0.09</v>
-      </c>
-      <c r="R24">
-        <v>0.1</v>
-      </c>
-      <c r="S24">
-        <v>0.09</v>
-      </c>
-      <c r="T24">
-        <v>0.08</v>
-      </c>
-      <c r="U24">
-        <v>0.09</v>
-      </c>
-      <c r="V24">
-        <v>0.11</v>
-      </c>
-      <c r="W24">
-        <v>0.09</v>
-      </c>
-      <c r="X24">
-        <v>0.09</v>
-      </c>
-      <c r="Y24">
-        <v>0.11</v>
-      </c>
-      <c r="Z24">
-        <v>0.08</v>
-      </c>
-      <c r="AA24">
-        <v>0.09</v>
-      </c>
-      <c r="AB24">
-        <v>0.1</v>
-      </c>
-      <c r="AC24">
-        <v>0.09</v>
-      </c>
-      <c r="AD24">
-        <v>0.08</v>
-      </c>
-      <c r="AE24">
+      <c r="K25">
+        <v>0.09</v>
+      </c>
+      <c r="L25">
+        <v>0.06</v>
+      </c>
+      <c r="M25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.08</v>
+      </c>
+      <c r="O25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.08</v>
+      </c>
+      <c r="Q25">
+        <v>0.09</v>
+      </c>
+      <c r="R25">
+        <v>0.1</v>
+      </c>
+      <c r="S25">
+        <v>0.09</v>
+      </c>
+      <c r="T25">
+        <v>0.08</v>
+      </c>
+      <c r="U25">
+        <v>0.09</v>
+      </c>
+      <c r="V25">
+        <v>0.11</v>
+      </c>
+      <c r="W25">
+        <v>0.09</v>
+      </c>
+      <c r="X25">
+        <v>0.09</v>
+      </c>
+      <c r="Y25">
+        <v>0.11</v>
+      </c>
+      <c r="Z25">
+        <v>0.08</v>
+      </c>
+      <c r="AA25">
+        <v>0.09</v>
+      </c>
+      <c r="AB25">
+        <v>0.1</v>
+      </c>
+      <c r="AC25">
+        <v>0.09</v>
+      </c>
+      <c r="AD25">
+        <v>0.08</v>
+      </c>
+      <c r="AE25">
         <v>0.05</v>
       </c>
-      <c r="AF24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG24">
+      <c r="AF25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG25">
         <v>0.06</v>
       </c>
-      <c r="AH24">
+      <c r="AH25">
         <v>0.06</v>
       </c>
-      <c r="AI24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AJ24">
-        <v>0.1</v>
-      </c>
-      <c r="AK24">
+      <c r="AI25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ25">
+        <v>0.1</v>
+      </c>
+      <c r="AK25">
         <v>0.12</v>
       </c>
+      <c r="AL25">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.18</v>
-      </c>
-      <c r="F25">
-        <v>0.15</v>
-      </c>
-      <c r="G25">
-        <v>0.11</v>
-      </c>
-      <c r="H25">
-        <v>0.1</v>
-      </c>
-      <c r="I25">
-        <v>0.1</v>
-      </c>
-      <c r="J25">
-        <v>0.11</v>
-      </c>
-      <c r="K25">
-        <v>0.06</v>
-      </c>
-      <c r="L25">
-        <v>0.05</v>
-      </c>
-      <c r="M25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N25">
-        <v>0.03</v>
-      </c>
-      <c r="O25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q25">
-        <v>0.08</v>
-      </c>
-      <c r="R25">
-        <v>0.12</v>
-      </c>
-      <c r="S25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U25">
-        <v>0.1</v>
-      </c>
-      <c r="V25">
-        <v>0.08</v>
-      </c>
-      <c r="W25">
-        <v>0.09</v>
-      </c>
-      <c r="X25">
-        <v>0.08</v>
-      </c>
-      <c r="Y25">
-        <v>0.1</v>
-      </c>
-      <c r="Z25">
-        <v>0.1</v>
-      </c>
-      <c r="AA25">
-        <v>0.1</v>
-      </c>
-      <c r="AB25">
-        <v>0.13</v>
-      </c>
-      <c r="AC25">
-        <v>0.1</v>
-      </c>
-      <c r="AD25">
-        <v>0.13</v>
-      </c>
-      <c r="AE25">
-        <v>0.1</v>
-      </c>
-      <c r="AF25">
-        <v>0.09</v>
-      </c>
-      <c r="AG25">
-        <v>0.11</v>
-      </c>
-      <c r="AH25">
-        <v>0.08</v>
-      </c>
-      <c r="AI25">
-        <v>0.09</v>
-      </c>
-      <c r="AJ25">
-        <v>0.08</v>
-      </c>
-      <c r="AK25">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E26">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="F26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>0.11</v>
+      </c>
+      <c r="K26">
         <v>0.06</v>
-      </c>
-      <c r="I26">
-        <v>0.05</v>
-      </c>
-      <c r="J26">
-        <v>0.06</v>
-      </c>
-      <c r="K26">
-        <v>0.05</v>
       </c>
       <c r="L26">
         <v>0.05</v>
       </c>
       <c r="M26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.03</v>
+      </c>
+      <c r="O26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0.08</v>
+      </c>
+      <c r="R26">
+        <v>0.12</v>
+      </c>
+      <c r="S26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U26">
+        <v>0.1</v>
+      </c>
+      <c r="V26">
+        <v>0.08</v>
+      </c>
+      <c r="W26">
+        <v>0.09</v>
+      </c>
+      <c r="X26">
+        <v>0.08</v>
+      </c>
+      <c r="Y26">
+        <v>0.1</v>
+      </c>
+      <c r="Z26">
+        <v>0.1</v>
+      </c>
+      <c r="AA26">
+        <v>0.1</v>
+      </c>
+      <c r="AB26">
+        <v>0.13</v>
+      </c>
+      <c r="AC26">
+        <v>0.1</v>
+      </c>
+      <c r="AD26">
+        <v>0.13</v>
+      </c>
+      <c r="AE26">
+        <v>0.1</v>
+      </c>
+      <c r="AF26">
+        <v>0.09</v>
+      </c>
+      <c r="AG26">
+        <v>0.11</v>
+      </c>
+      <c r="AH26">
+        <v>0.08</v>
+      </c>
+      <c r="AI26">
+        <v>0.09</v>
+      </c>
+      <c r="AJ26">
+        <v>0.08</v>
+      </c>
+      <c r="AK26">
+        <v>0.11</v>
+      </c>
+      <c r="AL26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>0.04</v>
+      </c>
+      <c r="E27">
+        <v>0.09</v>
+      </c>
+      <c r="F27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H27">
         <v>0.06</v>
       </c>
-      <c r="N26">
-        <v>0.04</v>
-      </c>
-      <c r="O26">
+      <c r="I27">
         <v>0.05</v>
       </c>
-      <c r="P26">
-        <v>0.04</v>
-      </c>
-      <c r="Q26">
-        <v>0.03</v>
-      </c>
-      <c r="R26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S26">
+      <c r="J27">
         <v>0.06</v>
       </c>
-      <c r="T26">
-        <v>0.06</v>
-      </c>
-      <c r="U26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V26">
-        <v>0.06</v>
-      </c>
-      <c r="W26">
-        <v>0.06</v>
-      </c>
-      <c r="X26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y26">
-        <v>0.08</v>
-      </c>
-      <c r="Z26">
-        <v>0.09</v>
-      </c>
-      <c r="AA26">
-        <v>0.09</v>
-      </c>
-      <c r="AB26">
-        <v>0.09</v>
-      </c>
-      <c r="AC26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AD26">
-        <v>0.08</v>
-      </c>
-      <c r="AE26">
+      <c r="K27">
         <v>0.05</v>
-      </c>
-      <c r="AF26">
-        <v>0.05</v>
-      </c>
-      <c r="AG26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AH26">
-        <v>0.06</v>
-      </c>
-      <c r="AI26">
-        <v>0.06</v>
-      </c>
-      <c r="AJ26">
-        <v>0.04</v>
-      </c>
-      <c r="AK26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27">
-        <v>0.05</v>
-      </c>
-      <c r="E27">
-        <v>0.11</v>
-      </c>
-      <c r="F27">
-        <v>0.12</v>
-      </c>
-      <c r="G27">
-        <v>0.1</v>
-      </c>
-      <c r="H27">
-        <v>0.1</v>
-      </c>
-      <c r="I27">
-        <v>0.09</v>
-      </c>
-      <c r="J27">
-        <v>0.08</v>
-      </c>
-      <c r="K27">
-        <v>0.09</v>
       </c>
       <c r="L27">
         <v>0.05</v>
       </c>
       <c r="M27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P27">
+        <v>0.04</v>
+      </c>
+      <c r="Q27">
+        <v>0.03</v>
+      </c>
+      <c r="R27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S27">
         <v>0.06</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
+        <v>0.06</v>
+      </c>
+      <c r="U27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V27">
+        <v>0.06</v>
+      </c>
+      <c r="W27">
+        <v>0.06</v>
+      </c>
+      <c r="X27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y27">
+        <v>0.08</v>
+      </c>
+      <c r="Z27">
+        <v>0.09</v>
+      </c>
+      <c r="AA27">
+        <v>0.09</v>
+      </c>
+      <c r="AB27">
+        <v>0.09</v>
+      </c>
+      <c r="AC27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD27">
+        <v>0.08</v>
+      </c>
+      <c r="AE27">
         <v>0.05</v>
       </c>
-      <c r="R27">
-        <v>0.06</v>
-      </c>
-      <c r="S27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T27">
-        <v>0.08</v>
-      </c>
-      <c r="U27">
-        <v>0.08</v>
-      </c>
-      <c r="V27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="W27">
-        <v>0.08</v>
-      </c>
-      <c r="X27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y27">
-        <v>0.09</v>
-      </c>
-      <c r="Z27">
-        <v>0.06</v>
-      </c>
-      <c r="AA27">
-        <v>0.06</v>
-      </c>
-      <c r="AB27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AC27">
-        <v>0.06</v>
-      </c>
-      <c r="AD27">
-        <v>0.09</v>
-      </c>
-      <c r="AE27">
-        <v>0.06</v>
-      </c>
       <c r="AF27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AG27">
         <v>7.0000000000000007E-2</v>
@@ -3509,131 +3590,253 @@
         <v>0.06</v>
       </c>
       <c r="AI27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AJ27">
+        <v>0.04</v>
+      </c>
+      <c r="AK27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL27">
         <v>0.06</v>
       </c>
-      <c r="AK27">
-        <v>0.08</v>
-      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E28">
+        <v>0.11</v>
+      </c>
+      <c r="F28">
+        <v>0.12</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <v>0.09</v>
+      </c>
+      <c r="J28">
+        <v>0.08</v>
+      </c>
+      <c r="K28">
+        <v>0.09</v>
+      </c>
+      <c r="L28">
+        <v>0.05</v>
+      </c>
+      <c r="M28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.06</v>
+      </c>
+      <c r="Q28">
+        <v>0.05</v>
+      </c>
+      <c r="R28">
+        <v>0.06</v>
+      </c>
+      <c r="S28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T28">
+        <v>0.08</v>
+      </c>
+      <c r="U28">
+        <v>0.08</v>
+      </c>
+      <c r="V28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W28">
+        <v>0.08</v>
+      </c>
+      <c r="X28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y28">
+        <v>0.09</v>
+      </c>
+      <c r="Z28">
+        <v>0.06</v>
+      </c>
+      <c r="AA28">
+        <v>0.06</v>
+      </c>
+      <c r="AB28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC28">
+        <v>0.06</v>
+      </c>
+      <c r="AD28">
+        <v>0.09</v>
+      </c>
+      <c r="AE28">
+        <v>0.06</v>
+      </c>
+      <c r="AF28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH28">
+        <v>0.06</v>
+      </c>
+      <c r="AI28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ28">
+        <v>0.06</v>
+      </c>
+      <c r="AK28">
+        <v>0.08</v>
+      </c>
+      <c r="AL28">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
         <v>0.27</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.24</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>0.2</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>0.17</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>0.18</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>0.19</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>0.18</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>0.17</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>0.15</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>0.12</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>0.13</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>0.18</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>0.16</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>0.16</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>0.17</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>0.17</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>0.17</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>0.15</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>0.17</v>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <v>0.19</v>
       </c>
-      <c r="Z28">
+      <c r="Z29">
         <v>0.18</v>
       </c>
-      <c r="AA28">
+      <c r="AA29">
         <v>0.19</v>
       </c>
-      <c r="AB28">
+      <c r="AB29">
         <v>0.2</v>
       </c>
-      <c r="AC28">
+      <c r="AC29">
         <v>0.17</v>
       </c>
-      <c r="AD28">
+      <c r="AD29">
         <v>0.19</v>
       </c>
-      <c r="AE28">
+      <c r="AE29">
         <v>0.18</v>
       </c>
-      <c r="AF28">
+      <c r="AF29">
         <v>0.18</v>
       </c>
-      <c r="AG28">
+      <c r="AG29">
         <v>0.18</v>
       </c>
-      <c r="AH28">
+      <c r="AH29">
         <v>0.17</v>
       </c>
-      <c r="AI28">
+      <c r="AI29">
         <v>0.18</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ29">
         <v>0.16</v>
       </c>
-      <c r="AK28">
+      <c r="AK29">
         <v>0.19</v>
       </c>
+      <c r="AL29">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>74</v>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3643,13 +3846,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3758,13 +3961,16 @@
       <c r="AJ1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AK1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -3868,13 +4074,16 @@
       <c r="AJ2">
         <v>1790</v>
       </c>
+      <c r="AK2">
+        <v>1767</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2439</v>
@@ -3978,13 +4187,16 @@
       <c r="AJ3">
         <v>412</v>
       </c>
+      <c r="AK3">
+        <v>406</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W4">
         <v>21</v>
@@ -4028,13 +4240,16 @@
       <c r="AJ4">
         <v>1378</v>
       </c>
+      <c r="AK4">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1506</v>
@@ -4138,13 +4353,16 @@
       <c r="AJ5">
         <v>314</v>
       </c>
+      <c r="AK5">
+        <v>298</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W6">
         <v>14</v>
@@ -4188,13 +4406,16 @@
       <c r="AJ6">
         <v>772</v>
       </c>
+      <c r="AK6">
+        <v>774</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>933</v>
@@ -4298,13 +4519,16 @@
       <c r="AJ7">
         <v>98</v>
       </c>
+      <c r="AK7">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W8">
         <v>6</v>
@@ -4348,13 +4572,16 @@
       <c r="AJ8">
         <v>606</v>
       </c>
+      <c r="AK8">
+        <v>587</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1166</v>
@@ -4458,13 +4685,16 @@
       <c r="AJ9">
         <v>872</v>
       </c>
+      <c r="AK9">
+        <v>862</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1273</v>
@@ -4568,13 +4798,16 @@
       <c r="AJ10">
         <v>918</v>
       </c>
+      <c r="AK10">
+        <v>905</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>334</v>
@@ -4678,13 +4911,16 @@
       <c r="AJ11">
         <v>236</v>
       </c>
+      <c r="AK11">
+        <v>221</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>832</v>
@@ -4788,13 +5024,16 @@
       <c r="AJ12">
         <v>636</v>
       </c>
+      <c r="AK12">
+        <v>641</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>391</v>
@@ -4898,13 +5137,16 @@
       <c r="AJ13">
         <v>280</v>
       </c>
+      <c r="AK13">
+        <v>288</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>882</v>
@@ -5008,13 +5250,16 @@
       <c r="AJ14">
         <v>638</v>
       </c>
+      <c r="AK14">
+        <v>617</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>194</v>
@@ -5118,13 +5363,16 @@
       <c r="AJ15">
         <v>152</v>
       </c>
+      <c r="AK15">
+        <v>158</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>383</v>
@@ -5228,13 +5476,16 @@
       <c r="AJ16">
         <v>300</v>
       </c>
+      <c r="AK16">
+        <v>284</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>465</v>
@@ -5338,13 +5589,16 @@
       <c r="AJ17">
         <v>327</v>
       </c>
+      <c r="AK17">
+        <v>339</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>440</v>
@@ -5448,13 +5702,16 @@
       <c r="AJ18">
         <v>320</v>
       </c>
+      <c r="AK18">
+        <v>308</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>957</v>
@@ -5558,13 +5815,16 @@
       <c r="AJ19">
         <v>691</v>
       </c>
+      <c r="AK19">
+        <v>678</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -5668,13 +5928,16 @@
       <c r="AJ20">
         <v>192</v>
       </c>
+      <c r="AK20">
+        <v>192</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>689</v>
@@ -5778,13 +6041,16 @@
       <c r="AJ21">
         <v>352</v>
       </c>
+      <c r="AK21">
+        <v>333</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>1448</v>
@@ -5888,13 +6154,16 @@
       <c r="AJ22">
         <v>1246</v>
       </c>
+      <c r="AK22">
+        <v>1242</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>404</v>
@@ -5998,13 +6267,16 @@
       <c r="AJ23">
         <v>204</v>
       </c>
+      <c r="AK23">
+        <v>190</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>943</v>
@@ -6108,13 +6380,16 @@
       <c r="AJ24">
         <v>633</v>
       </c>
+      <c r="AK24">
+        <v>640</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>670</v>
@@ -6218,13 +6493,16 @@
       <c r="AJ25">
         <v>585</v>
       </c>
+      <c r="AK25">
+        <v>596</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>224</v>
@@ -6328,13 +6606,16 @@
       <c r="AJ26">
         <v>266</v>
       </c>
+      <c r="AK26">
+        <v>244</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>882</v>
@@ -6438,13 +6719,16 @@
       <c r="AJ27">
         <v>339</v>
       </c>
+      <c r="AK27">
+        <v>422</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>1058</v>
@@ -6548,13 +6832,16 @@
       <c r="AJ28">
         <v>653</v>
       </c>
+      <c r="AK28">
+        <v>723</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>498</v>
@@ -6658,10 +6945,13 @@
       <c r="AJ29">
         <v>798</v>
       </c>
+      <c r="AK29">
+        <v>622</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94D238-5C65-4079-BE33-C991D0E1B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BA0199-A1E1-48C2-9890-B42CB7073E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>trideni</t>
   </si>
@@ -137,6 +137,9 @@
     <t>28. 12. 2021</t>
   </si>
   <si>
+    <t>25. 1. 2021</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
@@ -251,10 +254,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
   </si>
 </sst>
 </file>
@@ -644,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,16 +768,19 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -881,16 +887,19 @@
       <c r="AL2">
         <v>0.11</v>
       </c>
+      <c r="AM2">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
       </c>
       <c r="D3">
         <v>0.06</v>
@@ -997,16 +1006,19 @@
       <c r="AL3">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AM3">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
       <c r="X4">
         <v>0.04</v>
@@ -1053,16 +1065,19 @@
       <c r="AL4">
         <v>0.1</v>
       </c>
+      <c r="AM4">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1169,16 +1184,19 @@
       <c r="AL5">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AM5">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X6">
         <v>0.02</v>
@@ -1225,16 +1243,19 @@
       <c r="AL6">
         <v>0.12</v>
       </c>
+      <c r="AM6">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -1341,16 +1362,19 @@
       <c r="AL7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AM7">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X8">
         <v>0.1</v>
@@ -1397,16 +1421,19 @@
       <c r="AL8">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AM8">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0.05</v>
@@ -1513,16 +1540,19 @@
       <c r="AL9">
         <v>0.09</v>
       </c>
+      <c r="AM9">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>0.06</v>
@@ -1629,16 +1659,19 @@
       <c r="AL10">
         <v>0.12</v>
       </c>
+      <c r="AM10">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>0.06</v>
@@ -1745,16 +1778,19 @@
       <c r="AL11">
         <v>0.11</v>
       </c>
+      <c r="AM11">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>0.04</v>
@@ -1861,16 +1897,19 @@
       <c r="AL12">
         <v>0.08</v>
       </c>
+      <c r="AM12">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>7.0000000000000007E-2</v>
@@ -1977,16 +2016,19 @@
       <c r="AL13">
         <v>0.18</v>
       </c>
+      <c r="AM13">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>0.06</v>
@@ -2093,16 +2135,19 @@
       <c r="AL14">
         <v>0.1</v>
       </c>
+      <c r="AM14">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -2209,16 +2254,19 @@
       <c r="AL15">
         <v>0.24</v>
       </c>
+      <c r="AM15">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>7.0000000000000007E-2</v>
@@ -2325,16 +2373,19 @@
       <c r="AL16">
         <v>0.13</v>
       </c>
+      <c r="AM16">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>0.04</v>
@@ -2441,16 +2492,19 @@
       <c r="AL17">
         <v>0.09</v>
       </c>
+      <c r="AM17">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0.06</v>
@@ -2557,16 +2611,19 @@
       <c r="AL18">
         <v>0.09</v>
       </c>
+      <c r="AM18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2673,16 +2730,19 @@
       <c r="AL19">
         <v>0.08</v>
       </c>
+      <c r="AM19">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>0.09</v>
@@ -2789,16 +2849,19 @@
       <c r="AL20">
         <v>0.21</v>
       </c>
+      <c r="AM20">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>0.06</v>
@@ -2905,16 +2968,19 @@
       <c r="AL21">
         <v>0.15</v>
       </c>
+      <c r="AM21">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -3021,16 +3087,19 @@
       <c r="AL22">
         <v>0.08</v>
       </c>
+      <c r="AM22">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>7.0000000000000007E-2</v>
@@ -3137,16 +3206,19 @@
       <c r="AL23">
         <v>0.18</v>
       </c>
+      <c r="AM23">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24">
         <v>0.05</v>
@@ -3253,16 +3325,19 @@
       <c r="AL24">
         <v>0.1</v>
       </c>
+      <c r="AM24">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>0.05</v>
@@ -3369,16 +3444,19 @@
       <c r="AL25">
         <v>0.1</v>
       </c>
+      <c r="AM25">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>7.0000000000000007E-2</v>
@@ -3485,16 +3563,19 @@
       <c r="AL26">
         <v>0.08</v>
       </c>
+      <c r="AM26">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0.04</v>
@@ -3601,16 +3682,19 @@
       <c r="AL27">
         <v>0.06</v>
       </c>
+      <c r="AM27">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>0.05</v>
@@ -3717,16 +3801,19 @@
       <c r="AL28">
         <v>0.06</v>
       </c>
+      <c r="AM28">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -3833,10 +3920,13 @@
       <c r="AL29">
         <v>0.19</v>
       </c>
+      <c r="AM29">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3846,13 +3936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3964,13 +4054,16 @@
       <c r="AK1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -4077,13 +4170,16 @@
       <c r="AK2">
         <v>1767</v>
       </c>
+      <c r="AL2">
+        <v>1815</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2439</v>
@@ -4190,13 +4286,16 @@
       <c r="AK3">
         <v>406</v>
       </c>
+      <c r="AL3">
+        <v>412</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4">
         <v>21</v>
@@ -4243,13 +4342,16 @@
       <c r="AK4">
         <v>1361</v>
       </c>
+      <c r="AL4">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1506</v>
@@ -4356,13 +4458,16 @@
       <c r="AK5">
         <v>298</v>
       </c>
+      <c r="AL5">
+        <v>304</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W6">
         <v>14</v>
@@ -4409,13 +4514,16 @@
       <c r="AK6">
         <v>774</v>
       </c>
+      <c r="AL6">
+        <v>797</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>933</v>
@@ -4522,13 +4630,16 @@
       <c r="AK7">
         <v>108</v>
       </c>
+      <c r="AL7">
+        <v>109</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W8">
         <v>6</v>
@@ -4575,13 +4686,16 @@
       <c r="AK8">
         <v>587</v>
       </c>
+      <c r="AL8">
+        <v>605</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1166</v>
@@ -4688,13 +4802,16 @@
       <c r="AK9">
         <v>862</v>
       </c>
+      <c r="AL9">
+        <v>880</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1273</v>
@@ -4801,13 +4918,16 @@
       <c r="AK10">
         <v>905</v>
       </c>
+      <c r="AL10">
+        <v>935</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>334</v>
@@ -4914,13 +5034,16 @@
       <c r="AK11">
         <v>221</v>
       </c>
+      <c r="AL11">
+        <v>220</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>832</v>
@@ -5027,13 +5150,16 @@
       <c r="AK12">
         <v>641</v>
       </c>
+      <c r="AL12">
+        <v>660</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>391</v>
@@ -5140,13 +5266,16 @@
       <c r="AK13">
         <v>288</v>
       </c>
+      <c r="AL13">
+        <v>293</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>882</v>
@@ -5253,13 +5382,16 @@
       <c r="AK14">
         <v>617</v>
       </c>
+      <c r="AL14">
+        <v>642</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>194</v>
@@ -5366,13 +5498,16 @@
       <c r="AK15">
         <v>158</v>
       </c>
+      <c r="AL15">
+        <v>161</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>383</v>
@@ -5479,13 +5614,16 @@
       <c r="AK16">
         <v>284</v>
       </c>
+      <c r="AL16">
+        <v>283</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>465</v>
@@ -5592,13 +5730,16 @@
       <c r="AK17">
         <v>339</v>
       </c>
+      <c r="AL17">
+        <v>356</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>440</v>
@@ -5705,13 +5846,16 @@
       <c r="AK18">
         <v>308</v>
       </c>
+      <c r="AL18">
+        <v>320</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>957</v>
@@ -5818,13 +5962,16 @@
       <c r="AK19">
         <v>678</v>
       </c>
+      <c r="AL19">
+        <v>695</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -5931,13 +6078,16 @@
       <c r="AK20">
         <v>192</v>
       </c>
+      <c r="AL20">
+        <v>186</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>689</v>
@@ -6044,13 +6194,16 @@
       <c r="AK21">
         <v>333</v>
       </c>
+      <c r="AL21">
+        <v>324</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>1448</v>
@@ -6157,13 +6310,16 @@
       <c r="AK22">
         <v>1242</v>
       </c>
+      <c r="AL22">
+        <v>1305</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>404</v>
@@ -6270,13 +6426,16 @@
       <c r="AK23">
         <v>190</v>
       </c>
+      <c r="AL23">
+        <v>170</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>943</v>
@@ -6383,13 +6542,16 @@
       <c r="AK24">
         <v>640</v>
       </c>
+      <c r="AL24">
+        <v>630</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>670</v>
@@ -6496,13 +6658,16 @@
       <c r="AK25">
         <v>596</v>
       </c>
+      <c r="AL25">
+        <v>605</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>224</v>
@@ -6609,13 +6774,16 @@
       <c r="AK26">
         <v>244</v>
       </c>
+      <c r="AL26">
+        <v>302</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>882</v>
@@ -6722,13 +6890,16 @@
       <c r="AK27">
         <v>422</v>
       </c>
+      <c r="AL27">
+        <v>494</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>1058</v>
@@ -6835,13 +7006,16 @@
       <c r="AK28">
         <v>723</v>
       </c>
+      <c r="AL28">
+        <v>759</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>498</v>
@@ -6948,10 +7122,13 @@
       <c r="AK29">
         <v>622</v>
       </c>
+      <c r="AL29">
+        <v>562</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ZBP_13_dusevni_zdravi.xlsx
+++ b/ZBP_13_dusevni_zdravi.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\2020\2025_Epidemic_vizualizce\03_export_dat\05_zverejneni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Můj disk\01_PROJEKTY\Dlouhodobe\9003_Zivot_behem_pandemie_vizualizace\03_export_dat\05_zverejneni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BA0199-A1E1-48C2-9890-B42CB7073E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE5D6F-CA54-4BA1-A751-8E57F388F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="pocetR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="80">
   <si>
     <t>trideni</t>
   </si>
@@ -137,7 +137,10 @@
     <t>28. 12. 2021</t>
   </si>
   <si>
-    <t>25. 1. 2021</t>
+    <t>25. 1. 2022</t>
+  </si>
+  <si>
+    <t>22. 2. 2022</t>
   </si>
   <si>
     <t>total</t>
@@ -254,10 +257,10 @@
     <t>Velké starosti</t>
   </si>
   <si>
-    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+    <t>Život během pandemie, Duševní zdraví, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
+  </si>
+  <si>
+    <t>Život během pandemie, Duševní zdraví, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -647,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,16 +773,19 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -890,16 +895,19 @@
       <c r="AM2">
         <v>0.11</v>
       </c>
+      <c r="AN2">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3">
         <v>0.06</v>
@@ -1009,16 +1017,19 @@
       <c r="AM3">
         <v>0.12</v>
       </c>
+      <c r="AN3">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="X4">
         <v>0.04</v>
@@ -1068,16 +1079,19 @@
       <c r="AM4">
         <v>0.11</v>
       </c>
+      <c r="AN4">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>0.06</v>
@@ -1187,16 +1201,19 @@
       <c r="AM5">
         <v>0.12</v>
       </c>
+      <c r="AN5">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X6">
         <v>0.02</v>
@@ -1244,18 +1261,21 @@
         <v>0.12</v>
       </c>
       <c r="AM6">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN6">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -1363,18 +1383,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN7">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X8">
         <v>0.1</v>
@@ -1424,16 +1447,19 @@
       <c r="AM8">
         <v>0.09</v>
       </c>
+      <c r="AN8">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>0.05</v>
@@ -1543,16 +1569,19 @@
       <c r="AM9">
         <v>0.1</v>
       </c>
+      <c r="AN9">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>0.06</v>
@@ -1660,18 +1689,21 @@
         <v>0.12</v>
       </c>
       <c r="AM10">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN10">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>0.06</v>
@@ -1781,16 +1813,19 @@
       <c r="AM11">
         <v>0.08</v>
       </c>
+      <c r="AN11">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>0.04</v>
@@ -1900,16 +1935,19 @@
       <c r="AM12">
         <v>0.11</v>
       </c>
+      <c r="AN12">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>7.0000000000000007E-2</v>
@@ -2017,18 +2055,21 @@
         <v>0.18</v>
       </c>
       <c r="AM13">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN13">
+        <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>0.06</v>
@@ -2138,16 +2179,19 @@
       <c r="AM14">
         <v>0.12</v>
       </c>
+      <c r="AN14">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -2255,18 +2299,21 @@
         <v>0.24</v>
       </c>
       <c r="AM15">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AN15">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>7.0000000000000007E-2</v>
@@ -2376,16 +2423,19 @@
       <c r="AM16">
         <v>0.15</v>
       </c>
+      <c r="AN16">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>0.04</v>
@@ -2493,18 +2543,21 @@
         <v>0.09</v>
       </c>
       <c r="AM17">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="AN17">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>0.06</v>
@@ -2612,18 +2665,21 @@
         <v>0.09</v>
       </c>
       <c r="AM18">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN18">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0.05</v>
@@ -2731,18 +2787,21 @@
         <v>0.08</v>
       </c>
       <c r="AM19">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="AN19">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>0.09</v>
@@ -2850,18 +2909,21 @@
         <v>0.21</v>
       </c>
       <c r="AM20">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AN20">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>0.06</v>
@@ -2971,16 +3033,19 @@
       <c r="AM21">
         <v>0.14000000000000001</v>
       </c>
+      <c r="AN21">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>0.05</v>
@@ -3090,16 +3155,19 @@
       <c r="AM22">
         <v>0.09</v>
       </c>
+      <c r="AN22">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>7.0000000000000007E-2</v>
@@ -3207,18 +3275,21 @@
         <v>0.18</v>
       </c>
       <c r="AM23">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AN23">
+        <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>0.05</v>
@@ -3326,18 +3397,21 @@
         <v>0.1</v>
       </c>
       <c r="AM24">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN24">
+        <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>0.05</v>
@@ -3447,16 +3521,19 @@
       <c r="AM25">
         <v>0.1</v>
       </c>
+      <c r="AN25">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>7.0000000000000007E-2</v>
@@ -3566,16 +3643,19 @@
       <c r="AM26">
         <v>0.1</v>
       </c>
+      <c r="AN26">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>0.04</v>
@@ -3685,16 +3765,19 @@
       <c r="AM27">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AN27">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0.05</v>
@@ -3804,16 +3887,19 @@
       <c r="AM28">
         <v>0.09</v>
       </c>
+      <c r="AN28">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -3923,10 +4009,13 @@
       <c r="AM29">
         <v>0.18</v>
       </c>
+      <c r="AN29">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3936,13 +4025,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4057,13 +4146,16 @@
       <c r="AL1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AM1" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2439</v>
@@ -4171,15 +4263,18 @@
         <v>1767</v>
       </c>
       <c r="AL2">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AM2">
+        <v>1786</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2439</v>
@@ -4287,15 +4382,18 @@
         <v>406</v>
       </c>
       <c r="AL3">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AM3">
+        <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4">
         <v>21</v>
@@ -4343,15 +4441,18 @@
         <v>1361</v>
       </c>
       <c r="AL4">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AM4">
+        <v>1420</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1506</v>
@@ -4459,15 +4560,18 @@
         <v>298</v>
       </c>
       <c r="AL5">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AM5">
+        <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W6">
         <v>14</v>
@@ -4515,15 +4619,18 @@
         <v>774</v>
       </c>
       <c r="AL6">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AM6">
+        <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>933</v>
@@ -4631,15 +4738,18 @@
         <v>108</v>
       </c>
       <c r="AL7">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AM7">
+        <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8">
         <v>6</v>
@@ -4687,15 +4797,18 @@
         <v>587</v>
       </c>
       <c r="AL8">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AM8">
+        <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1166</v>
@@ -4803,15 +4916,18 @@
         <v>862</v>
       </c>
       <c r="AL9">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AM9">
+        <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>1273</v>
@@ -4919,15 +5035,18 @@
         <v>905</v>
       </c>
       <c r="AL10">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AM10">
+        <v>923</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>334</v>
@@ -5035,15 +5154,18 @@
         <v>221</v>
       </c>
       <c r="AL11">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="AM11">
+        <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>832</v>
@@ -5151,15 +5273,18 @@
         <v>641</v>
       </c>
       <c r="AL12">
-        <v>660</v>
+        <v>668</v>
+      </c>
+      <c r="AM12">
+        <v>656</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>391</v>
@@ -5267,15 +5392,18 @@
         <v>288</v>
       </c>
       <c r="AL13">
+        <v>305</v>
+      </c>
+      <c r="AM13">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>882</v>
@@ -5383,15 +5511,18 @@
         <v>617</v>
       </c>
       <c r="AL14">
-        <v>642</v>
+        <v>650</v>
+      </c>
+      <c r="AM14">
+        <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>194</v>
@@ -5499,15 +5630,18 @@
         <v>158</v>
       </c>
       <c r="AL15">
-        <v>161</v>
+        <v>164</v>
+      </c>
+      <c r="AM15">
+        <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>383</v>
@@ -5615,15 +5749,18 @@
         <v>284</v>
       </c>
       <c r="AL16">
-        <v>283</v>
+        <v>287</v>
+      </c>
+      <c r="AM16">
+        <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>465</v>
@@ -5731,15 +5868,18 @@
         <v>339</v>
       </c>
       <c r="AL17">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="AM17">
+        <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>440</v>
@@ -5847,15 +5987,18 @@
         <v>308</v>
       </c>
       <c r="AL18">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="AM18">
+        <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>957</v>
@@ -5963,15 +6106,18 @@
         <v>678</v>
       </c>
       <c r="AL19">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AM19">
+        <v>678</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -6079,15 +6225,18 @@
         <v>192</v>
       </c>
       <c r="AL20">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="AM20">
+        <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>689</v>
@@ -6195,15 +6344,18 @@
         <v>333</v>
       </c>
       <c r="AL21">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="AM21">
+        <v>348</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1448</v>
@@ -6311,15 +6463,18 @@
         <v>1242</v>
       </c>
       <c r="AL22">
-        <v>1305</v>
+        <v>1324</v>
+      </c>
+      <c r="AM22">
+        <v>1268</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>404</v>
@@ -6427,15 +6582,18 @@
         <v>190</v>
       </c>
       <c r="AL23">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="AM23">
+        <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>943</v>
@@ -6543,15 +6701,18 @@
         <v>640</v>
       </c>
       <c r="AL24">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="AM24">
+        <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>670</v>
@@ -6659,15 +6820,18 @@
         <v>596</v>
       </c>
       <c r="AL25">
-        <v>605</v>
+        <v>619</v>
+      </c>
+      <c r="AM25">
+        <v>623</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>224</v>
@@ -6775,15 +6939,18 @@
         <v>244</v>
       </c>
       <c r="AL26">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AM26">
+        <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>882</v>
@@ -6891,15 +7058,18 @@
         <v>422</v>
       </c>
       <c r="AL27">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="AM27">
+        <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>1058</v>
@@ -7007,15 +7177,18 @@
         <v>723</v>
       </c>
       <c r="AL28">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="AM28">
+        <v>778</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>498</v>
@@ -7123,12 +7296,15 @@
         <v>622</v>
       </c>
       <c r="AL29">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="AM29">
+        <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
